--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="385">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -1616,7 +1616,7 @@
     <t>$no_empty$ref(RewardData)</t>
   </si>
   <si>
-    <t>2022-05-5//2023-03-17</t>
+    <t>2022-05-1//2022-05-5</t>
   </si>
   <si>
     <t>58砖石//225砖石//368砖石//900砖石//2024砖石//3848砖石//4548砖石</t>
@@ -1628,13 +1628,22 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-5//2023-03-25</t>
+    <t>2022-05-6//2023-03-11</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
   </si>
   <si>
     <t>天天充值豪华02</t>
+  </si>
+  <si>
+    <t>2022-05-12//2023-03-17</t>
+  </si>
+  <si>
+    <t>天天充值15//天天充值16//天天充值17//天天充值18//天天充值19//天天充值20//天天充值21</t>
+  </si>
+  <si>
+    <t>天天充值豪华03</t>
   </si>
 </sst>
 </file>
@@ -3536,7 +3545,7 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -7790,19 +7799,19 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.6607142857143" customWidth="1"/>
     <col min="2" max="2" width="5.66071428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.4107142857143" customWidth="1"/>
     <col min="4" max="4" width="81.1607142857143" customWidth="1"/>
-    <col min="5" max="5" width="70.1607142857143" customWidth="1"/>
+    <col min="5" max="5" width="86.3125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="25.6607142857143" customWidth="1"/>
   </cols>
@@ -7963,6 +7972,27 @@
       </c>
       <c r="G8" s="16" t="s">
         <v>381</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -1628,7 +1628,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-6//2023-03-11</t>
+    <t>2022-05-6//2022-05-11</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -1637,7 +1637,7 @@
     <t>天天充值豪华02</t>
   </si>
   <si>
-    <t>2022-05-12//2023-03-17</t>
+    <t>2022-05-12//2022-05-17</t>
   </si>
   <si>
     <t>天天充值15//天天充值16//天天充值17//天天充值18//天天充值19//天天充值20//天天充值21</t>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -1616,7 +1616,7 @@
     <t>$no_empty$ref(RewardData)</t>
   </si>
   <si>
-    <t>2022-05-1//2022-05-5</t>
+    <t>2022-05-01//2022-05-05</t>
   </si>
   <si>
     <t>58砖石//225砖石//368砖石//900砖石//2024砖石//3848砖石//4548砖石</t>
@@ -1628,7 +1628,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-6//2022-05-11</t>
+    <t>2022-05-06//2022-05-11</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -7802,7 +7802,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -1616,7 +1616,7 @@
     <t>$no_empty$ref(RewardData)</t>
   </si>
   <si>
-    <t>2022-05-01//2022-05-05</t>
+    <t>2022-05-01//2022-05-07</t>
   </si>
   <si>
     <t>58砖石//225砖石//368砖石//900砖石//2024砖石//3848砖石//4548砖石</t>
@@ -1628,7 +1628,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-06//2022-05-11</t>
+    <t>2022-05-08//2022-05-17</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -1637,7 +1637,7 @@
     <t>天天充值豪华02</t>
   </si>
   <si>
-    <t>2022-05-12//2022-05-17</t>
+    <t>2022-05-18//2022-05-25</t>
   </si>
   <si>
     <t>天天充值15//天天充值16//天天充值17//天天充值18//天天充值19//天天充值20//天天充值21</t>
@@ -7802,7 +7802,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -1616,7 +1616,7 @@
     <t>$no_empty$ref(RewardData)</t>
   </si>
   <si>
-    <t>2022-05-01//2022-05-07</t>
+    <t>2022-05-01//2022-05-08</t>
   </si>
   <si>
     <t>58砖石//225砖石//368砖石//900砖石//2024砖石//3848砖石//4548砖石</t>
@@ -1628,7 +1628,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-08//2022-05-17</t>
+    <t>2022-05-09//2022-05-18</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -1637,7 +1637,7 @@
     <t>天天充值豪华02</t>
   </si>
   <si>
-    <t>2022-05-18//2022-05-25</t>
+    <t>2022-05-19//2022-05-26</t>
   </si>
   <si>
     <t>天天充值15//天天充值16//天天充值17//天天充值18//天天充值19//天天充值20//天天充值21</t>
@@ -7802,7 +7802,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -1628,7 +1628,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-09//2022-05-18</t>
+    <t>2022-05-09//2022-05-17</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -1637,7 +1637,7 @@
     <t>天天充值豪华02</t>
   </si>
   <si>
-    <t>2022-05-19//2022-05-26</t>
+    <t>2022-05-18//2022-05-25</t>
   </si>
   <si>
     <t>天天充值15//天天充值16//天天充值17//天天充值18//天天充值19//天天充值20//天天充值21</t>
@@ -7802,7 +7802,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -1628,7 +1628,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-09//2022-05-17</t>
+    <t>2022-05-09//2022-05-16</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -1637,7 +1637,7 @@
     <t>天天充值豪华02</t>
   </si>
   <si>
-    <t>2022-05-18//2022-05-25</t>
+    <t>2022-05-17//2022-05-24</t>
   </si>
   <si>
     <t>天天充值15//天天充值16//天天充值17//天天充值18//天天充值19//天天充值20//天天充值21</t>
@@ -7802,7 +7802,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>精良装备打造您的最强黑道军团，单笔充值指定金额即可领取橙色装备宝箱。</t>
   </si>
   <si>
-    <t>2022-05-04 13:10:00</t>
+    <t>2022-05-04 22:10:00</t>
   </si>
   <si>
     <t>2023-05-24 24:00:00</t>
@@ -3545,8 +3545,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
@@ -7801,8 +7801,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="382">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -1635,15 +1635,6 @@
   </si>
   <si>
     <t>天天充值豪华02</t>
-  </si>
-  <si>
-    <t>2022-05-17//2022-05-24</t>
-  </si>
-  <si>
-    <t>天天充值15//天天充值16//天天充值17//天天充值18//天天充值19//天天充值20//天天充值21</t>
-  </si>
-  <si>
-    <t>天天充值豪华03</t>
   </si>
 </sst>
 </file>
@@ -3545,8 +3536,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
@@ -3555,7 +3546,7 @@
     <col min="2" max="2" width="10.1607142857143" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="62.6607142857143" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.7321428571429" customWidth="1"/>
     <col min="6" max="7" width="23.6607142857143" customWidth="1"/>
     <col min="8" max="9" width="27.1607142857143" customWidth="1"/>
     <col min="10" max="10" width="21.8303571428571" customWidth="1"/>
@@ -4266,14 +4257,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.6607142857143" customWidth="1"/>
     <col min="2" max="2" width="10.1607142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.6607142857143" customWidth="1"/>
+    <col min="3" max="3" width="20.6875" customWidth="1"/>
+    <col min="4" max="4" width="13.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -4386,7 +4378,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
@@ -5889,7 +5881,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
@@ -6599,7 +6591,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -7132,7 +7124,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -7799,13 +7791,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.6607142857143" customWidth="1"/>
     <col min="2" max="2" width="5.66071428571429" style="1" customWidth="1"/>
@@ -7974,27 +7966,6 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="F9" s="16">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E2"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28000" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -168,13 +168,13 @@
     <t>精良装备打造您的最强黑道军团，单笔充值指定金额即可领取橙色装备宝箱。</t>
   </si>
   <si>
-    <t>2022-05-04 22:10:00</t>
-  </si>
-  <si>
-    <t>2023-05-24 24:00:00</t>
-  </si>
-  <si>
-    <t>2023-05-25 24:00:00</t>
+    <t>2021-05-22 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-24 24:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-25 24:00:00</t>
   </si>
   <si>
     <t>每日单冲</t>
@@ -198,10 +198,13 @@
     <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取橙色色宝物宝箱。</t>
   </si>
   <si>
-    <t>2023-05-27 24:00:00</t>
-  </si>
-  <si>
-    <t>2023-05-28 24:00:00</t>
+    <t>2021-05-25 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-27 24:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-28 24:00:00</t>
   </si>
   <si>
     <t>性感佳人</t>
@@ -219,10 +222,13 @@
     <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取橙色情人宝箱。</t>
   </si>
   <si>
-    <t>2023-06-13 24:00:00</t>
-  </si>
-  <si>
-    <t>2023-06-14 24:00:00</t>
+    <t>2021-06-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-13 24:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-14 24:00:00</t>
   </si>
   <si>
     <t>全副武装</t>
@@ -240,10 +246,13 @@
     <t>精锐头目助您征战黑帮世界，单笔充值指定金额即可领取橙色头目宝箱。</t>
   </si>
   <si>
-    <t>2023-06-16 24:00:00</t>
-  </si>
-  <si>
-    <t>2023-06-17 24:00:00</t>
+    <t>2021-06-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-16 24:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-17 24:00:00</t>
   </si>
   <si>
     <t>黑道重宝</t>
@@ -258,10 +267,13 @@
     <t>为了防止世界被破坏</t>
   </si>
   <si>
-    <t>2023-05-28 16:00:01</t>
-  </si>
-  <si>
-    <t>2023-05-29 16:00:02</t>
+    <t>2021-04-23 16:00:02</t>
+  </si>
+  <si>
+    <t>2022-05-28 16:00:01</t>
+  </si>
+  <si>
+    <t>2022-05-29 16:00:02</t>
   </si>
   <si>
     <t>超值单冲</t>
@@ -273,10 +285,13 @@
     <t>为了守护世界的和平</t>
   </si>
   <si>
-    <t>2023-05-28 16:00:02</t>
-  </si>
-  <si>
-    <t>2023-05-29 16:00:03</t>
+    <t>2021-04-23 16:00:03</t>
+  </si>
+  <si>
+    <t>2022-05-28 16:00:02</t>
+  </si>
+  <si>
+    <t>2022-05-29 16:00:03</t>
   </si>
   <si>
     <t>充钱4</t>
@@ -285,10 +300,13 @@
     <t>贯彻爱与真实的邪恶</t>
   </si>
   <si>
-    <t>2023-06-07 24:00:00</t>
-  </si>
-  <si>
-    <t>2023-06-08 24:00:00</t>
+    <t>2021-06-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-07 24:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-08 24:00:00</t>
   </si>
   <si>
     <t>充值抽奖</t>
@@ -309,10 +327,13 @@
     <t>可爱又迷人的反派角色</t>
   </si>
   <si>
-    <t>2023-05-22 16:00:05</t>
-  </si>
-  <si>
-    <t>2023-05-22 24:00:00</t>
+    <t>2021-04-30 16:00:05</t>
+  </si>
+  <si>
+    <t>2022-05-22 16:00:05</t>
+  </si>
+  <si>
+    <t>2022-05-22 24:00:00</t>
   </si>
   <si>
     <t>0//102//302</t>
@@ -327,7 +348,7 @@
     <t>豪华签到活动</t>
   </si>
   <si>
-    <t>900砖石以上挡位每周重置</t>
+    <t>128元以上挡位每周重置</t>
   </si>
   <si>
     <t>豪华签到</t>
@@ -420,7 +441,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ref(Recharge</t>
     </r>
@@ -444,55 +464,55 @@
     <t>5//8//15</t>
   </si>
   <si>
-    <t>58砖石</t>
-  </si>
-  <si>
-    <t>单笔充值58砖石（三选一）</t>
+    <t>充值6元</t>
+  </si>
+  <si>
+    <t>单笔充值6元（三选一）</t>
   </si>
   <si>
     <t>5//10//16</t>
   </si>
   <si>
-    <t>368砖石</t>
-  </si>
-  <si>
-    <t>单笔充值368砖石（三选一）</t>
+    <t>充值50元</t>
+  </si>
+  <si>
+    <t>单笔充值50元（三选一）</t>
   </si>
   <si>
     <t>5//10//17</t>
   </si>
   <si>
-    <t>900砖石</t>
-  </si>
-  <si>
-    <t>单笔充值900砖石（三选一）</t>
+    <t>充值128元</t>
+  </si>
+  <si>
+    <t>单笔充值128元（三选一）</t>
   </si>
   <si>
     <t>5//10//18</t>
   </si>
   <si>
-    <t>2024砖石</t>
-  </si>
-  <si>
-    <t>单笔充值2024砖石（三选一）</t>
+    <t>充值288元</t>
+  </si>
+  <si>
+    <t>单笔充值288元（三选一）</t>
   </si>
   <si>
     <t>5//10//19</t>
   </si>
   <si>
-    <t>3848砖石</t>
-  </si>
-  <si>
-    <t>单笔充值3848砖石（三选一）</t>
+    <t>充值548元</t>
+  </si>
+  <si>
+    <t>单笔充值548元（三选一）</t>
   </si>
   <si>
     <t>5//10//20</t>
   </si>
   <si>
-    <t>4548砖石</t>
-  </si>
-  <si>
-    <t>单笔充值4548砖石（三选一）</t>
+    <t>充值648元</t>
+  </si>
+  <si>
+    <t>单笔充值648元（三选一）</t>
   </si>
   <si>
     <t>每个活动每个大奖位
@@ -662,7 +682,7 @@
     <t>10//10//10//10</t>
   </si>
   <si>
-    <t>225砖石</t>
+    <t>充值30元</t>
   </si>
   <si>
     <t>30元单充1</t>
@@ -1403,7 +1423,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>$no_empty$ref(Recharge</t>
     </r>
@@ -1427,9 +1446,6 @@
     <t>1001</t>
   </si>
   <si>
-    <t>充值6元</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -1445,27 +1461,18 @@
     <t>1002</t>
   </si>
   <si>
-    <t>充值30元</t>
-  </si>
-  <si>
     <t>豪华签到等级20-02A//豪华签到等级50-02A</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>充值50元</t>
-  </si>
-  <si>
     <t>豪华签到等级20-03A//豪华签到等级50-03A</t>
   </si>
   <si>
     <t>1004</t>
   </si>
   <si>
-    <t>充值128元</t>
-  </si>
-  <si>
     <t>每周重置</t>
   </si>
   <si>
@@ -1475,9 +1482,6 @@
     <t>1005</t>
   </si>
   <si>
-    <t>充值288元</t>
-  </si>
-  <si>
     <t>豪华签到等级20-05A//豪华签到等级50-05A</t>
   </si>
   <si>
@@ -1616,10 +1620,10 @@
     <t>$no_empty$ref(RewardData)</t>
   </si>
   <si>
-    <t>2022-05-01//2022-05-08</t>
-  </si>
-  <si>
-    <t>58砖石//225砖石//368砖石//900砖石//2024砖石//3848砖石//4548砖石</t>
+    <t>2021-11-01//2021-11-08</t>
+  </si>
+  <si>
+    <t>充值6元//充值30元//充值50元//充值128元//充值288元//充值548元//充值648元</t>
   </si>
   <si>
     <t>天天充值01//天天充值02//天天充值03//天天充值04//天天充值05//天天充值06//天天充值07</t>
@@ -1628,7 +1632,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2022-05-09//2022-05-16</t>
+    <t>2021-11-09//2021-11-16</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -1642,13 +1646,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,13 +1670,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1721,9 +1718,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1731,13 +1730,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1750,6 +1742,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,9 +1778,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1787,22 +1882,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249946592608417"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1813,9 +1930,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1828,174 +1984,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCC00CC"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249946592608417"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2005,7 +1995,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2044,43 +2034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,19 +2058,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249946592608417"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,193 +2220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,6 +2417,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2512,759 +2481,708 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyFill="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="38" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="111" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="31"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="46" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 2 3" xfId="1"/>
-    <cellStyle name="提示信息 2" xfId="2"/>
-    <cellStyle name="提示信息" xfId="3"/>
-    <cellStyle name="删除内容" xfId="4"/>
-    <cellStyle name="强调文字颜色 6 2 2" xfId="5"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="6"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="7"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="8"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="9"/>
-    <cellStyle name="强调文字颜色 2 4 2" xfId="10"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="11"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="12"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="13"/>
-    <cellStyle name="强调文字颜色 1 3 2" xfId="14"/>
-    <cellStyle name="美术需求" xfId="15"/>
-    <cellStyle name="列" xfId="16"/>
-    <cellStyle name="举例说明" xfId="17"/>
-    <cellStyle name="过渡数据" xfId="18"/>
-    <cellStyle name="程序实现 2" xfId="19"/>
-    <cellStyle name="百分比" xfId="20" builtinId="5"/>
-    <cellStyle name="常规 8 3" xfId="21"/>
-    <cellStyle name="千位分隔[0]" xfId="22" builtinId="6"/>
-    <cellStyle name="常规 8 2" xfId="23"/>
-    <cellStyle name="常规 6 4" xfId="24"/>
-    <cellStyle name="常规 8" xfId="25"/>
-    <cellStyle name="常规 6 2" xfId="26"/>
-    <cellStyle name="好" xfId="27" builtinId="26"/>
-    <cellStyle name="货币" xfId="28" builtinId="4"/>
-    <cellStyle name="常规 6" xfId="29"/>
-    <cellStyle name="表头" xfId="30"/>
-    <cellStyle name="常规 4 2 3" xfId="31"/>
-    <cellStyle name="标题 4" xfId="32" builtinId="19"/>
-    <cellStyle name="常规 4" xfId="33"/>
-    <cellStyle name="适中 2" xfId="34"/>
-    <cellStyle name="常规 3 2" xfId="35"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="36"/>
-    <cellStyle name="标题 2" xfId="37" builtinId="17"/>
-    <cellStyle name="常规 2" xfId="38"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="39"/>
-    <cellStyle name="备注" xfId="40"/>
-    <cellStyle name="特别注意" xfId="41"/>
-    <cellStyle name="输入框" xfId="42"/>
-    <cellStyle name="百分比 2 2" xfId="43"/>
-    <cellStyle name="百分比 2" xfId="44"/>
-    <cellStyle name="常规 4 2" xfId="45"/>
-    <cellStyle name="4分类标题" xfId="46"/>
-    <cellStyle name="常规 5" xfId="47"/>
-    <cellStyle name="3备注" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="51"/>
-    <cellStyle name="常规 7 3" xfId="52"/>
-    <cellStyle name="1表头" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="56" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="57" builtinId="43"/>
-    <cellStyle name="强调文字颜色 4" xfId="58" builtinId="41"/>
-    <cellStyle name="常规 6 3" xfId="59"/>
-    <cellStyle name="常规 9" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="61" builtinId="40"/>
-    <cellStyle name="输入" xfId="62" builtinId="20"/>
-    <cellStyle name="强调文字颜色 3" xfId="63" builtinId="37"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="64" builtinId="39"/>
-    <cellStyle name="程序实现" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="66" builtinId="38"/>
-    <cellStyle name="常规 7 4" xfId="67"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="68"/>
-    <cellStyle name="千位分隔" xfId="69" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="70" builtinId="36"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="71"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="72" builtinId="48"/>
-    <cellStyle name="判断逻辑" xfId="73"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="74" builtinId="35"/>
-    <cellStyle name="强调文字颜色 2" xfId="75" builtinId="33"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="76"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="77" builtinId="32"/>
-    <cellStyle name="2填表文本" xfId="78"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="80"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="81" builtinId="44"/>
-    <cellStyle name="常规 7 2" xfId="82"/>
-    <cellStyle name="计算" xfId="83" builtinId="22"/>
-    <cellStyle name="美术需求 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="85" builtinId="31"/>
-    <cellStyle name="强调文字颜色 1" xfId="86" builtinId="29"/>
-    <cellStyle name="表头2" xfId="87"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="88"/>
-    <cellStyle name="常规 3" xfId="89"/>
-    <cellStyle name="标题 3" xfId="90" builtinId="18"/>
-    <cellStyle name="适中" xfId="91" builtinId="28"/>
-    <cellStyle name="输出" xfId="92" builtinId="21"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="93" builtinId="46"/>
-    <cellStyle name="常规 7" xfId="94"/>
-    <cellStyle name="标题2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="96" builtinId="30"/>
-    <cellStyle name="汇总" xfId="97" builtinId="25"/>
-    <cellStyle name="差" xfId="98" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="99" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="100"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="101"/>
-    <cellStyle name="标题 1" xfId="102" builtinId="16"/>
-    <cellStyle name="常规 2 2 2" xfId="103"/>
-    <cellStyle name="解释性文本" xfId="104" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="105" builtinId="34"/>
-    <cellStyle name="货币[0]" xfId="106" builtinId="7"/>
-    <cellStyle name="强调文字颜色 6 3 2" xfId="107"/>
-    <cellStyle name="常规 2 2" xfId="108"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="109"/>
-    <cellStyle name="20% - 着色 2 2" xfId="110"/>
-    <cellStyle name="常规 3 3" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="112"/>
-    <cellStyle name="标题" xfId="113" builtinId="15"/>
-    <cellStyle name="常规 2 2 3" xfId="114"/>
-    <cellStyle name="警告文本" xfId="115" builtinId="11"/>
-    <cellStyle name="注释" xfId="116" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="117" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="118" builtinId="47"/>
-    <cellStyle name="强调文字颜色 5" xfId="119" builtinId="45"/>
-    <cellStyle name="强调文字颜色 1 2 2" xfId="120"/>
-    <cellStyle name="常规 2 4" xfId="121"/>
-    <cellStyle name="强调文字颜色 6" xfId="122" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="123" builtinId="51"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="124"/>
-    <cellStyle name="普通数值" xfId="125"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8"/>
-    <cellStyle name="常规 2 3" xfId="127"/>
-    <cellStyle name="着色 2 2" xfId="128"/>
-    <cellStyle name="20% - 着色 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="1"/>
+    <cellStyle name="20% - 着色 2 3" xfId="2"/>
+    <cellStyle name="着色 2 2" xfId="3"/>
+    <cellStyle name="常规 2 3" xfId="4"/>
+    <cellStyle name="常规 2 4" xfId="5"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="6"/>
+    <cellStyle name="常规 2 2 3" xfId="7"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="8"/>
+    <cellStyle name="常规 3 3" xfId="9"/>
+    <cellStyle name="20% - 着色 2 2" xfId="10"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="11"/>
+    <cellStyle name="常规 2 2" xfId="12"/>
+    <cellStyle name="强调文字颜色 6 3 2" xfId="13"/>
+    <cellStyle name="常规 2 2 2" xfId="14"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="15"/>
+    <cellStyle name="标题2" xfId="16"/>
+    <cellStyle name="常规 7" xfId="17"/>
+    <cellStyle name="表头2" xfId="18"/>
+    <cellStyle name="常规 7 2" xfId="19"/>
+    <cellStyle name="2填表文本" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="21"/>
+    <cellStyle name="常规 7 4" xfId="22"/>
+    <cellStyle name="程序实现" xfId="23"/>
+    <cellStyle name="常规 9" xfId="24"/>
+    <cellStyle name="常规 6 3" xfId="25"/>
+    <cellStyle name="常规 7 3" xfId="26"/>
+    <cellStyle name="1表头" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="30"/>
+    <cellStyle name="3备注" xfId="31"/>
+    <cellStyle name="常规 5" xfId="32"/>
+    <cellStyle name="4分类标题" xfId="33"/>
+    <cellStyle name="常规 4 2" xfId="34"/>
+    <cellStyle name="特别注意" xfId="35"/>
+    <cellStyle name="输入框" xfId="36"/>
+    <cellStyle name="百分比 2 2" xfId="37"/>
+    <cellStyle name="标题 2" xfId="38" builtinId="17"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="39"/>
+    <cellStyle name="常规 2" xfId="40"/>
+    <cellStyle name="适中 2" xfId="41"/>
+    <cellStyle name="常规 3 2" xfId="42"/>
+    <cellStyle name="标题 4" xfId="43" builtinId="19"/>
+    <cellStyle name="常规 4" xfId="44"/>
+    <cellStyle name="表头" xfId="45"/>
+    <cellStyle name="常规 4 2 3" xfId="46"/>
+    <cellStyle name="好" xfId="47" builtinId="26"/>
+    <cellStyle name="货币" xfId="48" builtinId="4"/>
+    <cellStyle name="常规 6" xfId="49"/>
+    <cellStyle name="常规 8" xfId="50"/>
+    <cellStyle name="常规 6 2" xfId="51"/>
+    <cellStyle name="常规 6 4" xfId="52"/>
+    <cellStyle name="程序实现 2" xfId="53"/>
+    <cellStyle name="百分比 2" xfId="54"/>
+    <cellStyle name="过渡数据" xfId="55"/>
+    <cellStyle name="举例说明" xfId="56"/>
+    <cellStyle name="强调文字颜色 1 3 2" xfId="57"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="58"/>
+    <cellStyle name="千位分隔[0]" xfId="59" builtinId="6"/>
+    <cellStyle name="常规 8 2" xfId="60"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="61"/>
+    <cellStyle name="百分比" xfId="62" builtinId="5"/>
+    <cellStyle name="常规 8 3" xfId="63"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="64"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="65"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="66"/>
+    <cellStyle name="备注" xfId="67"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="68"/>
+    <cellStyle name="列" xfId="69"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="70"/>
+    <cellStyle name="删除内容" xfId="71"/>
+    <cellStyle name="提示信息" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="73"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="74" builtinId="52"/>
+    <cellStyle name="提示信息 2" xfId="75"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
+    <cellStyle name="强调文字颜色 4" xfId="78" builtinId="41"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="79" builtinId="40"/>
+    <cellStyle name="输入" xfId="80" builtinId="20"/>
+    <cellStyle name="强调文字颜色 3" xfId="81" builtinId="37"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="82" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="83" builtinId="38"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="84"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="85"/>
+    <cellStyle name="千位分隔" xfId="86" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="87" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="88" builtinId="48"/>
+    <cellStyle name="判断逻辑" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="90" builtinId="35"/>
+    <cellStyle name="强调文字颜色 2" xfId="91" builtinId="33"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="92"/>
+    <cellStyle name="着色 2 3" xfId="93"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="94"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="95" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="96" builtinId="44"/>
+    <cellStyle name="计算" xfId="97" builtinId="22"/>
+    <cellStyle name="美术需求 2" xfId="98"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="99" builtinId="31"/>
+    <cellStyle name="强调文字颜色 1" xfId="100" builtinId="29"/>
+    <cellStyle name="常规 3" xfId="101"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="102"/>
+    <cellStyle name="标题 3" xfId="103" builtinId="18"/>
+    <cellStyle name="适中" xfId="104" builtinId="28"/>
+    <cellStyle name="输出" xfId="105" builtinId="21"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="106" builtinId="46"/>
+    <cellStyle name="美术需求" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="108" builtinId="30"/>
+    <cellStyle name="汇总" xfId="109" builtinId="25"/>
+    <cellStyle name="差" xfId="110" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="111" builtinId="23"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="112"/>
+    <cellStyle name="标题 1" xfId="113" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="114" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="115" builtinId="34"/>
+    <cellStyle name="货币[0]" xfId="116" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="117"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9"/>
+    <cellStyle name="标题" xfId="119" builtinId="15"/>
+    <cellStyle name="强调文字颜色 2 4 2" xfId="120"/>
+    <cellStyle name="警告文本" xfId="121" builtinId="11"/>
+    <cellStyle name="注释" xfId="122" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="123" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="124" builtinId="47"/>
+    <cellStyle name="强调文字颜色 5" xfId="125" builtinId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="126" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="127" builtinId="51"/>
+    <cellStyle name="普通数值" xfId="128"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="129"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8"/>
     <cellStyle name="链接单元格" xfId="131" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3532,31 +3450,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.1607142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.1607142857143" customWidth="1"/>
+    <col min="1" max="1" width="22.4732142857143" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="62.6607142857143" customWidth="1"/>
-    <col min="5" max="5" width="25.7321428571429" customWidth="1"/>
-    <col min="6" max="7" width="23.6607142857143" customWidth="1"/>
-    <col min="8" max="9" width="27.1607142857143" customWidth="1"/>
-    <col min="10" max="10" width="21.8303571428571" customWidth="1"/>
-    <col min="11" max="11" width="27.1607142857143" customWidth="1"/>
-    <col min="12" max="12" width="17.7053571428571" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="22.1607142857143" customWidth="1"/>
-    <col min="15" max="15" width="29.1607142857143" customWidth="1"/>
-    <col min="16" max="16" width="51.0446428571429" customWidth="1"/>
-    <col min="17" max="17" width="88.6875" customWidth="1"/>
+    <col min="4" max="4" width="72.6160714285714" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="9" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="27.125" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="22.25" customWidth="1"/>
+    <col min="15" max="15" width="30.8035714285714" customWidth="1"/>
+    <col min="16" max="16" width="53.5625" customWidth="1"/>
+    <col min="17" max="17" width="72.9196428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="3:10">
@@ -3625,11 +3542,11 @@
       <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="74" t="s">
+      <c r="Q3" s="72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:17">
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3678,9 +3595,8 @@
       <c r="P4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:17">
+    </row>
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
@@ -3729,9 +3645,8 @@
       <c r="P5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:17">
+    </row>
+    <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -3758,7 +3673,6 @@
       <c r="P6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="1:17">
       <c r="A7" s="67"/>
@@ -3791,14 +3705,14 @@
       <c r="L7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="62" t="s">
         <v>53</v>
       </c>
       <c r="N7" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="73" t="s">
+      <c r="O7" s="62"/>
+      <c r="P7" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q7" s="62" t="s">
@@ -3817,13 +3731,13 @@
         <v>57</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="62" t="s">
         <v>51</v>
@@ -3834,20 +3748,20 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="72" t="s">
         <v>61</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>62</v>
       </c>
       <c r="N8" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="73" t="s">
+      <c r="O8" s="62"/>
+      <c r="P8" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -3856,19 +3770,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H9" s="62" t="s">
         <v>51</v>
@@ -3879,20 +3793,20 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="72" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="N9" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="73" t="s">
+      <c r="O9" s="62"/>
+      <c r="P9" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -3901,19 +3815,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>51</v>
@@ -3924,20 +3838,20 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="72" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="72"/>
-      <c r="P10" s="73" t="s">
+      <c r="O10" s="62"/>
+      <c r="P10" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
@@ -3946,22 +3860,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I11" s="62" t="b">
         <v>0</v>
@@ -3969,16 +3883,16 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="72" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="72"/>
-      <c r="P11" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3988,22 +3902,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G12" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>80</v>
       </c>
       <c r="I12" s="62" t="b">
         <v>0</v>
@@ -4011,16 +3925,16 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="72" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="72"/>
-      <c r="P12" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4030,45 +3944,45 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I13" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="72" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="N13" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="62" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4078,66 +3992,66 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="F14" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>89</v>
-      </c>
       <c r="I14" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="62" t="s">
-        <v>91</v>
-      </c>
       <c r="L14" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="72" t="s">
-        <v>68</v>
+        <v>105</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="N14" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="69" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4145,34 +4059,34 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="69" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -4186,38 +4100,38 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="72" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="M16" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="N16" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="73" t="s">
+      <c r="O16" s="62"/>
+      <c r="P16" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q16" s="62"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="69" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4225,18 +4139,18 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q17" s="62"/>
@@ -4245,32 +4159,31 @@
       <c r="G19" s="71"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.6607142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.1607142857143" customWidth="1"/>
-    <col min="3" max="3" width="20.6875" customWidth="1"/>
-    <col min="4" max="4" width="13.6875" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4291,7 +4204,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4319,7 +4232,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4337,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4346,7 +4259,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4354,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4362,36 +4275,36 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.8303571428571" customWidth="1"/>
-    <col min="3" max="3" width="32.3303571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1607142857143" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.6607142857143" customWidth="1"/>
-    <col min="7" max="7" width="25.1607142857143" customWidth="1"/>
-    <col min="8" max="8" width="15.3303571428571" customWidth="1"/>
-    <col min="9" max="9" width="24.1607142857143" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -4421,57 +4334,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4509,19 +4422,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4530,25 +4443,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4557,25 +4470,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4584,25 +4497,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4611,25 +4524,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4638,25 +4551,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4665,25 +4578,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4692,25 +4605,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4719,25 +4632,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4746,25 +4659,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4773,25 +4686,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4800,25 +4713,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4827,67 +4740,67 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.8303571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.1607142857143" customWidth="1"/>
-    <col min="4" max="5" width="20.1607142857143" customWidth="1"/>
-    <col min="6" max="6" width="18.3303571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="15.3303571428571" customWidth="1"/>
-    <col min="9" max="9" width="18.6607142857143" customWidth="1"/>
-    <col min="10" max="10" width="19.1607142857143" customWidth="1"/>
-    <col min="11" max="11" width="24.1607142857143" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.25" customHeight="1" spans="1:11">
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4902,7 +4815,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4915,69 +4828,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -5021,7 +4934,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -5031,7 +4944,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -5040,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -5058,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -5067,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -5085,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -5094,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -5112,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -5121,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5139,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5148,7 +5061,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5166,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5175,7 +5088,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5193,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5202,7 +5115,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5220,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5229,7 +5142,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5247,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5256,7 +5169,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5274,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5283,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5301,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5310,7 +5223,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5328,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5337,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5355,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5364,7 +5277,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5382,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5391,7 +5304,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5409,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5418,7 +5331,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5436,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5445,7 +5358,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5463,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5472,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5490,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5499,7 +5412,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5517,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5526,7 +5439,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5544,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5553,7 +5466,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5571,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5580,7 +5493,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5598,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5607,7 +5520,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5625,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5634,7 +5547,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5652,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5661,7 +5574,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5679,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5688,7 +5601,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5706,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5715,7 +5628,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5733,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5742,7 +5655,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5766,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5775,7 +5688,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5799,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5808,7 +5721,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5832,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5841,7 +5754,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5865,48 +5778,48 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.8303571428571" customWidth="1"/>
-    <col min="3" max="3" width="50.6607142857143" customWidth="1"/>
-    <col min="4" max="4" width="21.3303571428571" customWidth="1"/>
-    <col min="5" max="5" width="24.3303571428571" customWidth="1"/>
-    <col min="6" max="6" width="14.6607142857143" customWidth="1"/>
-    <col min="7" max="7" width="25.1607142857143" customWidth="1"/>
-    <col min="8" max="8" width="19.6607142857143" customWidth="1"/>
-    <col min="9" max="9" width="24.1607142857143" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5928,57 +5841,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -6016,21 +5929,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -6039,13 +5952,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -6057,7 +5970,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -6066,13 +5979,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -6084,7 +5997,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -6093,13 +6006,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -6111,7 +6024,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -6120,13 +6033,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6138,7 +6051,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6147,13 +6060,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6165,7 +6078,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6174,13 +6087,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6192,7 +6105,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6201,13 +6114,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6219,7 +6132,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6228,13 +6141,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6246,7 +6159,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6255,13 +6168,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6273,7 +6186,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6282,13 +6195,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6300,7 +6213,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6309,13 +6222,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6324,10 +6237,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6336,13 +6249,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6351,10 +6264,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6363,13 +6276,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6378,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6390,13 +6303,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6405,10 +6318,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6417,13 +6330,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6432,10 +6345,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6444,13 +6357,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>134</v>
+        <v>209</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6459,10 +6372,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6471,13 +6384,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6486,10 +6399,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6498,13 +6411,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>137</v>
+        <v>216</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6513,10 +6426,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6525,13 +6438,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>143</v>
+      <c r="E25" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6540,10 +6453,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6552,13 +6465,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>149</v>
+      <c r="E26" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6567,10 +6480,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6579,54 +6492,54 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.1607142857143" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.66071428571429" style="32" customWidth="1"/>
-    <col min="3" max="3" width="27.6607142857143" style="32" customWidth="1"/>
-    <col min="4" max="4" width="13.6607142857143" style="32" customWidth="1"/>
-    <col min="5" max="6" width="14.1607142857143" style="32" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="32" customWidth="1"/>
+    <col min="5" max="6" width="14.25" style="32" customWidth="1"/>
     <col min="7" max="7" width="16" style="32" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="76.1607142857143" style="32" customWidth="1"/>
+    <col min="9" max="9" width="76.25" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6649,59 +6562,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6730,376 +6643,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>253</v>
-      </c>
       <c r="D8" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>256</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7112,38 +7025,38 @@
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.8303571428571" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.66071428571429" style="32" customWidth="1"/>
-    <col min="3" max="3" width="13.8303571428571" style="32" customWidth="1"/>
-    <col min="4" max="4" width="27.3303571428571" style="32" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="32" customWidth="1"/>
     <col min="5" max="5" width="19" style="32" customWidth="1"/>
-    <col min="6" max="6" width="17.1607142857143" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.6607142857143" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="32" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="92.8303571428571" style="32" customWidth="1"/>
+    <col min="9" max="9" width="92.875" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7152,7 +7065,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7175,54 +7088,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7260,420 +7173,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="H9" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>315</v>
-      </c>
       <c r="I9" s="31" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>324</v>
+        <v>147</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E11" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>325</v>
-      </c>
       <c r="H11" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E14" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>315</v>
-      </c>
       <c r="I14" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>324</v>
+        <v>147</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>325</v>
-      </c>
       <c r="H16" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E19" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>315</v>
-      </c>
       <c r="I19" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>324</v>
+        <v>147</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E21" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>325</v>
-      </c>
       <c r="H21" s="31" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -7681,32 +7594,32 @@
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.1607142857143" style="19" customWidth="1"/>
-    <col min="2" max="2" width="6.66071428571429" style="19" customWidth="1"/>
-    <col min="3" max="3" width="29.6607142857143" style="19" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="19" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="19" customWidth="1"/>
     <col min="4" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7718,18 +7631,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7740,7 +7653,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7751,75 +7664,75 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.6607142857143" customWidth="1"/>
-    <col min="2" max="2" width="5.66071428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.4107142857143" customWidth="1"/>
-    <col min="4" max="4" width="81.1607142857143" customWidth="1"/>
-    <col min="5" max="5" width="86.3125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.8660714285714" customWidth="1"/>
+    <col min="4" max="4" width="76.0357142857143" customWidth="1"/>
+    <col min="5" max="5" width="70.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6607142857143" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7834,53 +7747,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7903,25 +7816,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7930,19 +7843,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7950,20 +7863,20 @@
       <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>376</v>
+      <c r="C8" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -7972,7 +7885,7 @@
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="384">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -1623,7 +1623,7 @@
     <t>2021-11-01//2021-11-08</t>
   </si>
   <si>
-    <t>充值6元//充值30元//充值50元//充值128元//充值288元//充值548元//充值648元</t>
+    <t>58砖石//225砖石//368砖石//900砖石//2024砖石//3848砖石//4548砖石</t>
   </si>
   <si>
     <t>天天充值01//天天充值02//天天充值03//天天充值04//天天充值05//天天充值06//天天充值07</t>
@@ -1648,9 +1648,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1718,18 +1718,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1747,8 +1739,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1762,82 +1848,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF6600FF"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249946592608417"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCC00CC"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1847,23 +1894,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1875,21 +1930,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1897,15 +1937,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1913,21 +1955,6 @@
       <color theme="9" tint="-0.249946592608417"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1942,45 +1969,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <strike/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="0" tint="-0.249946592608417"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6600FF"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2040,6 +2040,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2052,13 +2058,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,19 +2100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,6 +2113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,13 +2142,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,61 +2172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2214,19 +2202,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599963377788629"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2408,45 +2408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2473,6 +2434,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2484,705 +2484,705 @@
   </borders>
   <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyFill="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="38" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="109" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="46" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="1"/>
-    <cellStyle name="20% - 着色 2 3" xfId="2"/>
-    <cellStyle name="着色 2 2" xfId="3"/>
-    <cellStyle name="常规 2 3" xfId="4"/>
-    <cellStyle name="常规 2 4" xfId="5"/>
-    <cellStyle name="强调文字颜色 1 2 2" xfId="6"/>
-    <cellStyle name="常规 2 2 3" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="8"/>
-    <cellStyle name="常规 3 3" xfId="9"/>
-    <cellStyle name="20% - 着色 2 2" xfId="10"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="11"/>
-    <cellStyle name="常规 2 2" xfId="12"/>
-    <cellStyle name="强调文字颜色 6 3 2" xfId="13"/>
-    <cellStyle name="常规 2 2 2" xfId="14"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="15"/>
-    <cellStyle name="标题2" xfId="16"/>
-    <cellStyle name="常规 7" xfId="17"/>
-    <cellStyle name="表头2" xfId="18"/>
-    <cellStyle name="常规 7 2" xfId="19"/>
-    <cellStyle name="2填表文本" xfId="20"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="21"/>
-    <cellStyle name="常规 7 4" xfId="22"/>
-    <cellStyle name="程序实现" xfId="23"/>
-    <cellStyle name="常规 9" xfId="24"/>
-    <cellStyle name="常规 6 3" xfId="25"/>
-    <cellStyle name="常规 7 3" xfId="26"/>
-    <cellStyle name="1表头" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="30"/>
-    <cellStyle name="3备注" xfId="31"/>
-    <cellStyle name="常规 5" xfId="32"/>
-    <cellStyle name="4分类标题" xfId="33"/>
-    <cellStyle name="常规 4 2" xfId="34"/>
-    <cellStyle name="特别注意" xfId="35"/>
-    <cellStyle name="输入框" xfId="36"/>
-    <cellStyle name="百分比 2 2" xfId="37"/>
-    <cellStyle name="标题 2" xfId="38" builtinId="17"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="39"/>
-    <cellStyle name="常规 2" xfId="40"/>
-    <cellStyle name="适中 2" xfId="41"/>
-    <cellStyle name="常规 3 2" xfId="42"/>
-    <cellStyle name="标题 4" xfId="43" builtinId="19"/>
-    <cellStyle name="常规 4" xfId="44"/>
-    <cellStyle name="表头" xfId="45"/>
-    <cellStyle name="常规 4 2 3" xfId="46"/>
-    <cellStyle name="好" xfId="47" builtinId="26"/>
-    <cellStyle name="货币" xfId="48" builtinId="4"/>
-    <cellStyle name="常规 6" xfId="49"/>
-    <cellStyle name="常规 8" xfId="50"/>
-    <cellStyle name="常规 6 2" xfId="51"/>
-    <cellStyle name="常规 6 4" xfId="52"/>
-    <cellStyle name="程序实现 2" xfId="53"/>
-    <cellStyle name="百分比 2" xfId="54"/>
-    <cellStyle name="过渡数据" xfId="55"/>
-    <cellStyle name="举例说明" xfId="56"/>
-    <cellStyle name="强调文字颜色 1 3 2" xfId="57"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="58"/>
-    <cellStyle name="千位分隔[0]" xfId="59" builtinId="6"/>
-    <cellStyle name="常规 8 2" xfId="60"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="61"/>
-    <cellStyle name="百分比" xfId="62" builtinId="5"/>
-    <cellStyle name="常规 8 3" xfId="63"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="64"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="65"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="66"/>
-    <cellStyle name="备注" xfId="67"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="68"/>
-    <cellStyle name="列" xfId="69"/>
-    <cellStyle name="强调文字颜色 6 2 2" xfId="70"/>
-    <cellStyle name="删除内容" xfId="71"/>
-    <cellStyle name="提示信息" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="73"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="74" builtinId="52"/>
-    <cellStyle name="提示信息 2" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
-    <cellStyle name="强调文字颜色 4" xfId="78" builtinId="41"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="79" builtinId="40"/>
-    <cellStyle name="输入" xfId="80" builtinId="20"/>
-    <cellStyle name="强调文字颜色 3" xfId="81" builtinId="37"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="82" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="83" builtinId="38"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="84"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="85"/>
-    <cellStyle name="千位分隔" xfId="86" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="87" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="88" builtinId="48"/>
-    <cellStyle name="判断逻辑" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="90" builtinId="35"/>
-    <cellStyle name="强调文字颜色 2" xfId="91" builtinId="33"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="92"/>
-    <cellStyle name="着色 2 3" xfId="93"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="94"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="95" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="96" builtinId="44"/>
-    <cellStyle name="计算" xfId="97" builtinId="22"/>
-    <cellStyle name="美术需求 2" xfId="98"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="99" builtinId="31"/>
-    <cellStyle name="强调文字颜色 1" xfId="100" builtinId="29"/>
-    <cellStyle name="常规 3" xfId="101"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="102"/>
-    <cellStyle name="标题 3" xfId="103" builtinId="18"/>
-    <cellStyle name="适中" xfId="104" builtinId="28"/>
-    <cellStyle name="输出" xfId="105" builtinId="21"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="106" builtinId="46"/>
-    <cellStyle name="美术需求" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="108" builtinId="30"/>
-    <cellStyle name="汇总" xfId="109" builtinId="25"/>
-    <cellStyle name="差" xfId="110" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="111" builtinId="23"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="112"/>
-    <cellStyle name="标题 1" xfId="113" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="114" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="115" builtinId="34"/>
-    <cellStyle name="货币[0]" xfId="116" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="117"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9"/>
-    <cellStyle name="标题" xfId="119" builtinId="15"/>
-    <cellStyle name="强调文字颜色 2 4 2" xfId="120"/>
-    <cellStyle name="警告文本" xfId="121" builtinId="11"/>
-    <cellStyle name="注释" xfId="122" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="123" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="124" builtinId="47"/>
-    <cellStyle name="强调文字颜色 5" xfId="125" builtinId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="126" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="127" builtinId="51"/>
-    <cellStyle name="普通数值" xfId="128"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="129"/>
-    <cellStyle name="超链接" xfId="130" builtinId="8"/>
+    <cellStyle name="强调文字颜色 2 4 2" xfId="1"/>
+    <cellStyle name="美术需求" xfId="2"/>
+    <cellStyle name="着色 2 3" xfId="3"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="4"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="5"/>
+    <cellStyle name="提示信息 2" xfId="6"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="7"/>
+    <cellStyle name="提示信息" xfId="8"/>
+    <cellStyle name="删除内容" xfId="9"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="10"/>
+    <cellStyle name="列" xfId="11"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="12"/>
+    <cellStyle name="备注" xfId="13"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="15"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="16"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="17"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="18"/>
+    <cellStyle name="强调文字颜色 1 3 2" xfId="19"/>
+    <cellStyle name="举例说明" xfId="20"/>
+    <cellStyle name="过渡数据" xfId="21"/>
+    <cellStyle name="百分比 2" xfId="22"/>
+    <cellStyle name="程序实现 2" xfId="23"/>
+    <cellStyle name="常规 6 4" xfId="24"/>
+    <cellStyle name="常规 8" xfId="25"/>
+    <cellStyle name="常规 6 2" xfId="26"/>
+    <cellStyle name="好" xfId="27" builtinId="26"/>
+    <cellStyle name="货币" xfId="28" builtinId="4"/>
+    <cellStyle name="常规 6" xfId="29"/>
+    <cellStyle name="表头" xfId="30"/>
+    <cellStyle name="常规 4 2 3" xfId="31"/>
+    <cellStyle name="标题 4" xfId="32" builtinId="19"/>
+    <cellStyle name="常规 4" xfId="33"/>
+    <cellStyle name="适中 2" xfId="34"/>
+    <cellStyle name="常规 3 2" xfId="35"/>
+    <cellStyle name="标题 2" xfId="36" builtinId="17"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="37"/>
+    <cellStyle name="常规 2" xfId="38"/>
+    <cellStyle name="特别注意" xfId="39"/>
+    <cellStyle name="百分比 2 2" xfId="40"/>
+    <cellStyle name="输入框" xfId="41"/>
+    <cellStyle name="常规 4 2" xfId="42"/>
+    <cellStyle name="4分类标题" xfId="43"/>
+    <cellStyle name="常规 5" xfId="44"/>
+    <cellStyle name="3备注" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="48"/>
+    <cellStyle name="常规 7 3" xfId="49"/>
+    <cellStyle name="1表头" xfId="50"/>
+    <cellStyle name="常规 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 6 3 2" xfId="52"/>
+    <cellStyle name="20% - 着色 2 2" xfId="53"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="54"/>
+    <cellStyle name="20% - 着色 2 3" xfId="55"/>
+    <cellStyle name="着色 2 2" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="57" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="58" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="59" builtinId="43"/>
+    <cellStyle name="强调文字颜色 4" xfId="60" builtinId="41"/>
+    <cellStyle name="常规 6 3" xfId="61"/>
+    <cellStyle name="常规 9" xfId="62"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="63" builtinId="40"/>
+    <cellStyle name="输入" xfId="64" builtinId="20"/>
+    <cellStyle name="强调文字颜色 3" xfId="65" builtinId="37"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="66" builtinId="39"/>
+    <cellStyle name="程序实现" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="68" builtinId="38"/>
+    <cellStyle name="常规 7 4" xfId="69"/>
+    <cellStyle name="常规 8 3" xfId="70"/>
+    <cellStyle name="百分比" xfId="71" builtinId="5"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="72"/>
+    <cellStyle name="千位分隔" xfId="73" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="74" builtinId="36"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="75"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="76" builtinId="48"/>
+    <cellStyle name="判断逻辑" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="78" builtinId="35"/>
+    <cellStyle name="强调文字颜色 2" xfId="79" builtinId="33"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="80"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="81" builtinId="32"/>
+    <cellStyle name="2填表文本" xfId="82"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="83" builtinId="44"/>
+    <cellStyle name="常规 7 2" xfId="84"/>
+    <cellStyle name="计算" xfId="85" builtinId="22"/>
+    <cellStyle name="美术需求 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="87" builtinId="31"/>
+    <cellStyle name="强调文字颜色 1" xfId="88" builtinId="29"/>
+    <cellStyle name="表头2" xfId="89"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="90"/>
+    <cellStyle name="常规 3" xfId="91"/>
+    <cellStyle name="标题 3" xfId="92" builtinId="18"/>
+    <cellStyle name="适中" xfId="93" builtinId="28"/>
+    <cellStyle name="输出" xfId="94" builtinId="21"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="95" builtinId="46"/>
+    <cellStyle name="常规 7" xfId="96"/>
+    <cellStyle name="标题2" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="98" builtinId="30"/>
+    <cellStyle name="汇总" xfId="99" builtinId="25"/>
+    <cellStyle name="差" xfId="100" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="101" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="102"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="103"/>
+    <cellStyle name="标题 1" xfId="104" builtinId="16"/>
+    <cellStyle name="常规 2 2 2" xfId="105"/>
+    <cellStyle name="解释性文本" xfId="106" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="107" builtinId="34"/>
+    <cellStyle name="货币[0]" xfId="108" builtinId="7"/>
+    <cellStyle name="常规 3 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="111"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9"/>
+    <cellStyle name="标题" xfId="113" builtinId="15"/>
+    <cellStyle name="常规 2 2 3" xfId="114"/>
+    <cellStyle name="警告文本" xfId="115" builtinId="11"/>
+    <cellStyle name="注释" xfId="116" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="117" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="118" builtinId="47"/>
+    <cellStyle name="强调文字颜色 5" xfId="119" builtinId="45"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="120"/>
+    <cellStyle name="常规 2 4" xfId="121"/>
+    <cellStyle name="强调文字颜色 6" xfId="122" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="123" builtinId="51"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="124"/>
+    <cellStyle name="普通数值" xfId="125"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8"/>
+    <cellStyle name="常规 8 2" xfId="127"/>
+    <cellStyle name="千位分隔[0]" xfId="128" builtinId="6"/>
+    <cellStyle name="常规 2 3" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="130"/>
     <cellStyle name="链接单元格" xfId="131" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3450,11 +3450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -4166,7 +4166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4286,7 +4286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -4769,7 +4769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -5789,7 +5789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -6499,7 +6499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -7032,7 +7032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -7601,7 +7601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7702,12 +7702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="388">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -464,7 +464,7 @@
     <t>5//8//15</t>
   </si>
   <si>
-    <t>充值6元</t>
+    <t>58砖石</t>
   </si>
   <si>
     <t>单笔充值6元（三选一）</t>
@@ -473,7 +473,7 @@
     <t>5//10//16</t>
   </si>
   <si>
-    <t>充值50元</t>
+    <t>225砖石</t>
   </si>
   <si>
     <t>单笔充值50元（三选一）</t>
@@ -482,7 +482,7 @@
     <t>5//10//17</t>
   </si>
   <si>
-    <t>充值128元</t>
+    <t>368砖石</t>
   </si>
   <si>
     <t>单笔充值128元（三选一）</t>
@@ -491,7 +491,7 @@
     <t>5//10//18</t>
   </si>
   <si>
-    <t>充值288元</t>
+    <t>900砖石</t>
   </si>
   <si>
     <t>单笔充值288元（三选一）</t>
@@ -500,7 +500,7 @@
     <t>5//10//19</t>
   </si>
   <si>
-    <t>充值548元</t>
+    <t>2024砖石</t>
   </si>
   <si>
     <t>单笔充值548元（三选一）</t>
@@ -509,7 +509,7 @@
     <t>5//10//20</t>
   </si>
   <si>
-    <t>充值648元</t>
+    <t>3848砖石</t>
   </si>
   <si>
     <t>单笔充值648元（三选一）</t>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>10//10//10//10</t>
-  </si>
-  <si>
-    <t>充值30元</t>
   </si>
   <si>
     <t>30元单充1</t>
@@ -1446,6 +1443,9 @@
     <t>1001</t>
   </si>
   <si>
+    <t>充值6元</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -1461,18 +1461,27 @@
     <t>1002</t>
   </si>
   <si>
+    <t>充值30元</t>
+  </si>
+  <si>
     <t>豪华签到等级20-02A//豪华签到等级50-02A</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
+    <t>充值50元</t>
+  </si>
+  <si>
     <t>豪华签到等级20-03A//豪华签到等级50-03A</t>
   </si>
   <si>
     <t>1004</t>
   </si>
   <si>
+    <t>充值128元</t>
+  </si>
+  <si>
     <t>每周重置</t>
   </si>
   <si>
@@ -1480,6 +1489,9 @@
   </si>
   <si>
     <t>1005</t>
+  </si>
+  <si>
+    <t>充值288元</t>
   </si>
   <si>
     <t>豪华签到等级20-05A//豪华签到等级50-05A</t>
@@ -1646,11 +1658,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1718,17 +1730,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1740,24 +1752,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1778,33 +1791,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1814,6 +1809,74 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1828,41 +1891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCC00CC"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6600FF"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1875,22 +1904,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1908,43 +1948,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FF6600FF"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1957,30 +1989,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249946592608417"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2034,19 +2046,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,43 +2076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2106,19 +2100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,19 +2118,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,25 +2154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFCCCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,25 +2178,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599963377788629"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2226,13 +2208,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2387,23 +2399,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2449,6 +2446,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2464,153 +2479,75 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyFill="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2620,569 +2557,644 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="109" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 2 4 2" xfId="1"/>
-    <cellStyle name="美术需求" xfId="2"/>
-    <cellStyle name="着色 2 3" xfId="3"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="4"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="5"/>
-    <cellStyle name="提示信息 2" xfId="6"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="7"/>
-    <cellStyle name="提示信息" xfId="8"/>
-    <cellStyle name="删除内容" xfId="9"/>
-    <cellStyle name="强调文字颜色 6 2 2" xfId="10"/>
-    <cellStyle name="列" xfId="11"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="12"/>
-    <cellStyle name="备注" xfId="13"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="15"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="16"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="17"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="18"/>
-    <cellStyle name="强调文字颜色 1 3 2" xfId="19"/>
-    <cellStyle name="举例说明" xfId="20"/>
-    <cellStyle name="过渡数据" xfId="21"/>
-    <cellStyle name="百分比 2" xfId="22"/>
-    <cellStyle name="程序实现 2" xfId="23"/>
-    <cellStyle name="常规 6 4" xfId="24"/>
-    <cellStyle name="常规 8" xfId="25"/>
-    <cellStyle name="常规 6 2" xfId="26"/>
-    <cellStyle name="好" xfId="27" builtinId="26"/>
-    <cellStyle name="货币" xfId="28" builtinId="4"/>
-    <cellStyle name="常规 6" xfId="29"/>
-    <cellStyle name="表头" xfId="30"/>
-    <cellStyle name="常规 4 2 3" xfId="31"/>
-    <cellStyle name="标题 4" xfId="32" builtinId="19"/>
-    <cellStyle name="常规 4" xfId="33"/>
-    <cellStyle name="适中 2" xfId="34"/>
-    <cellStyle name="常规 3 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="2"/>
+    <cellStyle name="常规 2 4" xfId="3"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="4"/>
+    <cellStyle name="常规 2 2 3" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="6"/>
+    <cellStyle name="常规 3 3" xfId="7"/>
+    <cellStyle name="常规 2 2 2" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="9"/>
+    <cellStyle name="标题2" xfId="10"/>
+    <cellStyle name="常规 7" xfId="11"/>
+    <cellStyle name="表头2" xfId="12"/>
+    <cellStyle name="常规 7 2" xfId="13"/>
+    <cellStyle name="2填表文本" xfId="14"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="15"/>
+    <cellStyle name="常规 7 4" xfId="16"/>
+    <cellStyle name="程序实现" xfId="17"/>
+    <cellStyle name="常规 9" xfId="18"/>
+    <cellStyle name="常规 6 3" xfId="19"/>
+    <cellStyle name="着色 2 2" xfId="20"/>
+    <cellStyle name="20% - 着色 2 3" xfId="21"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="22"/>
+    <cellStyle name="20% - 着色 2 2" xfId="23"/>
+    <cellStyle name="常规 7 3" xfId="24"/>
+    <cellStyle name="1表头" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="26"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="28"/>
+    <cellStyle name="3备注" xfId="29"/>
+    <cellStyle name="常规 5" xfId="30"/>
+    <cellStyle name="4分类标题" xfId="31"/>
+    <cellStyle name="常规 4 2" xfId="32"/>
+    <cellStyle name="特别注意" xfId="33"/>
+    <cellStyle name="输入框" xfId="34"/>
+    <cellStyle name="百分比 2 2" xfId="35"/>
     <cellStyle name="标题 2" xfId="36" builtinId="17"/>
     <cellStyle name="强调文字颜色 6 3" xfId="37"/>
     <cellStyle name="常规 2" xfId="38"/>
-    <cellStyle name="特别注意" xfId="39"/>
-    <cellStyle name="百分比 2 2" xfId="40"/>
-    <cellStyle name="输入框" xfId="41"/>
-    <cellStyle name="常规 4 2" xfId="42"/>
-    <cellStyle name="4分类标题" xfId="43"/>
-    <cellStyle name="常规 5" xfId="44"/>
-    <cellStyle name="3备注" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="48"/>
-    <cellStyle name="常规 7 3" xfId="49"/>
-    <cellStyle name="1表头" xfId="50"/>
-    <cellStyle name="常规 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 6 3 2" xfId="52"/>
-    <cellStyle name="20% - 着色 2 2" xfId="53"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="54"/>
-    <cellStyle name="20% - 着色 2 3" xfId="55"/>
-    <cellStyle name="着色 2 2" xfId="56"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="57" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="58" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="59" builtinId="43"/>
-    <cellStyle name="强调文字颜色 4" xfId="60" builtinId="41"/>
-    <cellStyle name="常规 6 3" xfId="61"/>
-    <cellStyle name="常规 9" xfId="62"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="63" builtinId="40"/>
-    <cellStyle name="输入" xfId="64" builtinId="20"/>
-    <cellStyle name="强调文字颜色 3" xfId="65" builtinId="37"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="66" builtinId="39"/>
-    <cellStyle name="程序实现" xfId="67"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="68" builtinId="38"/>
-    <cellStyle name="常规 7 4" xfId="69"/>
-    <cellStyle name="常规 8 3" xfId="70"/>
-    <cellStyle name="百分比" xfId="71" builtinId="5"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="72"/>
-    <cellStyle name="千位分隔" xfId="73" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="74" builtinId="36"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="75"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="76" builtinId="48"/>
-    <cellStyle name="判断逻辑" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="78" builtinId="35"/>
-    <cellStyle name="强调文字颜色 2" xfId="79" builtinId="33"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="80"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="81" builtinId="32"/>
-    <cellStyle name="2填表文本" xfId="82"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="83" builtinId="44"/>
-    <cellStyle name="常规 7 2" xfId="84"/>
-    <cellStyle name="计算" xfId="85" builtinId="22"/>
-    <cellStyle name="美术需求 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="87" builtinId="31"/>
-    <cellStyle name="强调文字颜色 1" xfId="88" builtinId="29"/>
-    <cellStyle name="表头2" xfId="89"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="90"/>
-    <cellStyle name="常规 3" xfId="91"/>
-    <cellStyle name="标题 3" xfId="92" builtinId="18"/>
-    <cellStyle name="适中" xfId="93" builtinId="28"/>
-    <cellStyle name="输出" xfId="94" builtinId="21"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="95" builtinId="46"/>
-    <cellStyle name="常规 7" xfId="96"/>
-    <cellStyle name="标题2" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="98" builtinId="30"/>
-    <cellStyle name="汇总" xfId="99" builtinId="25"/>
-    <cellStyle name="差" xfId="100" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="101" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="102"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="103"/>
-    <cellStyle name="标题 1" xfId="104" builtinId="16"/>
-    <cellStyle name="常规 2 2 2" xfId="105"/>
-    <cellStyle name="解释性文本" xfId="106" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="107" builtinId="34"/>
-    <cellStyle name="货币[0]" xfId="108" builtinId="7"/>
-    <cellStyle name="常规 3 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="111"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9"/>
-    <cellStyle name="标题" xfId="113" builtinId="15"/>
-    <cellStyle name="常规 2 2 3" xfId="114"/>
-    <cellStyle name="警告文本" xfId="115" builtinId="11"/>
-    <cellStyle name="注释" xfId="116" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="117" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="118" builtinId="47"/>
-    <cellStyle name="强调文字颜色 5" xfId="119" builtinId="45"/>
-    <cellStyle name="强调文字颜色 1 2 2" xfId="120"/>
-    <cellStyle name="常规 2 4" xfId="121"/>
-    <cellStyle name="强调文字颜色 6" xfId="122" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="123" builtinId="51"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="124"/>
-    <cellStyle name="普通数值" xfId="125"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8"/>
-    <cellStyle name="常规 8 2" xfId="127"/>
-    <cellStyle name="千位分隔[0]" xfId="128" builtinId="6"/>
-    <cellStyle name="常规 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="130"/>
+    <cellStyle name="适中 2" xfId="39"/>
+    <cellStyle name="常规 3 2" xfId="40"/>
+    <cellStyle name="标题 4" xfId="41" builtinId="19"/>
+    <cellStyle name="常规 4" xfId="42"/>
+    <cellStyle name="表头" xfId="43"/>
+    <cellStyle name="常规 4 2 3" xfId="44"/>
+    <cellStyle name="好" xfId="45" builtinId="26"/>
+    <cellStyle name="货币" xfId="46" builtinId="4"/>
+    <cellStyle name="常规 6" xfId="47"/>
+    <cellStyle name="常规 8" xfId="48"/>
+    <cellStyle name="常规 6 2" xfId="49"/>
+    <cellStyle name="常规 6 4" xfId="50"/>
+    <cellStyle name="程序实现 2" xfId="51"/>
+    <cellStyle name="常规 2 2" xfId="52"/>
+    <cellStyle name="强调文字颜色 6 3 2" xfId="53"/>
+    <cellStyle name="百分比 2" xfId="54"/>
+    <cellStyle name="过渡数据" xfId="55"/>
+    <cellStyle name="举例说明" xfId="56"/>
+    <cellStyle name="强调文字颜色 1 3 2" xfId="57"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="58"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="59"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="60"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="61"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="62"/>
+    <cellStyle name="备注" xfId="63"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="64"/>
+    <cellStyle name="列" xfId="65"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="66"/>
+    <cellStyle name="删除内容" xfId="67"/>
+    <cellStyle name="提示信息" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="69"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="70" builtinId="52"/>
+    <cellStyle name="提示信息 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="72" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="73" builtinId="43"/>
+    <cellStyle name="强调文字颜色 4" xfId="74" builtinId="41"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="75" builtinId="40"/>
+    <cellStyle name="输入" xfId="76" builtinId="20"/>
+    <cellStyle name="强调文字颜色 3" xfId="77" builtinId="37"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="78" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="79" builtinId="38"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="80"/>
+    <cellStyle name="常规 8 3" xfId="81"/>
+    <cellStyle name="百分比" xfId="82" builtinId="5"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="83"/>
+    <cellStyle name="千位分隔" xfId="84" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="85" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="86" builtinId="48"/>
+    <cellStyle name="判断逻辑" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="88" builtinId="35"/>
+    <cellStyle name="强调文字颜色 2" xfId="89" builtinId="33"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="90"/>
+    <cellStyle name="着色 2 3" xfId="91"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="92"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="93" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="94" builtinId="44"/>
+    <cellStyle name="计算" xfId="95" builtinId="22"/>
+    <cellStyle name="美术需求 2" xfId="96"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="97" builtinId="31"/>
+    <cellStyle name="强调文字颜色 1" xfId="98" builtinId="29"/>
+    <cellStyle name="常规 3" xfId="99"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="100"/>
+    <cellStyle name="标题 3" xfId="101" builtinId="18"/>
+    <cellStyle name="适中" xfId="102" builtinId="28"/>
+    <cellStyle name="输出" xfId="103" builtinId="21"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="104" builtinId="46"/>
+    <cellStyle name="美术需求" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="106" builtinId="30"/>
+    <cellStyle name="汇总" xfId="107" builtinId="25"/>
+    <cellStyle name="差" xfId="108" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="109" builtinId="23"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="110"/>
+    <cellStyle name="标题 1" xfId="111" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="112" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="113" builtinId="34"/>
+    <cellStyle name="货币[0]" xfId="114" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="115"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9"/>
+    <cellStyle name="标题" xfId="117" builtinId="15"/>
+    <cellStyle name="强调文字颜色 2 4 2" xfId="118"/>
+    <cellStyle name="警告文本" xfId="119" builtinId="11"/>
+    <cellStyle name="注释" xfId="120" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="121" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="122" builtinId="47"/>
+    <cellStyle name="强调文字颜色 5" xfId="123" builtinId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="124" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="125" builtinId="51"/>
+    <cellStyle name="普通数值" xfId="126"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="127"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8"/>
+    <cellStyle name="常规 8 2" xfId="129"/>
+    <cellStyle name="千位分隔[0]" xfId="130" builtinId="6"/>
     <cellStyle name="链接单元格" xfId="131" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4291,7 +4303,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -4773,7 +4785,7 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -5794,7 +5806,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E22" sqref="E22:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -5985,7 +5997,7 @@
         <v>212</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5997,7 +6009,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -6006,13 +6018,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>216</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -6024,7 +6036,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -6033,7 +6045,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
@@ -6051,7 +6063,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6060,13 +6072,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6078,7 +6090,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6087,7 +6099,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>209</v>
@@ -6105,7 +6117,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6114,13 +6126,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>212</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6132,7 +6144,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6141,13 +6153,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6159,7 +6171,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6168,7 +6180,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
@@ -6186,7 +6198,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6195,13 +6207,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6213,7 +6225,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6255,7 +6267,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6267,7 +6279,7 @@
         <v>64</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6276,13 +6288,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>216</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6294,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6303,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
@@ -6321,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6330,13 +6342,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6348,7 +6360,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6357,7 +6369,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>209</v>
@@ -6375,7 +6387,7 @@
         <v>72</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6384,13 +6396,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>212</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6402,7 +6414,7 @@
         <v>72</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6411,13 +6423,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6429,7 +6441,7 @@
         <v>72</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6438,7 +6450,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
@@ -6456,7 +6468,7 @@
         <v>72</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6465,13 +6477,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6483,7 +6495,7 @@
         <v>72</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6503,7 +6515,7 @@
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -6522,24 +6534,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="20" t="s">
         <v>238</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>239</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6562,25 +6574,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>245</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -6591,30 +6603,30 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>252</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6643,376 +6655,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="C7" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="D7" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="F7" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="H7" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="I7" s="48" t="s">
         <v>265</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="31" t="s">
+      <c r="H8" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="48" t="s">
         <v>268</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="H9" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>271</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="31" t="s">
+      <c r="H10" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>274</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="31" t="s">
+      <c r="H11" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>277</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="H12" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>280</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="H13" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>283</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="31" t="s">
+      <c r="H14" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>286</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>289</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="31" t="s">
+      <c r="H16" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>292</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="31" t="s">
+      <c r="H17" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>295</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G18" s="31" t="s">
+      <c r="H18" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="48" t="s">
         <v>298</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="H19" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" s="48" t="s">
         <v>301</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7037,7 +7049,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7056,7 +7068,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7065,7 +7077,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7088,25 +7100,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>308</v>
-      </c>
       <c r="H3" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>245</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -7117,25 +7129,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7173,37 +7185,37 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>318</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>141</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>141</v>
@@ -7227,13 +7239,13 @@
         <v>323</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>319</v>
@@ -7245,22 +7257,22 @@
         <v>321</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>319</v>
@@ -7272,72 +7284,72 @@
         <v>321</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>321</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>321</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>141</v>
@@ -7352,21 +7364,21 @@
         <v>321</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>319</v>
@@ -7378,21 +7390,21 @@
         <v>321</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>319</v>
@@ -7404,70 +7416,70 @@
         <v>321</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>321</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>321</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>141</v>
@@ -7482,21 +7494,21 @@
         <v>321</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>319</v>
@@ -7508,21 +7520,21 @@
         <v>321</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>144</v>
+        <v>327</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>319</v>
@@ -7534,59 +7546,59 @@
         <v>321</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>321</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>321</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7619,7 +7631,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7631,18 +7643,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7653,7 +7665,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7664,19 +7676,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>320</v>
@@ -7685,10 +7697,10 @@
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -7707,7 +7719,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -7723,16 +7735,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7747,53 +7759,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7816,25 +7828,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7843,19 +7855,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7864,19 +7876,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="370">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -673,73 +673,34 @@
     <t>10//10</t>
   </si>
   <si>
-    <t>6元单充1</t>
-  </si>
-  <si>
     <t>高级军事书//高级农业书//高级政治书//高级商业书</t>
   </si>
   <si>
     <t>10//10//10//10</t>
   </si>
   <si>
-    <t>30元单充1</t>
-  </si>
-  <si>
     <t>金钱随机箱//天命随机箱//精炼石随机箱//宝物精炼随机箱</t>
   </si>
   <si>
     <t>3//2//2//2</t>
   </si>
   <si>
-    <t>50元单充1</t>
-  </si>
-  <si>
     <t>橙色装备任选</t>
   </si>
   <si>
-    <t>288元单充1</t>
-  </si>
-  <si>
-    <t>648元单充1</t>
-  </si>
-  <si>
     <t>精力丹//活力丹</t>
   </si>
   <si>
-    <t>6元单充2</t>
-  </si>
-  <si>
     <t>传世画册//金丝锦囊//大师乐谱//绝世香脂</t>
   </si>
   <si>
-    <t>30元单充2</t>
-  </si>
-  <si>
     <t>橙宝碎片任选</t>
   </si>
   <si>
-    <t>288元单充2</t>
-  </si>
-  <si>
-    <t>648元单充2</t>
-  </si>
-  <si>
     <t>橙阶情人任选</t>
   </si>
   <si>
-    <t>288元单充3</t>
-  </si>
-  <si>
-    <t>648元单充3</t>
-  </si>
-  <si>
     <t>橙色缘分任选</t>
-  </si>
-  <si>
-    <t>288元单充4</t>
-  </si>
-  <si>
-    <t>648元单充4</t>
   </si>
   <si>
     <t>is_accumulated_recharge_activity 字段的作用是与"每日单冲"活动进行区分</t>
@@ -1443,9 +1404,6 @@
     <t>1001</t>
   </si>
   <si>
-    <t>充值6元</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -1461,27 +1419,18 @@
     <t>1002</t>
   </si>
   <si>
-    <t>充值30元</t>
-  </si>
-  <si>
     <t>豪华签到等级20-02A//豪华签到等级50-02A</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>充值50元</t>
-  </si>
-  <si>
     <t>豪华签到等级20-03A//豪华签到等级50-03A</t>
   </si>
   <si>
     <t>1004</t>
   </si>
   <si>
-    <t>充值128元</t>
-  </si>
-  <si>
     <t>每周重置</t>
   </si>
   <si>
@@ -1489,9 +1438,6 @@
   </si>
   <si>
     <t>1005</t>
-  </si>
-  <si>
-    <t>充值288元</t>
   </si>
   <si>
     <t>豪华签到等级20-05A//豪华签到等级50-05A</t>
@@ -3466,7 +3412,7 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -4785,7 +4731,7 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="C25" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -5806,7 +5752,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E26"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -5982,7 +5928,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5991,10 +5937,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>144</v>
@@ -6009,7 +5955,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -6018,10 +5964,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>147</v>
@@ -6036,7 +5982,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -6045,7 +5991,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
@@ -6063,7 +6009,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6072,7 +6018,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
@@ -6090,7 +6036,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6099,7 +6045,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>209</v>
@@ -6117,7 +6063,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6126,10 +6072,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>144</v>
@@ -6144,7 +6090,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6153,10 +6099,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>147</v>
@@ -6171,7 +6117,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6180,7 +6126,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
@@ -6198,7 +6144,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6207,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
@@ -6225,7 +6171,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6252,7 +6198,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6261,10 +6207,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>144</v>
@@ -6279,7 +6225,7 @@
         <v>64</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6288,10 +6234,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>147</v>
@@ -6306,7 +6252,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6315,7 +6261,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
@@ -6333,7 +6279,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6342,7 +6288,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
@@ -6360,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6369,7 +6315,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>209</v>
@@ -6387,7 +6333,7 @@
         <v>72</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6396,10 +6342,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>144</v>
@@ -6414,7 +6360,7 @@
         <v>72</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6423,10 +6369,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>147</v>
@@ -6441,7 +6387,7 @@
         <v>72</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6450,7 +6396,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
@@ -6468,7 +6414,7 @@
         <v>72</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6477,7 +6423,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
@@ -6495,7 +6441,7 @@
         <v>72</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6534,24 +6480,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6574,25 +6520,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -6603,30 +6549,30 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6655,376 +6601,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="H10" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="H11" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>264</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -7048,8 +6994,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7068,7 +7014,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7077,7 +7023,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7100,25 +7046,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -7129,25 +7075,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7185,420 +7131,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>141</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>144</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>147</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>150</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>153</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>141</v>
       </c>
       <c r="F12" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>319</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>144</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H13" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>321</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>147</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>150</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>153</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>141</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>147</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>150</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>153</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -7618,7 +7564,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -7631,7 +7577,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7643,18 +7589,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7665,7 +7611,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7676,31 +7622,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7719,7 +7665,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -7735,16 +7681,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7759,53 +7705,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7828,25 +7774,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7855,19 +7801,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7876,19 +7822,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="375">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -673,19 +673,34 @@
     <t>10//10</t>
   </si>
   <si>
+    <t>6元单充1</t>
+  </si>
+  <si>
     <t>高级军事书//高级农业书//高级政治书//高级商业书</t>
   </si>
   <si>
     <t>10//10//10//10</t>
   </si>
   <si>
+    <t>30元单充1</t>
+  </si>
+  <si>
     <t>金钱随机箱//天命随机箱//精炼石随机箱//宝物精炼随机箱</t>
   </si>
   <si>
     <t>3//2//2//2</t>
   </si>
   <si>
+    <t>50元单充1</t>
+  </si>
+  <si>
     <t>橙色装备任选</t>
+  </si>
+  <si>
+    <t>288元单充1</t>
+  </si>
+  <si>
+    <t>648元单充1</t>
   </si>
   <si>
     <t>精力丹//活力丹</t>
@@ -2806,7 +2821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2973,6 +2988,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3412,8 +3430,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3435,21 +3453,21 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="3:10">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="71"/>
+      <c r="J1" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="66" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="9" t="s">
@@ -3500,7 +3518,7 @@
       <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="72" t="s">
+      <c r="Q3" s="73" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3633,488 +3651,488 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="67"/>
-      <c r="B7" s="62">
-        <v>1</v>
-      </c>
-      <c r="C7" s="62" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="63">
+        <v>1</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="62" t="b">
+      <c r="I7" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="62" t="s">
+      <c r="Q7" s="63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="67"/>
-      <c r="B8" s="62">
+      <c r="A8" s="68"/>
+      <c r="B8" s="63">
         <v>2</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="62" t="b">
+      <c r="I8" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62" t="s">
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="62" t="s">
+      <c r="M8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62" t="s">
+      <c r="O8" s="63"/>
+      <c r="P8" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="62" t="s">
+      <c r="Q8" s="63" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="67"/>
-      <c r="B9" s="62">
+      <c r="A9" s="68"/>
+      <c r="B9" s="63">
         <v>3</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="62" t="b">
+      <c r="I9" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62" t="s">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="63" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="67"/>
-      <c r="B10" s="62">
+      <c r="A10" s="68"/>
+      <c r="B10" s="63">
         <v>4</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="62" t="b">
+      <c r="I10" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62" t="s">
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="62" t="s">
+      <c r="Q10" s="63" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="67"/>
-      <c r="B11" s="62">
+      <c r="A11" s="68"/>
+      <c r="B11" s="63">
         <v>5</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="62" t="b">
+      <c r="I11" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62" t="s">
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62" t="s">
+      <c r="O11" s="63"/>
+      <c r="P11" s="63" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:16">
-      <c r="A12" s="67"/>
-      <c r="B12" s="62">
+      <c r="A12" s="68"/>
+      <c r="B12" s="63">
         <v>6</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="62" t="b">
+      <c r="I12" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62" t="s">
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="62" t="s">
+      <c r="M12" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="62" t="s">
+      <c r="N12" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62" t="s">
+      <c r="O12" s="63"/>
+      <c r="P12" s="63" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:16">
-      <c r="A13" s="67"/>
-      <c r="B13" s="62">
+      <c r="A13" s="68"/>
+      <c r="B13" s="63">
         <v>7</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="62" t="s">
+      <c r="I13" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="62" t="s">
+      <c r="L13" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="62" t="s">
+      <c r="M13" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="62" t="s">
+      <c r="O13" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="P13" s="62" t="s">
+      <c r="P13" s="63" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:16">
-      <c r="A14" s="67"/>
-      <c r="B14" s="62">
+      <c r="A14" s="68"/>
+      <c r="B14" s="63">
         <v>8</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62" t="s">
+      <c r="I14" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="62" t="s">
+      <c r="M14" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="62" t="s">
+      <c r="N14" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="O14" s="62" t="s">
+      <c r="O14" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="62" t="s">
+      <c r="P14" s="63" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="63">
         <v>9</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="64" t="s">
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="62" t="b">
+      <c r="I15" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62" t="s">
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="62" t="s">
+      <c r="M15" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="62" t="s">
+      <c r="N15" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62" t="s">
+      <c r="O15" s="63"/>
+      <c r="P15" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="62" t="s">
+      <c r="Q15" s="63" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="63">
         <v>10</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="62" t="s">
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="62" t="b">
+      <c r="I16" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62" t="s">
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="62" t="s">
+      <c r="M16" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="62" t="s">
+      <c r="N16" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62" t="s">
+      <c r="O16" s="63"/>
+      <c r="P16" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="62"/>
+      <c r="Q16" s="63"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="63">
         <v>11</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="64" t="s">
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="62" t="b">
+      <c r="I17" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62" t="s">
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="62" t="s">
+      <c r="N17" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="O17" s="62" t="s">
+      <c r="O17" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="P17" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="62"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="19" customHeight="1" spans="7:7">
-      <c r="G19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4140,14 +4158,14 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
@@ -4194,45 +4212,45 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62">
-        <v>1</v>
-      </c>
-      <c r="C7" s="62" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63">
+        <v>1</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63">
         <v>2</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63">
         <v>3</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="63" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="63">
+      <c r="B10" s="64">
         <v>4</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="64">
+      <c r="B11" s="65">
         <v>5</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="65" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4731,8 +4749,8 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -4772,7 +4790,7 @@
       <c r="C2" s="53"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="58" t="s">
         <v>160</v>
       </c>
       <c r="G2" s="53"/>
@@ -5751,15 +5769,15 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="59.5178571428571" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
@@ -5927,8 +5945,8 @@
       <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>141</v>
+      <c r="I7" s="57" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5937,10 +5955,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>144</v>
@@ -5954,8 +5972,8 @@
       <c r="H8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>144</v>
+      <c r="I8" s="57" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5964,10 +5982,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>147</v>
@@ -5981,8 +5999,8 @@
       <c r="H9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>147</v>
+      <c r="I9" s="57" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5991,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
@@ -6008,8 +6026,8 @@
       <c r="H10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>150</v>
+      <c r="I10" s="57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6018,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
@@ -6035,8 +6053,8 @@
       <c r="H11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>153</v>
+      <c r="I11" s="57" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6045,7 +6063,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>209</v>
@@ -6062,8 +6080,8 @@
       <c r="H12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>141</v>
+      <c r="I12" s="57" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6072,10 +6090,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>144</v>
@@ -6089,8 +6107,8 @@
       <c r="H13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>144</v>
+      <c r="I13" s="57" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6099,10 +6117,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>147</v>
@@ -6116,8 +6134,8 @@
       <c r="H14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>147</v>
+      <c r="I14" s="57" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6126,7 +6144,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
@@ -6143,8 +6161,8 @@
       <c r="H15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>150</v>
+      <c r="I15" s="57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6153,7 +6171,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
@@ -6170,8 +6188,8 @@
       <c r="H16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>153</v>
+      <c r="I16" s="57" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6197,8 +6215,8 @@
       <c r="H17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>141</v>
+      <c r="I17" s="57" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6207,10 +6225,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>144</v>
@@ -6224,8 +6242,8 @@
       <c r="H18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>144</v>
+      <c r="I18" s="57" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6234,10 +6252,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>147</v>
@@ -6251,8 +6269,8 @@
       <c r="H19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>147</v>
+      <c r="I19" s="57" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6261,7 +6279,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
@@ -6278,8 +6296,8 @@
       <c r="H20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>150</v>
+      <c r="I20" s="57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6288,7 +6306,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
@@ -6305,8 +6323,8 @@
       <c r="H21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>153</v>
+      <c r="I21" s="57" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6315,7 +6333,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>209</v>
@@ -6332,8 +6350,8 @@
       <c r="H22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>141</v>
+      <c r="I22" s="57" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6342,10 +6360,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>144</v>
@@ -6359,8 +6377,8 @@
       <c r="H23" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>144</v>
+      <c r="I23" s="57" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6369,10 +6387,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>147</v>
@@ -6386,8 +6404,8 @@
       <c r="H24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>147</v>
+      <c r="I24" s="57" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6396,7 +6414,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
@@ -6413,8 +6431,8 @@
       <c r="H25" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>150</v>
+      <c r="I25" s="57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6423,7 +6441,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
@@ -6440,8 +6458,8 @@
       <c r="H26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>153</v>
+      <c r="I26" s="57" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6461,8 +6479,8 @@
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -6480,24 +6498,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6520,25 +6538,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -6549,30 +6567,30 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6601,376 +6619,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>248</v>
-      </c>
       <c r="F8" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>251</v>
-      </c>
       <c r="I9" s="48" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6994,8 +7012,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7003,10 +7021,10 @@
     <col min="1" max="1" width="23.875" style="32" customWidth="1"/>
     <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="32.5892857142857" style="32" customWidth="1"/>
     <col min="5" max="5" width="19" style="32" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="38.3839285714286" style="32" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
     <col min="9" max="9" width="92.875" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9" style="32"/>
@@ -7014,7 +7032,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7023,7 +7041,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7046,25 +7064,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -7075,25 +7093,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7131,34 +7149,34 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>141</v>
@@ -7167,25 +7185,25 @@
         <v>141</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>144</v>
@@ -7194,25 +7212,25 @@
         <v>144</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>147</v>
@@ -7221,25 +7239,25 @@
         <v>147</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>150</v>
@@ -7248,25 +7266,25 @@
         <v>150</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>153</v>
@@ -7275,24 +7293,24 @@
         <v>153</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>141</v>
@@ -7301,24 +7319,24 @@
         <v>141</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>144</v>
@@ -7327,24 +7345,24 @@
         <v>144</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>147</v>
@@ -7353,24 +7371,24 @@
         <v>147</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>150</v>
@@ -7379,24 +7397,24 @@
         <v>150</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>153</v>
@@ -7405,24 +7423,24 @@
         <v>153</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>141</v>
@@ -7431,24 +7449,24 @@
         <v>141</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>144</v>
@@ -7457,24 +7475,24 @@
         <v>144</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>147</v>
@@ -7483,24 +7501,24 @@
         <v>147</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>150</v>
@@ -7509,24 +7527,24 @@
         <v>150</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>153</v>
@@ -7535,16 +7553,16 @@
         <v>153</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -7564,7 +7582,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -7577,7 +7595,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7589,18 +7607,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7611,7 +7629,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7622,31 +7640,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -7664,8 +7682,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -7681,16 +7699,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7705,53 +7723,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7774,25 +7792,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7801,19 +7819,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7822,19 +7840,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="383">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -706,16 +706,40 @@
     <t>精力丹//活力丹</t>
   </si>
   <si>
+    <t>6元单充2</t>
+  </si>
+  <si>
     <t>传世画册//金丝锦囊//大师乐谱//绝世香脂</t>
   </si>
   <si>
+    <t>30元单充2</t>
+  </si>
+  <si>
     <t>橙宝碎片任选</t>
   </si>
   <si>
+    <t>288元单充2</t>
+  </si>
+  <si>
+    <t>648元单充2</t>
+  </si>
+  <si>
     <t>橙阶情人任选</t>
   </si>
   <si>
+    <t>288元单充3</t>
+  </si>
+  <si>
+    <t>648元单充3</t>
+  </si>
+  <si>
     <t>橙色缘分任选</t>
+  </si>
+  <si>
+    <t>288元单充4</t>
+  </si>
+  <si>
+    <t>648元单充4</t>
   </si>
   <si>
     <t>is_accumulated_recharge_activity 字段的作用是与"每日单冲"活动进行区分</t>
@@ -2821,7 +2845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2988,9 +3012,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3453,21 +3474,21 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="3:10">
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="70"/>
+      <c r="J1" s="65" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="67" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="9" t="s">
@@ -3518,7 +3539,7 @@
       <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="72" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3651,488 +3672,488 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="68"/>
-      <c r="B7" s="63">
-        <v>1</v>
-      </c>
-      <c r="C7" s="63" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="62">
+        <v>1</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="63" t="b">
+      <c r="I7" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63" t="s">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63" t="s">
+      <c r="O7" s="62"/>
+      <c r="P7" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="62" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="68"/>
-      <c r="B8" s="63">
+      <c r="A8" s="67"/>
+      <c r="B8" s="62">
         <v>2</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="63" t="b">
+      <c r="I8" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63" t="s">
+      <c r="O8" s="62"/>
+      <c r="P8" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="62" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="68"/>
-      <c r="B9" s="63">
+      <c r="A9" s="67"/>
+      <c r="B9" s="62">
         <v>3</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="63" t="b">
+      <c r="I9" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63" t="s">
+      <c r="O9" s="62"/>
+      <c r="P9" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="63" t="s">
+      <c r="Q9" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="68"/>
-      <c r="B10" s="63">
+      <c r="A10" s="67"/>
+      <c r="B10" s="62">
         <v>4</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="63" t="b">
+      <c r="I10" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63" t="s">
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63" t="s">
+      <c r="O10" s="62"/>
+      <c r="P10" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="63" t="s">
+      <c r="Q10" s="62" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="68"/>
-      <c r="B11" s="63">
+      <c r="A11" s="67"/>
+      <c r="B11" s="62">
         <v>5</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="63" t="b">
+      <c r="I11" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63" t="s">
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63" t="s">
+      <c r="O11" s="62"/>
+      <c r="P11" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:16">
-      <c r="A12" s="68"/>
-      <c r="B12" s="63">
+      <c r="A12" s="67"/>
+      <c r="B12" s="62">
         <v>6</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="63" t="b">
+      <c r="I12" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63" t="s">
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="N12" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63" t="s">
+      <c r="O12" s="62"/>
+      <c r="P12" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:16">
-      <c r="A13" s="68"/>
-      <c r="B13" s="63">
+      <c r="A13" s="67"/>
+      <c r="B13" s="62">
         <v>7</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="63" t="s">
+      <c r="I13" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="63" t="s">
+      <c r="O13" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="P13" s="63" t="s">
+      <c r="P13" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:16">
-      <c r="A14" s="68"/>
-      <c r="B14" s="63">
+      <c r="A14" s="67"/>
+      <c r="B14" s="62">
         <v>8</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="63" t="s">
+      <c r="I14" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="M14" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="63" t="s">
+      <c r="P14" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="62">
         <v>9</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="65" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="63" t="b">
+      <c r="I15" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="N15" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63" t="s">
+      <c r="O15" s="62"/>
+      <c r="P15" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="63" t="s">
+      <c r="Q15" s="62" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="62">
         <v>10</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="63" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="63" t="b">
+      <c r="I16" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="63" t="s">
+      <c r="N16" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63" t="s">
+      <c r="O16" s="62"/>
+      <c r="P16" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="63"/>
+      <c r="Q16" s="62"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="62">
         <v>11</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="65" t="s">
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="63" t="b">
+      <c r="I17" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63" t="s">
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="63" t="s">
+      <c r="M17" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="O17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="63" t="s">
+      <c r="P17" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="63"/>
+      <c r="Q17" s="62"/>
     </row>
     <row r="19" customHeight="1" spans="7:7">
-      <c r="G19" s="72"/>
+      <c r="G19" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4158,14 +4179,14 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
@@ -4212,45 +4233,45 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63">
-        <v>1</v>
-      </c>
-      <c r="C7" s="63" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62">
+        <v>1</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62">
         <v>2</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62">
         <v>3</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="64">
+      <c r="B10" s="63">
         <v>4</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <v>5</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4790,7 +4811,7 @@
       <c r="C2" s="53"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>160</v>
       </c>
       <c r="G2" s="53"/>
@@ -5770,7 +5791,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -5945,7 +5966,7 @@
       <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5972,7 +5993,7 @@
       <c r="H8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="13" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5999,7 +6020,7 @@
       <c r="H9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6026,7 +6047,7 @@
       <c r="H10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="13" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6053,7 +6074,7 @@
       <c r="H11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="13" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6080,8 +6101,8 @@
       <c r="H12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>210</v>
+      <c r="I12" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6090,7 +6111,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>212</v>
@@ -6107,8 +6128,8 @@
       <c r="H13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>213</v>
+      <c r="I13" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6134,7 +6155,7 @@
       <c r="H14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6144,7 +6165,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
@@ -6161,8 +6182,8 @@
       <c r="H15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>218</v>
+      <c r="I15" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6171,7 +6192,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
@@ -6188,8 +6209,8 @@
       <c r="H16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="57" t="s">
-        <v>219</v>
+      <c r="I16" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6215,7 +6236,7 @@
       <c r="H17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6242,7 +6263,7 @@
       <c r="H18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="13" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6269,7 +6290,7 @@
       <c r="H19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6279,7 +6300,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
@@ -6296,8 +6317,8 @@
       <c r="H20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="57" t="s">
-        <v>218</v>
+      <c r="I20" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6306,7 +6327,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
@@ -6323,8 +6344,8 @@
       <c r="H21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>219</v>
+      <c r="I21" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6350,8 +6371,8 @@
       <c r="H22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>210</v>
+      <c r="I22" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6360,7 +6381,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>212</v>
@@ -6377,8 +6398,8 @@
       <c r="H23" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>213</v>
+      <c r="I23" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6404,7 +6425,7 @@
       <c r="H24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6414,7 +6435,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
@@ -6431,8 +6452,8 @@
       <c r="H25" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="57" t="s">
-        <v>218</v>
+      <c r="I25" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6441,7 +6462,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
@@ -6458,8 +6479,8 @@
       <c r="H26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="57" t="s">
-        <v>219</v>
+      <c r="I26" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6498,24 +6519,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6538,25 +6559,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -6567,30 +6588,30 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6619,376 +6640,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>253</v>
-      </c>
       <c r="F9" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>256</v>
-      </c>
       <c r="I10" s="48" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7032,7 +7053,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7041,7 +7062,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7064,25 +7085,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -7093,25 +7114,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7149,34 +7170,34 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>141</v>
@@ -7185,25 +7206,25 @@
         <v>141</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>144</v>
@@ -7212,25 +7233,25 @@
         <v>144</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>147</v>
@@ -7239,25 +7260,25 @@
         <v>147</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>150</v>
@@ -7266,25 +7287,25 @@
         <v>150</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>153</v>
@@ -7293,24 +7314,24 @@
         <v>153</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>141</v>
@@ -7319,24 +7340,24 @@
         <v>141</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>144</v>
@@ -7345,24 +7366,24 @@
         <v>144</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>147</v>
@@ -7371,24 +7392,24 @@
         <v>147</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>150</v>
@@ -7397,24 +7418,24 @@
         <v>150</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>153</v>
@@ -7423,24 +7444,24 @@
         <v>153</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>141</v>
@@ -7449,24 +7470,24 @@
         <v>141</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>144</v>
@@ -7475,24 +7496,24 @@
         <v>144</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>147</v>
@@ -7501,24 +7522,24 @@
         <v>147</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>150</v>
@@ -7527,24 +7548,24 @@
         <v>150</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>153</v>
@@ -7553,16 +7574,16 @@
         <v>153</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7595,7 +7616,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7607,18 +7628,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7629,7 +7650,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7640,31 +7661,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -7699,16 +7720,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7723,53 +7744,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7792,25 +7813,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7819,19 +7840,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7840,19 +7861,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -3451,7 +3451,7 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -5790,8 +5790,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7703,8 +7703,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -7713,7 +7713,7 @@
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.8660714285714" customWidth="1"/>
     <col min="4" max="4" width="76.0357142857143" customWidth="1"/>
-    <col min="5" max="5" width="70.125" customWidth="1"/>
+    <col min="5" max="5" width="84.9642857142857" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="362">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -168,13 +168,13 @@
     <t>精良装备打造您的最强黑道军团，单笔充值指定金额即可领取橙色装备宝箱。</t>
   </si>
   <si>
-    <t>2021-05-22 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-05-24 24:00:00</t>
-  </si>
-  <si>
-    <t>2022-05-25 24:00:00</t>
+    <t>2022-05-04 15:50:00</t>
+  </si>
+  <si>
+    <t>2022-08-24 24:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-25 24:00:00</t>
   </si>
   <si>
     <t>每日单冲</t>
@@ -198,15 +198,6 @@
     <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取橙色色宝物宝箱。</t>
   </si>
   <si>
-    <t>2021-05-25 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-05-27 24:00:00</t>
-  </si>
-  <si>
-    <t>2022-05-28 24:00:00</t>
-  </si>
-  <si>
     <t>性感佳人</t>
   </si>
   <si>
@@ -222,15 +213,6 @@
     <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取橙色情人宝箱。</t>
   </si>
   <si>
-    <t>2021-06-10 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-13 24:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-14 24:00:00</t>
-  </si>
-  <si>
     <t>全副武装</t>
   </si>
   <si>
@@ -246,15 +228,6 @@
     <t>精锐头目助您征战黑帮世界，单笔充值指定金额即可领取橙色头目宝箱。</t>
   </si>
   <si>
-    <t>2021-06-14 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-16 24:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-17 24:00:00</t>
-  </si>
-  <si>
     <t>黑道重宝</t>
   </si>
   <si>
@@ -267,15 +240,6 @@
     <t>为了防止世界被破坏</t>
   </si>
   <si>
-    <t>2021-04-23 16:00:02</t>
-  </si>
-  <si>
-    <t>2022-05-28 16:00:01</t>
-  </si>
-  <si>
-    <t>2022-05-29 16:00:02</t>
-  </si>
-  <si>
     <t>超值单冲</t>
   </si>
   <si>
@@ -285,30 +249,12 @@
     <t>为了守护世界的和平</t>
   </si>
   <si>
-    <t>2021-04-23 16:00:03</t>
-  </si>
-  <si>
-    <t>2022-05-28 16:00:02</t>
-  </si>
-  <si>
-    <t>2022-05-29 16:00:03</t>
-  </si>
-  <si>
     <t>充钱4</t>
   </si>
   <si>
     <t>贯彻爱与真实的邪恶</t>
   </si>
   <si>
-    <t>2021-06-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-07 24:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-08 24:00:00</t>
-  </si>
-  <si>
     <t>充值抽奖</t>
   </si>
   <si>
@@ -325,15 +271,6 @@
   </si>
   <si>
     <t>可爱又迷人的反派角色</t>
-  </si>
-  <si>
-    <t>2021-04-30 16:00:05</t>
-  </si>
-  <si>
-    <t>2022-05-22 16:00:05</t>
-  </si>
-  <si>
-    <t>2022-05-22 24:00:00</t>
   </si>
   <si>
     <t>0//102//302</t>
@@ -1643,10 +1580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="50">
@@ -1715,17 +1652,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1736,8 +1673,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1748,6 +1694,13 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1767,116 +1720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCC00CC"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249946592608417"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,18 +1735,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6600FF"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1911,17 +1798,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1941,9 +1849,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1955,15 +1871,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF6600FF"/>
-      <name val="微软雅黑"/>
+      <color indexed="8"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1974,8 +1884,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249946592608417"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2031,13 +1968,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,25 +1998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,7 +2034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,13 +2052,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,19 +2118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,31 +2148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,55 +2160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2405,6 +2342,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2440,15 +2392,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2464,75 +2407,144 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2545,641 +2557,566 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyFill="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="7">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="109" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="2"/>
-    <cellStyle name="常规 2 4" xfId="3"/>
-    <cellStyle name="强调文字颜色 1 2 2" xfId="4"/>
-    <cellStyle name="常规 2 2 3" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="6"/>
-    <cellStyle name="常规 3 3" xfId="7"/>
-    <cellStyle name="常规 2 2 2" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="9"/>
-    <cellStyle name="标题2" xfId="10"/>
-    <cellStyle name="常规 7" xfId="11"/>
-    <cellStyle name="表头2" xfId="12"/>
-    <cellStyle name="常规 7 2" xfId="13"/>
-    <cellStyle name="2填表文本" xfId="14"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="15"/>
-    <cellStyle name="常规 7 4" xfId="16"/>
-    <cellStyle name="程序实现" xfId="17"/>
-    <cellStyle name="常规 9" xfId="18"/>
-    <cellStyle name="常规 6 3" xfId="19"/>
-    <cellStyle name="着色 2 2" xfId="20"/>
-    <cellStyle name="20% - 着色 2 3" xfId="21"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="22"/>
-    <cellStyle name="20% - 着色 2 2" xfId="23"/>
-    <cellStyle name="常规 7 3" xfId="24"/>
-    <cellStyle name="1表头" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="28"/>
-    <cellStyle name="3备注" xfId="29"/>
-    <cellStyle name="常规 5" xfId="30"/>
-    <cellStyle name="4分类标题" xfId="31"/>
-    <cellStyle name="常规 4 2" xfId="32"/>
-    <cellStyle name="特别注意" xfId="33"/>
-    <cellStyle name="输入框" xfId="34"/>
-    <cellStyle name="百分比 2 2" xfId="35"/>
+    <cellStyle name="强调文字颜色 2 4 2" xfId="1"/>
+    <cellStyle name="美术需求" xfId="2"/>
+    <cellStyle name="着色 2 3" xfId="3"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="4"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="5"/>
+    <cellStyle name="提示信息 2" xfId="6"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="7"/>
+    <cellStyle name="提示信息" xfId="8"/>
+    <cellStyle name="删除内容" xfId="9"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="10"/>
+    <cellStyle name="列" xfId="11"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="12"/>
+    <cellStyle name="备注" xfId="13"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="15"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="16"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="17"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="18"/>
+    <cellStyle name="强调文字颜色 1 3 2" xfId="19"/>
+    <cellStyle name="举例说明" xfId="20"/>
+    <cellStyle name="过渡数据" xfId="21"/>
+    <cellStyle name="百分比 2" xfId="22"/>
+    <cellStyle name="程序实现 2" xfId="23"/>
+    <cellStyle name="常规 6 4" xfId="24"/>
+    <cellStyle name="常规 8" xfId="25"/>
+    <cellStyle name="常规 6 2" xfId="26"/>
+    <cellStyle name="好" xfId="27" builtinId="26"/>
+    <cellStyle name="货币" xfId="28" builtinId="4"/>
+    <cellStyle name="常规 6" xfId="29"/>
+    <cellStyle name="表头" xfId="30"/>
+    <cellStyle name="常规 4 2 3" xfId="31"/>
+    <cellStyle name="标题 4" xfId="32" builtinId="19"/>
+    <cellStyle name="常规 4" xfId="33"/>
+    <cellStyle name="适中 2" xfId="34"/>
+    <cellStyle name="常规 3 2" xfId="35"/>
     <cellStyle name="标题 2" xfId="36" builtinId="17"/>
     <cellStyle name="强调文字颜色 6 3" xfId="37"/>
     <cellStyle name="常规 2" xfId="38"/>
-    <cellStyle name="适中 2" xfId="39"/>
-    <cellStyle name="常规 3 2" xfId="40"/>
-    <cellStyle name="标题 4" xfId="41" builtinId="19"/>
-    <cellStyle name="常规 4" xfId="42"/>
-    <cellStyle name="表头" xfId="43"/>
-    <cellStyle name="常规 4 2 3" xfId="44"/>
-    <cellStyle name="好" xfId="45" builtinId="26"/>
-    <cellStyle name="货币" xfId="46" builtinId="4"/>
-    <cellStyle name="常规 6" xfId="47"/>
-    <cellStyle name="常规 8" xfId="48"/>
-    <cellStyle name="常规 6 2" xfId="49"/>
-    <cellStyle name="常规 6 4" xfId="50"/>
-    <cellStyle name="程序实现 2" xfId="51"/>
-    <cellStyle name="常规 2 2" xfId="52"/>
-    <cellStyle name="强调文字颜色 6 3 2" xfId="53"/>
-    <cellStyle name="百分比 2" xfId="54"/>
-    <cellStyle name="过渡数据" xfId="55"/>
-    <cellStyle name="举例说明" xfId="56"/>
-    <cellStyle name="强调文字颜色 1 3 2" xfId="57"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="58"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="59"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="60"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="61"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="62"/>
-    <cellStyle name="备注" xfId="63"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="64"/>
-    <cellStyle name="列" xfId="65"/>
-    <cellStyle name="强调文字颜色 6 2 2" xfId="66"/>
-    <cellStyle name="删除内容" xfId="67"/>
-    <cellStyle name="提示信息" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="70" builtinId="52"/>
-    <cellStyle name="提示信息 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="72" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="73" builtinId="43"/>
-    <cellStyle name="强调文字颜色 4" xfId="74" builtinId="41"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="75" builtinId="40"/>
-    <cellStyle name="输入" xfId="76" builtinId="20"/>
-    <cellStyle name="强调文字颜色 3" xfId="77" builtinId="37"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="78" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="79" builtinId="38"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="80"/>
-    <cellStyle name="常规 8 3" xfId="81"/>
-    <cellStyle name="百分比" xfId="82" builtinId="5"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="83"/>
-    <cellStyle name="千位分隔" xfId="84" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="85" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="86" builtinId="48"/>
-    <cellStyle name="判断逻辑" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="88" builtinId="35"/>
-    <cellStyle name="强调文字颜色 2" xfId="89" builtinId="33"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="90"/>
-    <cellStyle name="着色 2 3" xfId="91"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="92"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="93" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="94" builtinId="44"/>
-    <cellStyle name="计算" xfId="95" builtinId="22"/>
-    <cellStyle name="美术需求 2" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="97" builtinId="31"/>
-    <cellStyle name="强调文字颜色 1" xfId="98" builtinId="29"/>
-    <cellStyle name="常规 3" xfId="99"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="100"/>
-    <cellStyle name="标题 3" xfId="101" builtinId="18"/>
-    <cellStyle name="适中" xfId="102" builtinId="28"/>
-    <cellStyle name="输出" xfId="103" builtinId="21"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="104" builtinId="46"/>
-    <cellStyle name="美术需求" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="106" builtinId="30"/>
-    <cellStyle name="汇总" xfId="107" builtinId="25"/>
-    <cellStyle name="差" xfId="108" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="109" builtinId="23"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="110"/>
-    <cellStyle name="标题 1" xfId="111" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="112" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="113" builtinId="34"/>
-    <cellStyle name="货币[0]" xfId="114" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="115"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9"/>
-    <cellStyle name="标题" xfId="117" builtinId="15"/>
-    <cellStyle name="强调文字颜色 2 4 2" xfId="118"/>
-    <cellStyle name="警告文本" xfId="119" builtinId="11"/>
-    <cellStyle name="注释" xfId="120" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="121" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="122" builtinId="47"/>
-    <cellStyle name="强调文字颜色 5" xfId="123" builtinId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="124" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="125" builtinId="51"/>
-    <cellStyle name="普通数值" xfId="126"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="127"/>
-    <cellStyle name="超链接" xfId="128" builtinId="8"/>
-    <cellStyle name="常规 8 2" xfId="129"/>
-    <cellStyle name="千位分隔[0]" xfId="130" builtinId="6"/>
+    <cellStyle name="特别注意" xfId="39"/>
+    <cellStyle name="百分比 2 2" xfId="40"/>
+    <cellStyle name="输入框" xfId="41"/>
+    <cellStyle name="常规 4 2" xfId="42"/>
+    <cellStyle name="4分类标题" xfId="43"/>
+    <cellStyle name="常规 5" xfId="44"/>
+    <cellStyle name="3备注" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="48"/>
+    <cellStyle name="常规 7 3" xfId="49"/>
+    <cellStyle name="1表头" xfId="50"/>
+    <cellStyle name="20% - 着色 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="52"/>
+    <cellStyle name="20% - 着色 2 3" xfId="53"/>
+    <cellStyle name="着色 2 2" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="56" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="57" builtinId="43"/>
+    <cellStyle name="强调文字颜色 4" xfId="58" builtinId="41"/>
+    <cellStyle name="常规 6 3" xfId="59"/>
+    <cellStyle name="常规 9" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="61" builtinId="40"/>
+    <cellStyle name="输入" xfId="62" builtinId="20"/>
+    <cellStyle name="强调文字颜色 3" xfId="63" builtinId="37"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="64" builtinId="39"/>
+    <cellStyle name="程序实现" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="66" builtinId="38"/>
+    <cellStyle name="常规 7 4" xfId="67"/>
+    <cellStyle name="常规 8 3" xfId="68"/>
+    <cellStyle name="百分比" xfId="69" builtinId="5"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="70"/>
+    <cellStyle name="千位分隔" xfId="71" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="72" builtinId="36"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="73"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="74" builtinId="48"/>
+    <cellStyle name="判断逻辑" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="76" builtinId="35"/>
+    <cellStyle name="强调文字颜色 2" xfId="77" builtinId="33"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="78"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="79" builtinId="32"/>
+    <cellStyle name="2填表文本" xfId="80"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="81" builtinId="44"/>
+    <cellStyle name="常规 7 2" xfId="82"/>
+    <cellStyle name="计算" xfId="83" builtinId="22"/>
+    <cellStyle name="美术需求 2" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="85" builtinId="31"/>
+    <cellStyle name="强调文字颜色 1" xfId="86" builtinId="29"/>
+    <cellStyle name="表头2" xfId="87"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="88"/>
+    <cellStyle name="常规 3" xfId="89"/>
+    <cellStyle name="标题 3" xfId="90" builtinId="18"/>
+    <cellStyle name="适中" xfId="91" builtinId="28"/>
+    <cellStyle name="输出" xfId="92" builtinId="21"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="93" builtinId="46"/>
+    <cellStyle name="常规 7" xfId="94"/>
+    <cellStyle name="标题2" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="96" builtinId="30"/>
+    <cellStyle name="汇总" xfId="97" builtinId="25"/>
+    <cellStyle name="差" xfId="98" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="99" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="100"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="101"/>
+    <cellStyle name="标题 1" xfId="102" builtinId="16"/>
+    <cellStyle name="常规 2 2 2" xfId="103"/>
+    <cellStyle name="解释性文本" xfId="104" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="105" builtinId="34"/>
+    <cellStyle name="货币[0]" xfId="106" builtinId="7"/>
+    <cellStyle name="强调文字颜色 6 3 2" xfId="107"/>
+    <cellStyle name="常规 2 2" xfId="108"/>
+    <cellStyle name="常规 3 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="111"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9"/>
+    <cellStyle name="标题" xfId="113" builtinId="15"/>
+    <cellStyle name="常规 2 2 3" xfId="114"/>
+    <cellStyle name="警告文本" xfId="115" builtinId="11"/>
+    <cellStyle name="注释" xfId="116" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="117" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="118" builtinId="47"/>
+    <cellStyle name="强调文字颜色 5" xfId="119" builtinId="45"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="120"/>
+    <cellStyle name="常规 2 4" xfId="121"/>
+    <cellStyle name="强调文字颜色 6" xfId="122" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="123" builtinId="51"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="124"/>
+    <cellStyle name="普通数值" xfId="125"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8"/>
+    <cellStyle name="常规 8 2" xfId="127"/>
+    <cellStyle name="千位分隔[0]" xfId="128" builtinId="6"/>
+    <cellStyle name="常规 2 3" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="130"/>
     <cellStyle name="链接单元格" xfId="131" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3451,8 +3388,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3461,8 +3398,9 @@
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="72.6160714285714" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="7" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="24.7053571428571" customWidth="1"/>
+    <col min="6" max="6" width="26.4821428571429" customWidth="1"/>
+    <col min="7" max="7" width="25.3035714285714" customWidth="1"/>
     <col min="8" max="9" width="27.125" customWidth="1"/>
     <col min="10" max="10" width="21.875" customWidth="1"/>
     <col min="11" max="11" width="27.125" customWidth="1"/>
@@ -3728,13 +3666,13 @@
         <v>57</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H8" s="62" t="s">
         <v>51</v>
@@ -3745,10 +3683,10 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N8" s="62" t="s">
         <v>51</v>
@@ -3758,7 +3696,7 @@
         <v>54</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -3767,19 +3705,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H9" s="62" t="s">
         <v>51</v>
@@ -3790,10 +3728,10 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N9" s="62" t="s">
         <v>51</v>
@@ -3803,7 +3741,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -3812,19 +3750,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>51</v>
@@ -3835,10 +3773,10 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>51</v>
@@ -3848,7 +3786,7 @@
         <v>54</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
@@ -3857,22 +3795,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I11" s="62" t="b">
         <v>0</v>
@@ -3880,13 +3818,13 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62" t="s">
@@ -3899,22 +3837,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I12" s="62" t="b">
         <v>0</v>
@@ -3922,13 +3860,13 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62" t="s">
@@ -3941,43 +3879,43 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I13" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="M13" s="62" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N13" s="62" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="O13" s="62" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="P13" s="62" t="s">
         <v>54</v>
@@ -3989,43 +3927,43 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I14" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="M14" s="62" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N14" s="62" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="O14" s="62" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="P14" s="62" t="s">
         <v>54</v>
@@ -4033,22 +3971,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="69" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4056,34 +3994,34 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="69" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -4097,10 +4035,10 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N16" s="62" t="s">
         <v>51</v>
@@ -4113,22 +4051,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="69" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4136,16 +4074,16 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="P17" s="62" t="s">
         <v>54</v>
@@ -4180,7 +4118,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4201,7 +4139,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4229,7 +4167,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4247,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4256,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4264,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4272,7 +4210,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4331,57 +4269,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4419,19 +4357,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4440,25 +4378,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4467,25 +4405,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4494,25 +4432,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4521,25 +4459,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4548,25 +4486,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4575,25 +4513,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4602,25 +4540,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4629,25 +4567,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4656,25 +4594,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4683,25 +4621,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4710,25 +4648,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4737,25 +4675,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4792,12 +4730,12 @@
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4812,7 +4750,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4825,69 +4763,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4931,7 +4869,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4941,7 +4879,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4950,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4968,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4977,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4995,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -5004,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -5022,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -5031,7 +4969,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5049,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5058,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5076,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5085,7 +5023,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5103,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5112,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5130,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5139,7 +5077,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5157,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5166,7 +5104,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5184,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5193,7 +5131,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5211,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5220,7 +5158,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5238,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5247,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5265,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5274,7 +5212,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5292,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5301,7 +5239,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5319,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5328,7 +5266,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5346,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5355,7 +5293,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5373,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5382,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5400,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5409,7 +5347,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5427,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5436,7 +5374,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5454,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5463,7 +5401,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5481,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5490,7 +5428,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5508,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5517,7 +5455,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5535,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5544,7 +5482,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5562,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5571,7 +5509,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5589,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5598,7 +5536,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5616,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5625,7 +5563,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5643,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5652,7 +5590,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5676,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5685,7 +5623,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5709,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5718,7 +5656,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5742,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5751,7 +5689,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5775,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5811,12 +5749,12 @@
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5838,57 +5776,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5926,21 +5864,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5949,13 +5887,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5967,7 +5905,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5976,13 +5914,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5994,7 +5932,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -6003,13 +5941,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -6021,7 +5959,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -6030,13 +5968,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6048,7 +5986,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6057,13 +5995,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6075,7 +6013,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6084,13 +6022,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6102,7 +6040,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6111,13 +6049,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6129,7 +6067,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6138,13 +6076,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6156,7 +6094,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6165,13 +6103,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6183,7 +6121,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6192,13 +6130,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6210,7 +6148,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6219,13 +6157,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6234,10 +6172,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6246,13 +6184,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6261,10 +6199,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6273,13 +6211,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6288,10 +6226,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6300,13 +6238,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6315,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6327,13 +6265,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6342,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6354,13 +6292,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6369,10 +6307,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6381,13 +6319,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6396,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6408,13 +6346,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6423,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6435,13 +6373,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6450,10 +6388,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6462,13 +6400,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6477,10 +6415,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6519,24 +6457,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6559,59 +6497,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6640,376 +6578,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C12" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>259</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E13" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="H13" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7053,7 +6991,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7062,7 +7000,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7085,54 +7023,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7170,420 +7108,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>327</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -7616,7 +7554,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7628,18 +7566,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7650,7 +7588,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7661,31 +7599,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -7703,7 +7641,7 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -7720,16 +7658,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7744,53 +7682,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7813,25 +7751,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7840,19 +7778,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7861,19 +7799,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="369">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -168,7 +168,7 @@
     <t>精良装备打造您的最强黑道军团，单笔充值指定金额即可领取橙色装备宝箱。</t>
   </si>
   <si>
-    <t>2022-05-04 15:50:00</t>
+    <t>2022-05-04 17:00:00</t>
   </si>
   <si>
     <t>2022-08-24 24:00:00</t>
@@ -198,6 +198,9 @@
     <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取橙色色宝物宝箱。</t>
   </si>
   <si>
+    <t>2022-05-04 17:00:01</t>
+  </si>
+  <si>
     <t>性感佳人</t>
   </si>
   <si>
@@ -213,6 +216,9 @@
     <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取橙色情人宝箱。</t>
   </si>
   <si>
+    <t>2022-05-04 17:00:02</t>
+  </si>
+  <si>
     <t>全副武装</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t>精锐头目助您征战黑帮世界，单笔充值指定金额即可领取橙色头目宝箱。</t>
   </si>
   <si>
+    <t>2022-05-04 17:00:03</t>
+  </si>
+  <si>
     <t>黑道重宝</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>为了防止世界被破坏</t>
   </si>
   <si>
+    <t>2022-05-04 17:00:04</t>
+  </si>
+  <si>
     <t>超值单冲</t>
   </si>
   <si>
@@ -249,12 +261,18 @@
     <t>为了守护世界的和平</t>
   </si>
   <si>
+    <t>2022-05-04 17:00:05</t>
+  </si>
+  <si>
     <t>充钱4</t>
   </si>
   <si>
     <t>贯彻爱与真实的邪恶</t>
   </si>
   <si>
+    <t>2022-05-04 17:00:06</t>
+  </si>
+  <si>
     <t>充值抽奖</t>
   </si>
   <si>
@@ -271,6 +289,9 @@
   </si>
   <si>
     <t>可爱又迷人的反派角色</t>
+  </si>
+  <si>
+    <t>2022-05-04 17:00:07</t>
   </si>
   <si>
     <t>0//102//302</t>
@@ -1580,11 +1601,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1652,8 +1673,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1667,31 +1689,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1704,8 +1702,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1715,6 +1759,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,46 +1808,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFCC00CC"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1791,13 +1862,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1806,14 +1875,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249946592608417"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1825,49 +1912,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <color theme="9" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1877,42 +1926,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="9" tint="-0.249946592608417"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249946592608417"/>
+      <color rgb="FF7030A0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1968,31 +1989,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,7 +2037,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,13 +2091,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249946592608417"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,133 +2181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2327,21 +2348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2359,11 +2365,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2385,9 +2389,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2410,136 +2431,287 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="7">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0">
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="7">
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="7">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyFill="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2550,171 +2722,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2727,397 +2785,360 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="89" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="89" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="122" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="109" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="89" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="89" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="89" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="89" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="88"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="88" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="88" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 2 4 2" xfId="1"/>
-    <cellStyle name="美术需求" xfId="2"/>
-    <cellStyle name="着色 2 3" xfId="3"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="4"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="5"/>
-    <cellStyle name="提示信息 2" xfId="6"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="7"/>
-    <cellStyle name="提示信息" xfId="8"/>
-    <cellStyle name="删除内容" xfId="9"/>
-    <cellStyle name="强调文字颜色 6 2 2" xfId="10"/>
-    <cellStyle name="列" xfId="11"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="12"/>
-    <cellStyle name="备注" xfId="13"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="15"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="16"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="17"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="18"/>
-    <cellStyle name="强调文字颜色 1 3 2" xfId="19"/>
-    <cellStyle name="举例说明" xfId="20"/>
-    <cellStyle name="过渡数据" xfId="21"/>
-    <cellStyle name="百分比 2" xfId="22"/>
-    <cellStyle name="程序实现 2" xfId="23"/>
-    <cellStyle name="常规 6 4" xfId="24"/>
-    <cellStyle name="常规 8" xfId="25"/>
-    <cellStyle name="常规 6 2" xfId="26"/>
-    <cellStyle name="好" xfId="27" builtinId="26"/>
-    <cellStyle name="货币" xfId="28" builtinId="4"/>
-    <cellStyle name="常规 6" xfId="29"/>
-    <cellStyle name="表头" xfId="30"/>
-    <cellStyle name="常规 4 2 3" xfId="31"/>
-    <cellStyle name="标题 4" xfId="32" builtinId="19"/>
-    <cellStyle name="常规 4" xfId="33"/>
-    <cellStyle name="适中 2" xfId="34"/>
-    <cellStyle name="常规 3 2" xfId="35"/>
-    <cellStyle name="标题 2" xfId="36" builtinId="17"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="37"/>
-    <cellStyle name="常规 2" xfId="38"/>
-    <cellStyle name="特别注意" xfId="39"/>
-    <cellStyle name="百分比 2 2" xfId="40"/>
-    <cellStyle name="输入框" xfId="41"/>
-    <cellStyle name="常规 4 2" xfId="42"/>
-    <cellStyle name="4分类标题" xfId="43"/>
-    <cellStyle name="常规 5" xfId="44"/>
-    <cellStyle name="3备注" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="48"/>
-    <cellStyle name="常规 7 3" xfId="49"/>
-    <cellStyle name="1表头" xfId="50"/>
-    <cellStyle name="20% - 着色 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="52"/>
-    <cellStyle name="20% - 着色 2 3" xfId="53"/>
-    <cellStyle name="着色 2 2" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="56" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="57" builtinId="43"/>
-    <cellStyle name="强调文字颜色 4" xfId="58" builtinId="41"/>
-    <cellStyle name="常规 6 3" xfId="59"/>
-    <cellStyle name="常规 9" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="61" builtinId="40"/>
-    <cellStyle name="输入" xfId="62" builtinId="20"/>
-    <cellStyle name="强调文字颜色 3" xfId="63" builtinId="37"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="64" builtinId="39"/>
-    <cellStyle name="程序实现" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="66" builtinId="38"/>
-    <cellStyle name="常规 7 4" xfId="67"/>
-    <cellStyle name="常规 8 3" xfId="68"/>
-    <cellStyle name="百分比" xfId="69" builtinId="5"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="70"/>
-    <cellStyle name="千位分隔" xfId="71" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="72" builtinId="36"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="73"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="74" builtinId="48"/>
-    <cellStyle name="判断逻辑" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="76" builtinId="35"/>
-    <cellStyle name="强调文字颜色 2" xfId="77" builtinId="33"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="78"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="79" builtinId="32"/>
-    <cellStyle name="2填表文本" xfId="80"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="81" builtinId="44"/>
-    <cellStyle name="常规 7 2" xfId="82"/>
-    <cellStyle name="计算" xfId="83" builtinId="22"/>
-    <cellStyle name="美术需求 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="85" builtinId="31"/>
-    <cellStyle name="强调文字颜色 1" xfId="86" builtinId="29"/>
-    <cellStyle name="表头2" xfId="87"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="88"/>
-    <cellStyle name="常规 3" xfId="89"/>
-    <cellStyle name="标题 3" xfId="90" builtinId="18"/>
-    <cellStyle name="适中" xfId="91" builtinId="28"/>
-    <cellStyle name="输出" xfId="92" builtinId="21"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="93" builtinId="46"/>
-    <cellStyle name="常规 7" xfId="94"/>
-    <cellStyle name="标题2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="96" builtinId="30"/>
-    <cellStyle name="汇总" xfId="97" builtinId="25"/>
-    <cellStyle name="差" xfId="98" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="99" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="100"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="101"/>
-    <cellStyle name="标题 1" xfId="102" builtinId="16"/>
-    <cellStyle name="常规 2 2 2" xfId="103"/>
-    <cellStyle name="解释性文本" xfId="104" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="105" builtinId="34"/>
-    <cellStyle name="货币[0]" xfId="106" builtinId="7"/>
-    <cellStyle name="强调文字颜色 6 3 2" xfId="107"/>
-    <cellStyle name="常规 2 2" xfId="108"/>
-    <cellStyle name="常规 3 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="111"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9"/>
-    <cellStyle name="标题" xfId="113" builtinId="15"/>
-    <cellStyle name="常规 2 2 3" xfId="114"/>
-    <cellStyle name="警告文本" xfId="115" builtinId="11"/>
-    <cellStyle name="注释" xfId="116" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="117" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="118" builtinId="47"/>
-    <cellStyle name="强调文字颜色 5" xfId="119" builtinId="45"/>
-    <cellStyle name="强调文字颜色 1 2 2" xfId="120"/>
-    <cellStyle name="常规 2 4" xfId="121"/>
-    <cellStyle name="强调文字颜色 6" xfId="122" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="123" builtinId="51"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="124"/>
-    <cellStyle name="普通数值" xfId="125"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8"/>
-    <cellStyle name="常规 8 2" xfId="127"/>
-    <cellStyle name="千位分隔[0]" xfId="128" builtinId="6"/>
-    <cellStyle name="常规 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="130"/>
-    <cellStyle name="链接单元格" xfId="131" builtinId="24"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="4"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="常规 7 3" xfId="10"/>
+    <cellStyle name="千位分隔" xfId="11" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="百分比" xfId="14" builtinId="5"/>
+    <cellStyle name="着色 2 3" xfId="15"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="18" builtinId="10"/>
+    <cellStyle name="列" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="22" builtinId="11"/>
+    <cellStyle name="标题" xfId="23" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="30"/>
+    <cellStyle name="标题2" xfId="31"/>
+    <cellStyle name="输出" xfId="32" builtinId="21"/>
+    <cellStyle name="计算" xfId="33" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
+    <cellStyle name="常规 8 3" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="汇总" xfId="39" builtinId="25"/>
+    <cellStyle name="好" xfId="40" builtinId="26"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="常规 8 2" xfId="42"/>
+    <cellStyle name="3备注" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="48"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
+    <cellStyle name="常规 7 4" xfId="55"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="56"/>
+    <cellStyle name="美术需求" xfId="57"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="58" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="59" builtinId="45"/>
+    <cellStyle name="提示信息 2" xfId="60"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="61" builtinId="47"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="62"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="63" builtinId="48"/>
+    <cellStyle name="备注" xfId="64"/>
+    <cellStyle name="强调文字颜色 6" xfId="65" builtinId="49"/>
+    <cellStyle name="判断逻辑" xfId="66"/>
+    <cellStyle name="适中 2" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="68" builtinId="51"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="69"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="70" builtinId="52"/>
+    <cellStyle name="强调文字颜色 2 4 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="72"/>
+    <cellStyle name="提示信息" xfId="73"/>
+    <cellStyle name="删除内容" xfId="74"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="75"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="76"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="77"/>
+    <cellStyle name="强调文字颜色 1 3 2" xfId="78"/>
+    <cellStyle name="举例说明" xfId="79"/>
+    <cellStyle name="过渡数据" xfId="80"/>
+    <cellStyle name="百分比 2" xfId="81"/>
+    <cellStyle name="程序实现 2" xfId="82"/>
+    <cellStyle name="常规 6 4" xfId="83"/>
+    <cellStyle name="常规 8" xfId="84"/>
+    <cellStyle name="常规 6 2" xfId="85"/>
+    <cellStyle name="表头" xfId="86"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="87"/>
+    <cellStyle name="常规 4 2 3" xfId="88"/>
+    <cellStyle name="常规 4" xfId="89"/>
+    <cellStyle name="常规 3 2" xfId="90"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="91"/>
+    <cellStyle name="常规 2" xfId="92"/>
+    <cellStyle name="特别注意" xfId="93"/>
+    <cellStyle name="百分比 2 2" xfId="94"/>
+    <cellStyle name="输入框" xfId="95"/>
+    <cellStyle name="常规 4 2" xfId="96"/>
+    <cellStyle name="4分类标题" xfId="97"/>
+    <cellStyle name="常规 5" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="101"/>
+    <cellStyle name="1表头" xfId="102"/>
+    <cellStyle name="20% - 着色 2 2" xfId="103"/>
+    <cellStyle name="20% - 着色 2 3" xfId="104"/>
+    <cellStyle name="着色 2 2" xfId="105"/>
+    <cellStyle name="常规 6 3" xfId="106"/>
+    <cellStyle name="常规 9" xfId="107"/>
+    <cellStyle name="程序实现" xfId="108"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="110"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="111"/>
+    <cellStyle name="2填表文本" xfId="112"/>
+    <cellStyle name="常规 7 2" xfId="113"/>
+    <cellStyle name="美术需求 2" xfId="114"/>
+    <cellStyle name="表头2" xfId="115"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="116"/>
+    <cellStyle name="常规 3" xfId="117"/>
+    <cellStyle name="常规 7" xfId="118"/>
+    <cellStyle name="常规 2 2 2" xfId="119"/>
+    <cellStyle name="强调文字颜色 6 3 2" xfId="120"/>
+    <cellStyle name="常规 2 2" xfId="121"/>
+    <cellStyle name="常规 3 3" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="124"/>
+    <cellStyle name="常规 2 2 3" xfId="125"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="126"/>
+    <cellStyle name="常规 2 4" xfId="127"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="128"/>
+    <cellStyle name="普通数值" xfId="129"/>
+    <cellStyle name="常规 2 3" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="131"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -3389,33 +3410,33 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.4732142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="22.4722222222222" customWidth="1"/>
+    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="72.6160714285714" customWidth="1"/>
-    <col min="5" max="5" width="24.7053571428571" customWidth="1"/>
-    <col min="6" max="6" width="26.4821428571429" customWidth="1"/>
-    <col min="7" max="7" width="25.3035714285714" customWidth="1"/>
-    <col min="8" max="9" width="27.125" customWidth="1"/>
-    <col min="10" max="10" width="21.875" customWidth="1"/>
-    <col min="11" max="11" width="27.125" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="72.6203703703704" customWidth="1"/>
+    <col min="5" max="5" width="24.7037037037037" customWidth="1"/>
+    <col min="6" max="6" width="26.4814814814815" customWidth="1"/>
+    <col min="7" max="7" width="25.3055555555556" customWidth="1"/>
+    <col min="8" max="9" width="27.1296296296296" customWidth="1"/>
+    <col min="10" max="10" width="21.8796296296296" customWidth="1"/>
+    <col min="11" max="11" width="27.1296296296296" customWidth="1"/>
+    <col min="13" max="13" width="15.6296296296296" customWidth="1"/>
     <col min="14" max="14" width="22.25" customWidth="1"/>
-    <col min="15" max="15" width="30.8035714285714" customWidth="1"/>
-    <col min="16" max="16" width="53.5625" customWidth="1"/>
-    <col min="17" max="17" width="72.9196428571429" customWidth="1"/>
+    <col min="15" max="15" width="30.8055555555556" customWidth="1"/>
+    <col min="16" max="16" width="53.5648148148148" customWidth="1"/>
+    <col min="17" max="17" width="72.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="3:10">
       <c r="C1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="66"/>
       <c r="J1" s="65" t="s">
         <v>1</v>
       </c>
@@ -3423,58 +3444,58 @@
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="60"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="72" t="s">
@@ -3482,135 +3503,135 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:16">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:16">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:16">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
@@ -3620,13 +3641,13 @@
       <c r="D7" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="62" t="s">
@@ -3655,23 +3676,23 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="67" t="s">
+      <c r="E8" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="62" t="s">
@@ -3683,10 +3704,10 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" s="62" t="s">
         <v>51</v>
@@ -3696,27 +3717,27 @@
         <v>54</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="62" t="s">
@@ -3728,10 +3749,10 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N9" s="62" t="s">
         <v>51</v>
@@ -3741,27 +3762,27 @@
         <v>54</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="62" t="s">
@@ -3773,10 +3794,10 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>51</v>
@@ -3786,31 +3807,31 @@
         <v>54</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="62">
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="62" t="b">
         <v>0</v>
@@ -3818,13 +3839,13 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62" t="s">
@@ -3832,27 +3853,27 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:16">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="62">
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I12" s="62" t="b">
         <v>0</v>
@@ -3860,13 +3881,13 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62" t="s">
@@ -3874,119 +3895,119 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:16">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="62">
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I13" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M13" s="62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N13" s="62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O13" s="62" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P13" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:16">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="62">
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="68" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I14" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="62" t="s">
-        <v>77</v>
-      </c>
       <c r="O14" s="62" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P14" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
-      <c r="A15" s="69" t="s">
-        <v>85</v>
+      <c r="A15" s="70" t="s">
+        <v>92</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+        <v>94</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="64" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -3994,38 +4015,38 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
-      <c r="A16" s="69" t="s">
-        <v>85</v>
+      <c r="A16" s="70" t="s">
+        <v>92</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+        <v>97</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="62" t="s">
         <v>51</v>
       </c>
@@ -4035,10 +4056,10 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N16" s="62" t="s">
         <v>51</v>
@@ -4050,23 +4071,23 @@
       <c r="Q16" s="62"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="69" t="s">
-        <v>85</v>
+      <c r="A17" s="70" t="s">
+        <v>92</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="64" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4074,16 +4095,16 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P17" s="62" t="s">
         <v>54</v>
@@ -4111,14 +4132,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="25.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4127,47 +4148,47 @@
       <c r="C2" s="60"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>97</v>
+      <c r="C6" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4185,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4194,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4202,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4210,7 +4231,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4232,468 +4253,468 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="11.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="32.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.6296296296296" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="15.3796296296296" customWidth="1"/>
+    <col min="9" max="9" width="24.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="56"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="56"/>
-      <c r="I2" s="53"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>105</v>
       </c>
+      <c r="C3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>113</v>
+      <c r="C4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>117</v>
+      <c r="C6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>71</v>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>71</v>
+      <c r="C8" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="E13" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="E14" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="13">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E15" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="E16" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="16">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16">
-        <v>11</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>74</v>
+      <c r="D17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16">
+      <c r="A18" s="16"/>
+      <c r="B18" s="18">
         <v>12</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>74</v>
+      <c r="C18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4715,1005 +4736,1005 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="11.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.1296296296296" customWidth="1"/>
     <col min="4" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.3796296296296" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="15.3796296296296" customWidth="1"/>
+    <col min="9" max="9" width="18.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="19.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="24.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.25" customHeight="1" spans="1:11">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+        <v>144</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+        <v>145</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="53"/>
+        <v>146</v>
+      </c>
+      <c r="G2" s="51"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="15">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="15">
+        <v>500</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="15">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>500</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
         <v>100</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <v>100</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>100</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>100</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>100</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>100</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:11">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>100</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15">
+        <v>11</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>100</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:11">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15">
+        <v>12</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>100</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:11">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15">
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>500</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:11">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>100</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:11">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15">
+        <v>15</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>50</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15">
+        <v>16</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>500</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15">
+        <v>17</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15">
+        <v>100</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15">
+        <v>18</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15">
+        <v>50</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:11">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15">
+        <v>19</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>500</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:11">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15">
+        <v>20</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15">
+        <v>100</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="13">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C27" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>50</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:11">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15">
+        <v>22</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
         <v>500</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F28" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="b">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13">
+      <c r="K28" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15">
+        <v>23</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>100</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:11">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>50</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:11">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>100</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:11">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15">
+        <v>26</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15">
+        <v>50</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:11">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18">
+        <v>27</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>100</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>50</v>
+      </c>
+      <c r="H33" s="18">
+        <v>10</v>
+      </c>
+      <c r="I33" s="18">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="13">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="13">
-        <v>500</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="J33" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:11">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18">
+        <v>28</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="18">
+        <v>10</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
         <v>100</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13">
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1</v>
+      </c>
+      <c r="J34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:11">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18">
+        <v>29</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="18">
+        <v>666</v>
+      </c>
+      <c r="E35" s="18">
+        <v>50</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2</v>
+      </c>
+      <c r="G35" s="18">
+        <v>55</v>
+      </c>
+      <c r="H35" s="18">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>100</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>100</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>100</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13">
-        <v>100</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>100</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>100</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13">
-        <v>100</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>100</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:11">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13">
-        <v>12</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13">
-        <v>100</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13">
-        <v>13</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
-        <v>500</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13">
-        <v>14</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
-        <v>100</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:11">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13">
-        <v>15</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="I35" s="18">
+        <v>2</v>
+      </c>
+      <c r="J35" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:11">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18">
+        <v>30</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="18">
+        <v>888</v>
+      </c>
+      <c r="E36" s="18">
         <v>50</v>
       </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13">
-        <v>16</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <v>500</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13">
-        <v>17</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13">
-        <v>100</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:11">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13">
-        <v>18</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13">
-        <v>50</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:11">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13">
-        <v>19</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
-        <v>500</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:11">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13">
-        <v>20</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13">
-        <v>100</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13">
-        <v>21</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
-        <v>50</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:11">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13">
-        <v>22</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13">
-        <v>500</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:11">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13">
-        <v>23</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13">
-        <v>100</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:11">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13">
-        <v>24</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13">
-        <v>50</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:11">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13">
-        <v>25</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
-        <v>100</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:11">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13">
-        <v>26</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="13">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13">
-        <v>50</v>
-      </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:11">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16">
-        <v>27</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="16">
-        <v>1</v>
-      </c>
-      <c r="E33" s="16">
-        <v>100</v>
-      </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <v>50</v>
-      </c>
-      <c r="H33" s="16">
-        <v>10</v>
-      </c>
-      <c r="I33" s="16">
+      <c r="F36" s="18">
         <v>2</v>
       </c>
-      <c r="J33" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16">
-        <v>28</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="16">
-        <v>10</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1</v>
-      </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <v>100</v>
-      </c>
-      <c r="H34" s="16">
-        <v>1</v>
-      </c>
-      <c r="I34" s="16">
-        <v>1</v>
-      </c>
-      <c r="J34" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:11">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16">
-        <v>29</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="16">
-        <v>666</v>
-      </c>
-      <c r="E35" s="16">
-        <v>50</v>
-      </c>
-      <c r="F35" s="16">
+      <c r="G36" s="18">
+        <v>55</v>
+      </c>
+      <c r="H36" s="18">
+        <v>4</v>
+      </c>
+      <c r="I36" s="18">
         <v>2</v>
       </c>
-      <c r="G35" s="16">
-        <v>55</v>
-      </c>
-      <c r="H35" s="16">
-        <v>4</v>
-      </c>
-      <c r="I35" s="16">
-        <v>2</v>
-      </c>
-      <c r="J35" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:11">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16">
-        <v>30</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="16">
-        <v>888</v>
-      </c>
-      <c r="E36" s="16">
-        <v>50</v>
-      </c>
-      <c r="F36" s="16">
-        <v>2</v>
-      </c>
-      <c r="G36" s="16">
-        <v>55</v>
-      </c>
-      <c r="H36" s="16">
-        <v>4</v>
-      </c>
-      <c r="I36" s="16">
-        <v>2</v>
-      </c>
-      <c r="J36" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>76</v>
+      <c r="J36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5735,690 +5756,690 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="59.5178571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="59.5185185185185" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="14.6296296296296" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="24.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="55"/>
       <c r="G2" s="56"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>99</v>
+      <c r="C3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>185</v>
+      <c r="C4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>186</v>
+      <c r="C6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>189</v>
+      <c r="I7" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="C8" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>192</v>
+      <c r="I8" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="15">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="15">
+        <v>80</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="15">
+        <v>30</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15">
+        <v>11</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="E17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="13">
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15">
+        <v>12</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15">
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="15">
         <v>30</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="E20" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15">
+        <v>15</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="15">
         <v>80</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="E21" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="16"/>
+      <c r="B22" s="18">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18">
+        <v>17</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="E23" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18">
+        <v>18</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="D24" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="E24" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="13">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="13">
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="18">
+        <v>19</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="15">
         <v>30</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13">
-        <v>12</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13">
-        <v>13</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13">
-        <v>14</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="13">
-        <v>30</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13">
-        <v>15</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="E25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="16"/>
+      <c r="B26" s="18">
+        <v>20</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="15">
         <v>80</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16">
-        <v>16</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16">
-        <v>18</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16">
-        <v>19</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="13">
-        <v>30</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16">
-        <v>20</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="13">
-        <v>80</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>211</v>
+      <c r="E26" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6444,8 +6465,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.62962962962963" style="32" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="32" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="32" customWidth="1"/>
     <col min="5" max="6" width="14.25" style="32" customWidth="1"/>
@@ -6457,24 +6478,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>216</v>
+        <v>221</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6482,10 +6503,10 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="23"/>
       <c r="I2" s="25"/>
     </row>
@@ -6497,59 +6518,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6578,376 +6599,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="43" t="s">
-        <v>236</v>
+      <c r="A7" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>238</v>
-      </c>
       <c r="D8" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G8" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="46"/>
+      <c r="B9" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="I8" s="48" t="s">
+      <c r="E9" s="31" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="44"/>
-      <c r="B9" s="31" t="s">
+      <c r="F9" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>241</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I9" s="48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="46"/>
+      <c r="B10" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="44"/>
-      <c r="B10" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>243</v>
-      </c>
       <c r="I10" s="48" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6977,21 +6998,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="23.8796296296296" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.62962962962963" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="32.5892857142857" style="32" customWidth="1"/>
+    <col min="4" max="4" width="32.5925925925926" style="32" customWidth="1"/>
     <col min="5" max="5" width="19" style="32" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="38.3839285714286" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.1296296296296" style="32" customWidth="1"/>
+    <col min="7" max="7" width="38.3796296296296" style="32" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="92.875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="92.8796296296296" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7000,7 +7021,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7023,54 +7044,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7108,420 +7129,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
-      <c r="B8" s="39" t="s">
-        <v>301</v>
+      <c r="B8" s="40" t="s">
+        <v>308</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
-      <c r="B9" s="39" t="s">
-        <v>303</v>
+      <c r="B9" s="40" t="s">
+        <v>310</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
-      <c r="B10" s="39" t="s">
-        <v>305</v>
+      <c r="B10" s="40" t="s">
+        <v>312</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>299</v>
-      </c>
       <c r="I10" s="31" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
-      <c r="B11" s="39" t="s">
-        <v>308</v>
+      <c r="B11" s="40" t="s">
+        <v>315</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G11" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>299</v>
-      </c>
       <c r="I11" s="31" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
-      <c r="B12" s="39" t="s">
-        <v>310</v>
+      <c r="B12" s="40" t="s">
+        <v>317</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
-      <c r="B13" s="39" t="s">
-        <v>312</v>
+      <c r="B13" s="40" t="s">
+        <v>319</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I13" s="31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:9">
+      <c r="B14" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:9">
-      <c r="B14" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="H15" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="31" t="s">
-        <v>299</v>
-      </c>
       <c r="I15" s="31" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
-      <c r="B16" s="39" t="s">
-        <v>318</v>
+      <c r="B16" s="40" t="s">
+        <v>325</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G16" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>299</v>
-      </c>
       <c r="I16" s="31" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="39" t="s">
-        <v>320</v>
+      <c r="B17" s="40" t="s">
+        <v>327</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="39" t="s">
-        <v>322</v>
+      <c r="B18" s="40" t="s">
+        <v>329</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="39" t="s">
-        <v>324</v>
+      <c r="B19" s="40" t="s">
+        <v>331</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="39" t="s">
-        <v>326</v>
+      <c r="B20" s="40" t="s">
+        <v>333</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>299</v>
-      </c>
       <c r="I20" s="31" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="39" t="s">
-        <v>328</v>
+      <c r="B21" s="40" t="s">
+        <v>335</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G21" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H21" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H21" s="31" t="s">
-        <v>299</v>
-      </c>
       <c r="I21" s="31" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -7554,7 +7575,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7566,18 +7587,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7588,7 +7609,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7599,31 +7620,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7649,169 +7670,169 @@
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.8660714285714" customWidth="1"/>
-    <col min="4" max="4" width="76.0357142857143" customWidth="1"/>
-    <col min="5" max="5" width="84.9642857142857" customWidth="1"/>
+    <col min="3" max="3" width="35.8703703703704" customWidth="1"/>
+    <col min="4" max="4" width="76.037037037037" customWidth="1"/>
+    <col min="5" max="5" width="84.962962962963" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>344</v>
+      <c r="C3" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>349</v>
+      <c r="C4" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A6" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>354</v>
+      <c r="C6" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="15">
         <v>5</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>358</v>
+      <c r="G7" s="15" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="C8" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="18">
         <v>5</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>361</v>
+      <c r="G8" s="18" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="371">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -291,7 +291,13 @@
     <t>可爱又迷人的反派角色</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:07</t>
+    <t>2022-08-04 17:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-24 24:00:00</t>
+  </si>
+  <si>
+    <t>2023-08-25 24:00:00</t>
   </si>
   <si>
     <t>0//102//302</t>
@@ -1575,7 +1581,7 @@
     <t>$no_empty$ref(RewardData)</t>
   </si>
   <si>
-    <t>2021-11-01//2021-11-08</t>
+    <t>2022-05-05//2022-05-12</t>
   </si>
   <si>
     <t>58砖石//225砖石//368砖石//900砖石//2024砖石//3848砖石//4548砖石</t>
@@ -1587,7 +1593,7 @@
     <t>天天充值豪华01</t>
   </si>
   <si>
-    <t>2021-11-09//2021-11-16</t>
+    <t>2022-05-13//2022-05-20</t>
   </si>
   <si>
     <t>天天充值08//天天充值09//天天充值10//天天充值11//天天充值12//天天充值13//天天充值14</t>
@@ -1601,11 +1607,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1673,11 +1679,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1689,7 +1695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1697,29 +1703,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1734,7 +1717,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1748,116 +1754,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6600FF"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1874,16 +1772,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1893,21 +1810,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249946592608417"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1926,6 +1836,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6600FF"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -1933,7 +1939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1989,7 +1995,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,13 +2151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,121 +2175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2151,43 +2187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599963377788629"/>
+        <fgColor theme="5" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,15 +2345,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2363,11 +2360,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2389,26 +2421,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2427,718 +2442,709 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyFill="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="7">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="35" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="89" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="35" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="89" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="122" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="89" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="89" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="89" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="89" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="35" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="88"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="88" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="88" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="64" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="64" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="4"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="常规 7 3" xfId="10"/>
-    <cellStyle name="千位分隔" xfId="11" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="百分比" xfId="14" builtinId="5"/>
-    <cellStyle name="着色 2 3" xfId="15"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="注释" xfId="18" builtinId="10"/>
-    <cellStyle name="列" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="22" builtinId="11"/>
-    <cellStyle name="标题" xfId="23" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="30"/>
-    <cellStyle name="标题2" xfId="31"/>
-    <cellStyle name="输出" xfId="32" builtinId="21"/>
-    <cellStyle name="计算" xfId="33" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="常规 8 3" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
-    <cellStyle name="汇总" xfId="39" builtinId="25"/>
-    <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="适中" xfId="41" builtinId="28"/>
-    <cellStyle name="常规 8 2" xfId="42"/>
-    <cellStyle name="3备注" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="常规 7 4" xfId="55"/>
-    <cellStyle name="强调文字颜色 6 2 2" xfId="56"/>
-    <cellStyle name="美术需求" xfId="57"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="58" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="59" builtinId="45"/>
-    <cellStyle name="提示信息 2" xfId="60"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="61" builtinId="47"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="63" builtinId="48"/>
-    <cellStyle name="备注" xfId="64"/>
-    <cellStyle name="强调文字颜色 6" xfId="65" builtinId="49"/>
-    <cellStyle name="判断逻辑" xfId="66"/>
-    <cellStyle name="适中 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="68" builtinId="51"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="70" builtinId="52"/>
-    <cellStyle name="强调文字颜色 2 4 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="72"/>
-    <cellStyle name="提示信息" xfId="73"/>
-    <cellStyle name="删除内容" xfId="74"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="75"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="76"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="77"/>
-    <cellStyle name="强调文字颜色 1 3 2" xfId="78"/>
-    <cellStyle name="举例说明" xfId="79"/>
-    <cellStyle name="过渡数据" xfId="80"/>
-    <cellStyle name="百分比 2" xfId="81"/>
-    <cellStyle name="程序实现 2" xfId="82"/>
-    <cellStyle name="常规 6 4" xfId="83"/>
-    <cellStyle name="常规 8" xfId="84"/>
-    <cellStyle name="常规 6 2" xfId="85"/>
-    <cellStyle name="表头" xfId="86"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="87"/>
-    <cellStyle name="常规 4 2 3" xfId="88"/>
-    <cellStyle name="常规 4" xfId="89"/>
-    <cellStyle name="常规 3 2" xfId="90"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="特别注意" xfId="93"/>
-    <cellStyle name="百分比 2 2" xfId="94"/>
-    <cellStyle name="输入框" xfId="95"/>
-    <cellStyle name="常规 4 2" xfId="96"/>
-    <cellStyle name="4分类标题" xfId="97"/>
-    <cellStyle name="常规 5" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="101"/>
-    <cellStyle name="1表头" xfId="102"/>
-    <cellStyle name="20% - 着色 2 2" xfId="103"/>
-    <cellStyle name="20% - 着色 2 3" xfId="104"/>
-    <cellStyle name="着色 2 2" xfId="105"/>
-    <cellStyle name="常规 6 3" xfId="106"/>
-    <cellStyle name="常规 9" xfId="107"/>
-    <cellStyle name="程序实现" xfId="108"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="110"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="111"/>
-    <cellStyle name="2填表文本" xfId="112"/>
-    <cellStyle name="常规 7 2" xfId="113"/>
-    <cellStyle name="美术需求 2" xfId="114"/>
-    <cellStyle name="表头2" xfId="115"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="116"/>
-    <cellStyle name="常规 3" xfId="117"/>
-    <cellStyle name="常规 7" xfId="118"/>
-    <cellStyle name="常规 2 2 2" xfId="119"/>
-    <cellStyle name="强调文字颜色 6 3 2" xfId="120"/>
-    <cellStyle name="常规 2 2" xfId="121"/>
-    <cellStyle name="常规 3 3" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="124"/>
-    <cellStyle name="常规 2 2 3" xfId="125"/>
-    <cellStyle name="强调文字颜色 1 2 2" xfId="126"/>
-    <cellStyle name="常规 2 4" xfId="127"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="128"/>
-    <cellStyle name="普通数值" xfId="129"/>
-    <cellStyle name="常规 2 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="2"/>
+    <cellStyle name="常规 2 4" xfId="3"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="4"/>
+    <cellStyle name="常规 2 2 3" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="6"/>
+    <cellStyle name="常规 3 3" xfId="7"/>
+    <cellStyle name="常规 2 2" xfId="8"/>
+    <cellStyle name="强调文字颜色 6 3 2" xfId="9"/>
+    <cellStyle name="常规 2 2 2" xfId="10"/>
+    <cellStyle name="表头2" xfId="11"/>
+    <cellStyle name="常规 7 2" xfId="12"/>
+    <cellStyle name="2填表文本" xfId="13"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="14"/>
+    <cellStyle name="程序实现" xfId="15"/>
+    <cellStyle name="常规 9" xfId="16"/>
+    <cellStyle name="常规 6 3" xfId="17"/>
+    <cellStyle name="着色 2 2" xfId="18"/>
+    <cellStyle name="20% - 着色 2 3" xfId="19"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="21"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="22"/>
+    <cellStyle name="常规 5" xfId="23"/>
+    <cellStyle name="4分类标题" xfId="24"/>
+    <cellStyle name="常规 4 2" xfId="25"/>
+    <cellStyle name="特别注意" xfId="26"/>
+    <cellStyle name="输入框" xfId="27"/>
+    <cellStyle name="百分比 2 2" xfId="28"/>
+    <cellStyle name="标题 2" xfId="29" builtinId="17"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="30"/>
+    <cellStyle name="常规 2" xfId="31"/>
+    <cellStyle name="适中 2" xfId="32"/>
+    <cellStyle name="常规 3 2" xfId="33"/>
+    <cellStyle name="标题 4" xfId="34" builtinId="19"/>
+    <cellStyle name="常规 4" xfId="35"/>
+    <cellStyle name="常规 8" xfId="36"/>
+    <cellStyle name="常规 6 2" xfId="37"/>
+    <cellStyle name="常规 6 4" xfId="38"/>
+    <cellStyle name="程序实现 2" xfId="39"/>
+    <cellStyle name="百分比 2" xfId="40"/>
+    <cellStyle name="过渡数据" xfId="41"/>
+    <cellStyle name="举例说明" xfId="42"/>
+    <cellStyle name="强调文字颜色 1 3 2" xfId="43"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="44"/>
+    <cellStyle name="删除内容" xfId="45"/>
+    <cellStyle name="提示信息" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="47" builtinId="35"/>
+    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
+    <cellStyle name="判断逻辑" xfId="49"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="50"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="51"/>
+    <cellStyle name="备注" xfId="52"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="53"/>
+    <cellStyle name="3备注" xfId="54"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="55"/>
+    <cellStyle name="千位分隔[0]" xfId="56" builtinId="6"/>
+    <cellStyle name="常规 8 2" xfId="57"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="58"/>
+    <cellStyle name="百分比" xfId="59" builtinId="5"/>
+    <cellStyle name="常规 8 3" xfId="60"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="61"/>
+    <cellStyle name="列" xfId="62"/>
+    <cellStyle name="表头" xfId="63"/>
+    <cellStyle name="常规 4 2 3" xfId="64"/>
+    <cellStyle name="好" xfId="65" builtinId="26"/>
+    <cellStyle name="货币" xfId="66" builtinId="4"/>
+    <cellStyle name="常规 6" xfId="67"/>
+    <cellStyle name="20% - 着色 2 2" xfId="68"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="70"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="71" builtinId="52"/>
+    <cellStyle name="提示信息 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="73" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="74" builtinId="43"/>
+    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="76" builtinId="40"/>
+    <cellStyle name="输入" xfId="77" builtinId="20"/>
+    <cellStyle name="强调文字颜色 3" xfId="78" builtinId="37"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="79" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="80" builtinId="38"/>
+    <cellStyle name="常规 7 4" xfId="81"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="82"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="83"/>
+    <cellStyle name="千位分隔" xfId="84" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="85" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="86" builtinId="48"/>
+    <cellStyle name="1表头" xfId="87"/>
+    <cellStyle name="常规 7 3" xfId="88"/>
+    <cellStyle name="标题 1" xfId="89" builtinId="16"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="90"/>
+    <cellStyle name="着色 2 3" xfId="91"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="92"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="93"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="94" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="95" builtinId="44"/>
+    <cellStyle name="计算" xfId="96" builtinId="22"/>
+    <cellStyle name="美术需求 2" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="98" builtinId="31"/>
+    <cellStyle name="强调文字颜色 1" xfId="99" builtinId="29"/>
+    <cellStyle name="常规 3" xfId="100"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="101"/>
+    <cellStyle name="标题 3" xfId="102" builtinId="18"/>
+    <cellStyle name="适中" xfId="103" builtinId="28"/>
+    <cellStyle name="输出" xfId="104" builtinId="21"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="105" builtinId="46"/>
+    <cellStyle name="美术需求" xfId="106"/>
+    <cellStyle name="常规 7" xfId="107"/>
+    <cellStyle name="标题2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="109" builtinId="30"/>
+    <cellStyle name="汇总" xfId="110" builtinId="25"/>
+    <cellStyle name="差" xfId="111" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="112" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="113"/>
+    <cellStyle name="解释性文本" xfId="114" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="115" builtinId="34"/>
+    <cellStyle name="货币[0]" xfId="116" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="117"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9"/>
+    <cellStyle name="标题" xfId="119" builtinId="15"/>
+    <cellStyle name="强调文字颜色 2 4 2" xfId="120"/>
+    <cellStyle name="警告文本" xfId="121" builtinId="11"/>
+    <cellStyle name="注释" xfId="122" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="123" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="124" builtinId="47"/>
+    <cellStyle name="强调文字颜色 5" xfId="125" builtinId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="126" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="127" builtinId="51"/>
+    <cellStyle name="普通数值" xfId="128"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="129"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8"/>
+    <cellStyle name="链接单元格" xfId="131" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -3409,34 +3415,35 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.4722222222222" customWidth="1"/>
-    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="72.6203703703704" customWidth="1"/>
-    <col min="5" max="5" width="24.7037037037037" customWidth="1"/>
-    <col min="6" max="6" width="26.4814814814815" customWidth="1"/>
-    <col min="7" max="7" width="25.3055555555556" customWidth="1"/>
-    <col min="8" max="9" width="27.1296296296296" customWidth="1"/>
-    <col min="10" max="10" width="21.8796296296296" customWidth="1"/>
-    <col min="11" max="11" width="27.1296296296296" customWidth="1"/>
-    <col min="13" max="13" width="15.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="22.4732142857143" customWidth="1"/>
+    <col min="2" max="2" width="10.1339285714286" customWidth="1"/>
+    <col min="3" max="3" width="44.9375" customWidth="1"/>
+    <col min="4" max="4" width="72.6160714285714" customWidth="1"/>
+    <col min="5" max="5" width="24.7053571428571" customWidth="1"/>
+    <col min="6" max="6" width="26.4821428571429" customWidth="1"/>
+    <col min="7" max="7" width="25.3035714285714" customWidth="1"/>
+    <col min="8" max="9" width="27.1339285714286" customWidth="1"/>
+    <col min="10" max="10" width="21.8839285714286" customWidth="1"/>
+    <col min="11" max="11" width="27.1339285714286" customWidth="1"/>
+    <col min="12" max="12" width="17.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="15.6339285714286" customWidth="1"/>
     <col min="14" max="14" width="22.25" customWidth="1"/>
-    <col min="15" max="15" width="30.8055555555556" customWidth="1"/>
-    <col min="16" max="16" width="53.5648148148148" customWidth="1"/>
-    <col min="17" max="17" width="72.9166666666667" customWidth="1"/>
+    <col min="15" max="15" width="30.8035714285714" customWidth="1"/>
+    <col min="16" max="16" width="53.5625" customWidth="1"/>
+    <col min="17" max="17" width="72.9196428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="3:10">
       <c r="C1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="70"/>
       <c r="J1" s="65" t="s">
         <v>1</v>
       </c>
@@ -3444,58 +3451,58 @@
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="60"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="72" t="s">
@@ -3503,135 +3510,135 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:16">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:16">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:16">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
@@ -3641,13 +3648,13 @@
       <c r="D7" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="62" t="s">
@@ -3676,23 +3683,23 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="62" t="s">
@@ -3721,7 +3728,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
@@ -3731,13 +3738,13 @@
       <c r="D9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="62" t="s">
@@ -3766,7 +3773,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
@@ -3776,13 +3783,13 @@
       <c r="D10" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="62" t="s">
@@ -3811,7 +3818,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="68"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="62">
         <v>5</v>
       </c>
@@ -3821,13 +3828,13 @@
       <c r="D11" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="62" t="s">
@@ -3853,7 +3860,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:16">
-      <c r="A12" s="68"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="62">
         <v>6</v>
       </c>
@@ -3863,13 +3870,13 @@
       <c r="D12" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="62" t="s">
@@ -3895,7 +3902,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:16">
-      <c r="A13" s="68"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="62">
         <v>7</v>
       </c>
@@ -3905,13 +3912,13 @@
       <c r="D13" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
@@ -3943,7 +3950,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:16">
-      <c r="A14" s="68"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="62">
         <v>8</v>
       </c>
@@ -3953,14 +3960,14 @@
       <c r="D14" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>50</v>
+      <c r="F14" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="62" t="s">
         <v>83</v>
@@ -3969,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="62" t="s">
         <v>85</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="62" t="s">
         <v>66</v>
@@ -3991,23 +3998,23 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
-      <c r="A15" s="70" t="s">
-        <v>92</v>
+      <c r="A15" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+        <v>96</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4015,13 +4022,13 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M15" s="62" t="s">
         <v>72</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
@@ -4032,21 +4039,21 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
-      <c r="A16" s="70" t="s">
-        <v>92</v>
+      <c r="A16" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+        <v>99</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="62" t="s">
         <v>51</v>
       </c>
@@ -4056,7 +4063,7 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="62" t="s">
         <v>72</v>
@@ -4071,23 +4078,23 @@
       <c r="Q16" s="62"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="70" t="s">
-        <v>92</v>
+      <c r="A17" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+        <v>102</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4095,16 +4102,16 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="62" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="62" t="s">
         <v>54</v>
@@ -4127,19 +4134,19 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="14.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.6339285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.1339285714286" customWidth="1"/>
+    <col min="3" max="3" width="14.6339285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4148,47 +4155,47 @@
       <c r="C2" s="60"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>104</v>
+      <c r="C6" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4223,7 +4230,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4231,7 +4238,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4253,467 +4260,467 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="32.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.8839285714286" customWidth="1"/>
+    <col min="3" max="3" width="32.3839285714286" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="14.6339285714286" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="15.3796296296296" customWidth="1"/>
-    <col min="9" max="9" width="24.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.3839285714286" customWidth="1"/>
+    <col min="9" max="9" width="24.1339285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="56"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="56"/>
-      <c r="I2" s="51"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="H3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>120</v>
       </c>
+      <c r="H4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>124</v>
       </c>
+      <c r="E6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="E7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15">
-        <v>4</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="14"/>
+      <c r="B16" s="16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16">
+        <v>11</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16">
+        <v>12</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18">
-        <v>7</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18">
-        <v>10</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18">
-        <v>11</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18">
-        <v>12</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18" t="s">
+      <c r="E18" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4729,1011 +4736,1011 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="19.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.8839285714286" customWidth="1"/>
+    <col min="3" max="3" width="19.1339285714286" customWidth="1"/>
     <col min="4" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="18.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="18.3839285714286" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="15.3796296296296" customWidth="1"/>
-    <col min="9" max="9" width="18.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="19.1296296296296" customWidth="1"/>
-    <col min="11" max="11" width="24.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.3839285714286" customWidth="1"/>
+    <col min="9" max="9" width="18.6339285714286" customWidth="1"/>
+    <col min="10" max="10" width="19.1339285714286" customWidth="1"/>
+    <col min="11" max="11" width="24.1339285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.25" customHeight="1" spans="1:11">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+        <v>146</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+        <v>147</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="51"/>
+        <v>148</v>
+      </c>
+      <c r="G2" s="53"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="51"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>112</v>
+      <c r="I3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>120</v>
+      <c r="I4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
-        <v>124</v>
+      <c r="C6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="13">
         <v>100000</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>500</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="b">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="13">
         <v>100000</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>500</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="b">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="C9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
         <v>100</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="b">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="C10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="b">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13">
         <v>5</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="C11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
         <v>100</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="b">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="C12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
         <v>100</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="b">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="C13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
         <v>100</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="b">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13">
         <v>8</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="C14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
         <v>100</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>0</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="b">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13">
         <v>9</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="C15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
         <v>100</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="b">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13">
         <v>10</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="C16" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
         <v>100</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="b">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13">
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="C17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
         <v>100</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>0</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15" t="b">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13">
         <v>12</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="C18" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
         <v>100</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15" t="b">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13">
         <v>13</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="C19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
         <v>500</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>0</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15" t="b">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13">
         <v>14</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="C20" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
         <v>100</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>0</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="b">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13">
         <v>15</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="C21" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
         <v>50</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>0</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15" t="b">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13">
         <v>16</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="C22" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
         <v>500</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>0</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15" t="b">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13">
         <v>17</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="C23" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
         <v>100</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>0</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="b">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13">
         <v>18</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="C24" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
         <v>50</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>0</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15" t="b">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13">
         <v>19</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="C25" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
         <v>500</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>0</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15" t="b">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13">
         <v>20</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="C26" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
         <v>100</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="13">
         <v>0</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="b">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13">
         <v>21</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="C27" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
         <v>50</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>0</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15" t="b">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
         <v>22</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="C28" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
         <v>500</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="13">
         <v>0</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15" t="b">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13">
         <v>23</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="C29" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
         <v>100</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <v>0</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15" t="b">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13">
         <v>24</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="15">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
+      <c r="C30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13">
         <v>50</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>0</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15" t="b">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13">
         <v>25</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
+      <c r="C31" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
         <v>100</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <v>0</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15" t="b">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13">
         <v>26</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1</v>
-      </c>
-      <c r="E32" s="15">
+      <c r="C32" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
         <v>50</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="13">
         <v>0</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15" t="b">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16">
         <v>27</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="18">
-        <v>1</v>
-      </c>
-      <c r="E33" s="18">
+      <c r="C33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1</v>
+      </c>
+      <c r="E33" s="16">
         <v>100</v>
       </c>
-      <c r="F33" s="18">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18">
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
         <v>50</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <v>10</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="16">
         <v>2</v>
       </c>
-      <c r="J33" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="18" t="s">
+      <c r="J33" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16">
         <v>28</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="18">
+      <c r="C34" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="16">
         <v>10</v>
       </c>
-      <c r="E34" s="18">
-        <v>1</v>
-      </c>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18">
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16">
         <v>100</v>
       </c>
-      <c r="H34" s="18">
-        <v>1</v>
-      </c>
-      <c r="I34" s="18">
-        <v>1</v>
-      </c>
-      <c r="J34" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="18" t="s">
+      <c r="H34" s="16">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1</v>
+      </c>
+      <c r="J34" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16">
         <v>29</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="18">
+      <c r="C35" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="16">
         <v>666</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>50</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>2</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <v>55</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <v>4</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="16">
         <v>2</v>
       </c>
-      <c r="J35" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="18" t="s">
+      <c r="J35" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16">
         <v>30</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="18">
+      <c r="C36" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="16">
         <v>888</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <v>50</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>2</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="16">
         <v>55</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="16">
         <v>4</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="16">
         <v>2</v>
       </c>
-      <c r="J36" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="18" t="s">
+      <c r="J36" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5756,690 +5763,690 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="59.5185185185185" customWidth="1"/>
+    <col min="2" max="2" width="11.8839285714286" customWidth="1"/>
+    <col min="3" max="3" width="59.5178571428571" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="14.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="24.3839285714286" customWidth="1"/>
+    <col min="6" max="6" width="14.6339285714286" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="24.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="24.1339285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="55"/>
       <c r="G2" s="56"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>106</v>
+      <c r="G3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>192</v>
+      <c r="G4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>193</v>
+      <c r="E6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="13">
+        <v>30</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="13">
+        <v>80</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="13">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="14"/>
+      <c r="B16" s="16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="13">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13">
+        <v>11</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="15" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="15" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13">
+        <v>13</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15">
-        <v>4</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="15">
+      <c r="E19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="13">
         <v>30</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="E20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13">
+        <v>15</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="13">
+        <v>80</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16">
+        <v>16</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="14"/>
+      <c r="B24" s="16">
+        <v>18</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="15">
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="14"/>
+      <c r="B25" s="16">
+        <v>19</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="13">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="14"/>
+      <c r="B26" s="16">
+        <v>20</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="13">
         <v>80</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18">
-        <v>6</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18">
-        <v>7</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="15">
-        <v>10</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18">
-        <v>10</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="15">
-        <v>30</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15">
-        <v>11</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15">
-        <v>12</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15">
-        <v>13</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="15">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15">
-        <v>14</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="15">
-        <v>30</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15">
-        <v>15</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="15">
-        <v>80</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18">
-        <v>16</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18" t="s">
+      <c r="E26" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18">
-        <v>17</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18">
-        <v>18</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18">
-        <v>19</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="15">
-        <v>30</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18">
-        <v>20</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="15">
-        <v>80</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>218</v>
+      <c r="I26" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6465,8 +6472,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.62962962962963" style="32" customWidth="1"/>
+    <col min="1" max="1" width="21.1339285714286" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.63392857142857" style="32" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="32" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="32" customWidth="1"/>
     <col min="5" max="6" width="14.25" style="32" customWidth="1"/>
@@ -6478,24 +6485,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="42" t="s">
         <v>223</v>
       </c>
+      <c r="F1" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="H1" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6503,10 +6510,10 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="23"/>
       <c r="I2" s="25"/>
     </row>
@@ -6518,59 +6525,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6599,376 +6606,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="45" t="s">
-        <v>243</v>
+      <c r="A7" s="43" t="s">
+        <v>245</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="44"/>
+      <c r="B8" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="F8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="46"/>
-      <c r="B8" s="31" t="s">
+      <c r="G8" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="I8" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="44"/>
+      <c r="B9" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="D9" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="31" t="s">
+      <c r="E9" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="46"/>
-      <c r="B9" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="G9" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="44"/>
+      <c r="B10" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="D10" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="31" t="s">
+      <c r="E10" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I9" s="48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="46"/>
-      <c r="B10" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="G10" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="45"/>
+      <c r="B11" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="D11" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="E11" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I10" s="48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="47"/>
-      <c r="B11" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>248</v>
-      </c>
       <c r="G11" s="31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6998,21 +7005,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.8796296296296" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.62962962962963" style="32" customWidth="1"/>
+    <col min="1" max="1" width="23.8839285714286" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.63392857142857" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="32.5925925925926" style="32" customWidth="1"/>
+    <col min="4" max="4" width="32.5892857142857" style="32" customWidth="1"/>
     <col min="5" max="5" width="19" style="32" customWidth="1"/>
-    <col min="6" max="6" width="17.1296296296296" style="32" customWidth="1"/>
-    <col min="7" max="7" width="38.3796296296296" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.1339285714286" style="32" customWidth="1"/>
+    <col min="7" max="7" width="38.3839285714286" style="32" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="92.8796296296296" style="32" customWidth="1"/>
+    <col min="9" max="9" width="92.8839285714286" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7021,7 +7028,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7044,54 +7051,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7129,420 +7136,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>306</v>
-      </c>
       <c r="I8" s="31" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
-      <c r="B9" s="40" t="s">
-        <v>310</v>
+      <c r="B9" s="39" t="s">
+        <v>312</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
-      <c r="B10" s="40" t="s">
-        <v>312</v>
+      <c r="B10" s="39" t="s">
+        <v>314</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="H11" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:9">
+      <c r="B12" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="D12" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:9">
-      <c r="B12" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>305</v>
+      <c r="G12" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="H12" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:9">
+      <c r="B13" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:9">
-      <c r="B13" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>305</v>
+      <c r="G13" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="H13" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:9">
+      <c r="B14" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:9">
-      <c r="B14" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>305</v>
+      <c r="G14" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="H14" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:9">
+      <c r="B16" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:9">
+      <c r="B17" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="31" t="s">
+      <c r="G17" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:9">
+      <c r="B18" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H15" s="31" t="s">
+      <c r="D18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:9">
-      <c r="B16" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="G18" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="B19" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H16" s="31" t="s">
+      <c r="D19" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>305</v>
+      <c r="G19" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="40" t="s">
-        <v>333</v>
+      <c r="B20" s="39" t="s">
+        <v>335</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F20" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:9">
+      <c r="B21" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>245</v>
-      </c>
       <c r="D21" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7575,7 +7582,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7587,18 +7594,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7609,7 +7616,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7620,31 +7627,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7662,177 +7669,177 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.8703703703704" customWidth="1"/>
-    <col min="4" max="4" width="76.037037037037" customWidth="1"/>
-    <col min="5" max="5" width="84.962962962963" customWidth="1"/>
+    <col min="3" max="3" width="35.8660714285714" customWidth="1"/>
+    <col min="4" max="4" width="76.0357142857143" customWidth="1"/>
+    <col min="5" max="5" width="84.9642857142857" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>351</v>
       </c>
+      <c r="F3" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>356</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A6" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>361</v>
       </c>
+      <c r="E6" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="15">
+      <c r="D7" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F7" s="13">
         <v>5</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="E8" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="16">
         <v>5</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>368</v>
+      <c r="G8" s="16" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -2809,7 +2809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3000,7 +3000,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3416,7 +3415,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3443,7 +3442,7 @@
       <c r="C1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="69"/>
       <c r="J1" s="65" t="s">
         <v>1</v>
       </c>
@@ -3505,7 +3504,7 @@
       <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="72" t="s">
+      <c r="Q3" s="71" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3690,7 +3689,7 @@
       <c r="C8" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="62" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="67" t="s">
@@ -3998,7 +3997,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>94</v>
       </c>
       <c r="B15" s="62">
@@ -4039,7 +4038,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="62">
@@ -4078,7 +4077,7 @@
       <c r="Q16" s="62"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="62">
@@ -4119,7 +4118,7 @@
       <c r="Q17" s="62"/>
     </row>
     <row r="19" customHeight="1" spans="7:7">
-      <c r="G19" s="71"/>
+      <c r="G19" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4134,7 +4133,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
@@ -6467,7 +6466,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7000,7 +6999,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7569,7 +7568,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -7670,13 +7669,13 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.8660714285714" customWidth="1"/>
     <col min="4" max="4" width="76.0357142857143" customWidth="1"/>
     <col min="5" max="5" width="84.9642857142857" customWidth="1"/>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="373">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -261,7 +261,13 @@
     <t>为了守护世界的和平</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:05</t>
+    <t>2022-05-05 03:30:00</t>
+  </si>
+  <si>
+    <t>2022-07-05 03:30:00</t>
+  </si>
+  <si>
+    <t>2022-07-08 03:30:00</t>
   </si>
   <si>
     <t>充钱4</t>
@@ -3414,8 +3420,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3873,10 +3879,10 @@
         <v>79</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H12" s="62" t="s">
         <v>76</v>
@@ -3887,7 +3893,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="62" t="s">
         <v>66</v>
@@ -3906,13 +3912,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>49</v>
@@ -3921,28 +3927,28 @@
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" s="62" t="s">
         <v>66</v>
       </c>
       <c r="N13" s="62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O13" s="62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="62" t="s">
         <v>54</v>
@@ -3954,43 +3960,43 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I14" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M14" s="62" t="s">
         <v>66</v>
       </c>
       <c r="N14" s="62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O14" s="62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P14" s="62" t="s">
         <v>54</v>
@@ -3998,22 +4004,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4021,13 +4027,13 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M15" s="62" t="s">
         <v>72</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
@@ -4039,16 +4045,16 @@
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -4062,7 +4068,7 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="62" t="s">
         <v>72</v>
@@ -4078,22 +4084,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4101,16 +4107,16 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="62" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P17" s="62" t="s">
         <v>54</v>
@@ -4145,7 +4151,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4166,7 +4172,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4194,7 +4200,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4221,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4229,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4237,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4296,57 +4302,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4384,19 +4390,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4405,19 +4411,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
@@ -4432,19 +4438,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
@@ -4459,19 +4465,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
@@ -4486,19 +4492,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
@@ -4513,19 +4519,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
@@ -4540,19 +4546,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -4567,19 +4573,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
@@ -4594,19 +4600,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
@@ -4621,19 +4627,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
@@ -4648,19 +4654,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
@@ -4675,19 +4681,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
@@ -4702,19 +4708,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
@@ -4757,12 +4763,12 @@
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4777,7 +4783,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4790,69 +4796,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4896,7 +4902,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4906,7 +4912,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4915,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4933,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4942,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4960,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4969,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4987,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -4996,7 +5002,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5014,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5023,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5041,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5050,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5068,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5077,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5095,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5104,7 +5110,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5122,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5131,7 +5137,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5149,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5158,7 +5164,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5176,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5185,7 +5191,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5203,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5212,7 +5218,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5239,7 +5245,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5257,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5266,7 +5272,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5284,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5293,7 +5299,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5311,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5320,7 +5326,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5338,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5347,7 +5353,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5365,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5374,7 +5380,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5392,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5401,7 +5407,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5419,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5428,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5446,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5455,7 +5461,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5473,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5482,7 +5488,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5500,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5509,7 +5515,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5527,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5536,7 +5542,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5554,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5563,7 +5569,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5581,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5590,7 +5596,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5608,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5617,7 +5623,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5641,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5650,7 +5656,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5674,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5683,7 +5689,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5707,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5716,7 +5722,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5740,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5776,12 +5782,12 @@
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5803,57 +5809,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5891,21 +5897,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5914,13 +5920,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5932,7 +5938,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5941,13 +5947,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5959,7 +5965,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5968,13 +5974,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -5986,7 +5992,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5995,13 +6001,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6013,7 +6019,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6022,13 +6028,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6040,7 +6046,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6049,13 +6055,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6067,7 +6073,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6076,13 +6082,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6094,7 +6100,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6103,13 +6109,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6121,7 +6127,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6130,13 +6136,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6148,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6157,13 +6163,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6175,7 +6181,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6184,13 +6190,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6202,7 +6208,7 @@
         <v>62</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6211,13 +6217,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6229,7 +6235,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6238,13 +6244,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6256,7 +6262,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6265,13 +6271,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6283,7 +6289,7 @@
         <v>62</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6292,13 +6298,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6310,7 +6316,7 @@
         <v>62</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6319,13 +6325,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6337,7 +6343,7 @@
         <v>68</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6346,13 +6352,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6364,7 +6370,7 @@
         <v>68</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6373,13 +6379,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6391,7 +6397,7 @@
         <v>68</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6400,13 +6406,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6418,7 +6424,7 @@
         <v>68</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6427,13 +6433,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6445,7 +6451,7 @@
         <v>68</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6484,24 +6490,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6524,59 +6530,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6605,376 +6611,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>252</v>
-      </c>
       <c r="I8" s="48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7018,7 +7024,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7027,7 +7033,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7050,54 +7056,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7135,420 +7141,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>308</v>
-      </c>
       <c r="I8" s="31" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>315</v>
-      </c>
       <c r="H11" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -7581,7 +7587,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7593,18 +7599,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7615,7 +7621,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7626,31 +7632,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -7668,7 +7674,7 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7685,16 +7691,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7709,53 +7715,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7778,25 +7784,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7805,19 +7811,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7826,19 +7832,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="374">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -168,7 +168,37 @@
     <t>精良装备打造您的最强黑道军团，单笔充值指定金额即可领取橙色装备宝箱。</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:00</t>
+    <t>2022-05-05 04:30:00</t>
+  </si>
+  <si>
+    <t>2022-06-05 05:30:00</t>
+  </si>
+  <si>
+    <t>2022-07-05 04:30:00</t>
+  </si>
+  <si>
+    <t>每日单冲</t>
+  </si>
+  <si>
+    <t>传奇头目</t>
+  </si>
+  <si>
+    <t>拉尔夫</t>
+  </si>
+  <si>
+    <t>限时活动背景1</t>
+  </si>
+  <si>
+    <t>传奇头目助您征战黑帮世界，单笔充值指定金额即可领取红色头目宝箱。</t>
+  </si>
+  <si>
+    <t>每日单充2</t>
+  </si>
+  <si>
+    <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取橙色色宝物宝箱。</t>
+  </si>
+  <si>
+    <t>2022-05-04 17:00:01</t>
   </si>
   <si>
     <t>2022-08-24 24:00:00</t>
@@ -177,30 +207,6 @@
     <t>2022-08-25 24:00:00</t>
   </si>
   <si>
-    <t>每日单冲</t>
-  </si>
-  <si>
-    <t>传奇头目</t>
-  </si>
-  <si>
-    <t>拉尔夫</t>
-  </si>
-  <si>
-    <t>限时活动背景1</t>
-  </si>
-  <si>
-    <t>传奇头目助您征战黑帮世界，单笔充值指定金额即可领取红色头目宝箱。</t>
-  </si>
-  <si>
-    <t>每日单充2</t>
-  </si>
-  <si>
-    <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取橙色色宝物宝箱。</t>
-  </si>
-  <si>
-    <t>2022-05-04 17:00:01</t>
-  </si>
-  <si>
     <t>性感佳人</t>
   </si>
   <si>
@@ -274,9 +280,6 @@
   </si>
   <si>
     <t>贯彻爱与真实的邪恶</t>
-  </si>
-  <si>
-    <t>2022-05-04 17:00:06</t>
   </si>
   <si>
     <t>充值抽奖</t>
@@ -3420,8 +3423,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3702,10 +3705,10 @@
         <v>58</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H8" s="62" t="s">
         <v>51</v>
@@ -3716,10 +3719,10 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N8" s="62" t="s">
         <v>51</v>
@@ -3729,7 +3732,7 @@
         <v>54</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -3738,19 +3741,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H9" s="62" t="s">
         <v>51</v>
@@ -3761,10 +3764,10 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N9" s="62" t="s">
         <v>51</v>
@@ -3774,7 +3777,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -3783,19 +3786,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>51</v>
@@ -3806,10 +3809,10 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>51</v>
@@ -3819,7 +3822,7 @@
         <v>54</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
@@ -3828,22 +3831,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="62" t="b">
         <v>0</v>
@@ -3851,13 +3854,13 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62" t="s">
@@ -3870,22 +3873,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="62" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>76</v>
       </c>
       <c r="I12" s="62" t="b">
         <v>0</v>
@@ -3893,13 +3896,13 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62" t="s">
@@ -3912,13 +3915,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>49</v>
@@ -3927,28 +3930,28 @@
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="62" t="s">
-        <v>85</v>
-      </c>
       <c r="O13" s="62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="62" t="s">
         <v>54</v>
@@ -3960,43 +3963,43 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="62" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>89</v>
       </c>
       <c r="P14" s="62" t="s">
         <v>54</v>
@@ -4004,22 +4007,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4027,34 +4030,34 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -4068,10 +4071,10 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N16" s="62" t="s">
         <v>51</v>
@@ -4084,22 +4087,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4107,16 +4110,16 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="62" t="s">
         <v>54</v>
@@ -4151,7 +4154,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4172,7 +4175,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4200,7 +4203,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4218,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4227,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4235,7 +4238,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4243,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4302,57 +4305,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4390,19 +4393,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4411,25 +4414,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4438,25 +4441,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4465,25 +4468,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4492,25 +4495,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4519,25 +4522,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4546,25 +4549,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4573,25 +4576,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4600,25 +4603,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4627,25 +4630,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4654,25 +4657,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4681,25 +4684,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4708,25 +4711,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4763,12 +4766,12 @@
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4783,7 +4786,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4796,69 +4799,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4902,7 +4905,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4912,7 +4915,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4921,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4939,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4948,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4966,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4975,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4993,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -5002,7 +5005,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5020,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5029,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5047,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5056,7 +5059,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5074,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5083,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5101,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5110,7 +5113,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5128,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5137,7 +5140,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5155,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5164,7 +5167,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5182,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5191,7 +5194,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5209,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5218,7 +5221,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5236,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5245,7 +5248,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5272,7 +5275,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5290,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5299,7 +5302,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5317,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5326,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5344,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5353,7 +5356,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5371,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5380,7 +5383,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5398,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5407,7 +5410,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5425,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5434,7 +5437,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5452,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5461,7 +5464,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5479,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5488,7 +5491,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5506,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5515,7 +5518,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5533,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5542,7 +5545,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5560,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5569,7 +5572,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5587,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5596,7 +5599,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5614,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5623,7 +5626,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5647,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5656,7 +5659,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5680,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5689,7 +5692,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5713,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5722,7 +5725,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5746,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5782,12 +5785,12 @@
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5809,57 +5812,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5897,21 +5900,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5920,13 +5923,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5938,7 +5941,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5947,13 +5950,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5965,7 +5968,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5974,13 +5977,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -5992,7 +5995,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -6001,13 +6004,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6019,7 +6022,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6028,13 +6031,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6046,7 +6049,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6055,13 +6058,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6073,7 +6076,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6082,13 +6085,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6100,7 +6103,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6109,13 +6112,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6127,7 +6130,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6136,13 +6139,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6154,7 +6157,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6163,13 +6166,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6181,7 +6184,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6190,13 +6193,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6205,10 +6208,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6217,13 +6220,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6232,10 +6235,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6244,13 +6247,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6259,10 +6262,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6271,13 +6274,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6286,10 +6289,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6298,13 +6301,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6313,10 +6316,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6325,13 +6328,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6340,10 +6343,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6352,13 +6355,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6367,10 +6370,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6379,13 +6382,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6394,10 +6397,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6406,13 +6409,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6421,10 +6424,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6433,13 +6436,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6448,10 +6451,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6490,24 +6493,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6530,59 +6533,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6611,376 +6614,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -7024,7 +7027,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7033,7 +7036,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7056,54 +7059,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7141,420 +7144,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -7587,7 +7590,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7599,18 +7602,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7621,7 +7624,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7632,31 +7635,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7691,16 +7694,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7715,53 +7718,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7784,25 +7787,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7811,19 +7814,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7832,19 +7835,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="368">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -198,13 +198,13 @@
     <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取橙色色宝物宝箱。</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:01</t>
-  </si>
-  <si>
-    <t>2022-08-24 24:00:00</t>
-  </si>
-  <si>
-    <t>2022-08-25 24:00:00</t>
+    <t>2021-05-04 17:00:01</t>
+  </si>
+  <si>
+    <t>2021-08-24 24:00:00</t>
+  </si>
+  <si>
+    <t>2021-08-25 24:00:00</t>
   </si>
   <si>
     <t>性感佳人</t>
@@ -222,9 +222,6 @@
     <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取橙色情人宝箱。</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:02</t>
-  </si>
-  <si>
     <t>全副武装</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>精锐头目助您征战黑帮世界，单笔充值指定金额即可领取橙色头目宝箱。</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:03</t>
-  </si>
-  <si>
     <t>黑道重宝</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>为了防止世界被破坏</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:04</t>
-  </si>
-  <si>
     <t>超值单冲</t>
   </si>
   <si>
@@ -298,15 +289,6 @@
   </si>
   <si>
     <t>可爱又迷人的反派角色</t>
-  </si>
-  <si>
-    <t>2022-08-04 17:00:07</t>
-  </si>
-  <si>
-    <t>2023-08-24 24:00:00</t>
-  </si>
-  <si>
-    <t>2023-08-25 24:00:00</t>
   </si>
   <si>
     <t>0//102//302</t>
@@ -3423,8 +3405,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3747,7 +3729,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>59</v>
@@ -3764,10 +3746,10 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="62" t="s">
         <v>67</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>68</v>
       </c>
       <c r="N9" s="62" t="s">
         <v>51</v>
@@ -3777,7 +3759,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -3786,13 +3768,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>71</v>
-      </c>
       <c r="E10" s="67" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>59</v>
@@ -3809,10 +3791,10 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>51</v>
@@ -3822,7 +3804,7 @@
         <v>54</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
@@ -3831,13 +3813,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>59</v>
@@ -3846,7 +3828,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="62" t="b">
         <v>0</v>
@@ -3854,13 +3836,13 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62" t="s">
@@ -3873,22 +3855,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>83</v>
-      </c>
       <c r="H12" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" s="62" t="b">
         <v>0</v>
@@ -3896,13 +3878,13 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62" t="s">
@@ -3915,10 +3897,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>48</v>
@@ -3930,28 +3912,28 @@
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="62" t="s">
+      <c r="M13" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="62" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>90</v>
       </c>
       <c r="P13" s="62" t="s">
         <v>54</v>
@@ -3963,43 +3945,43 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I14" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M14" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O14" s="62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P14" s="62" t="s">
         <v>54</v>
@@ -4007,22 +3989,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4030,34 +4012,34 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -4071,10 +4053,10 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N16" s="62" t="s">
         <v>51</v>
@@ -4087,22 +4069,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4110,16 +4092,16 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P17" s="62" t="s">
         <v>54</v>
@@ -4154,7 +4136,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4175,7 +4157,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4203,7 +4185,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4221,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4230,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4238,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4246,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4305,57 +4287,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4393,19 +4375,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4414,25 +4396,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4441,25 +4423,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4468,25 +4450,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4495,25 +4477,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4522,25 +4504,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4549,25 +4531,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4576,25 +4558,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4603,25 +4585,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>136</v>
-      </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4630,25 +4612,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4657,25 +4639,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4684,25 +4666,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4711,25 +4693,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4726,7 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4766,12 +4748,12 @@
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4786,7 +4768,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4799,69 +4781,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4905,7 +4887,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4915,7 +4897,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4924,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4942,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4951,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4969,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4978,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4996,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -5005,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5023,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5032,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5050,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5059,7 +5041,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5077,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5086,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5104,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5113,7 +5095,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5131,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5140,7 +5122,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5158,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5167,7 +5149,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5185,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5194,7 +5176,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5212,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5221,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5239,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5248,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5266,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5275,7 +5257,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5293,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5302,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5320,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5329,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5347,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5356,7 +5338,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5374,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5383,7 +5365,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5401,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5410,7 +5392,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5428,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5437,7 +5419,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5455,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5464,7 +5446,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5482,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5491,7 +5473,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5509,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5518,7 +5500,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5536,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5545,7 +5527,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5563,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5572,7 +5554,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5590,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5599,7 +5581,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5617,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5626,7 +5608,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5650,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5659,7 +5641,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5683,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5692,7 +5674,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5716,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5725,7 +5707,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5749,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5785,12 +5767,12 @@
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5812,57 +5794,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5900,21 +5882,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5923,13 +5905,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5941,7 +5923,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5950,13 +5932,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5968,7 +5950,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5977,13 +5959,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -5995,7 +5977,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -6004,13 +5986,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6022,7 +6004,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6031,13 +6013,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6049,7 +6031,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6058,13 +6040,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6076,7 +6058,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6085,13 +6067,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6103,7 +6085,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6112,13 +6094,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6130,7 +6112,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6139,13 +6121,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6157,7 +6139,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6166,13 +6148,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6184,7 +6166,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6193,13 +6175,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6211,7 +6193,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6220,13 +6202,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6238,7 +6220,7 @@
         <v>64</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6247,13 +6229,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6265,7 +6247,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6274,13 +6256,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6292,7 +6274,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6301,13 +6283,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6319,7 +6301,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6328,13 +6310,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6343,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6355,13 +6337,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6370,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6382,13 +6364,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6397,10 +6379,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6409,13 +6391,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6424,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6436,13 +6418,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6451,10 +6433,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6493,24 +6475,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6533,59 +6515,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6614,376 +6596,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="H7" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="I7" s="48" t="s">
         <v>250</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E8" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="H8" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="48" t="s">
         <v>253</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -7007,7 +6989,7 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -7027,7 +7009,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7036,7 +7018,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7059,54 +7041,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7144,420 +7126,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G9" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -7590,7 +7572,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7602,18 +7584,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7624,7 +7606,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7635,31 +7617,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7678,7 +7660,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -7694,16 +7676,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7718,53 +7700,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7787,25 +7769,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7814,19 +7796,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7835,19 +7817,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="369">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -177,15 +177,18 @@
     <t>2022-07-05 04:30:00</t>
   </si>
   <si>
+    <t>每日单充</t>
+  </si>
+  <si>
+    <t>传奇头目</t>
+  </si>
+  <si>
+    <t>拉尔夫</t>
+  </si>
+  <si>
     <t>每日单冲</t>
   </si>
   <si>
-    <t>传奇头目</t>
-  </si>
-  <si>
-    <t>拉尔夫</t>
-  </si>
-  <si>
     <t>限时活动背景1</t>
   </si>
   <si>
@@ -249,10 +252,10 @@
     <t>为了防止世界被破坏</t>
   </si>
   <si>
+    <t>充钱3</t>
+  </si>
+  <si>
     <t>超值单冲</t>
-  </si>
-  <si>
-    <t>充钱3</t>
   </si>
   <si>
     <t>为了守护世界的和平</t>
@@ -3405,8 +3408,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3662,14 +3665,14 @@
         <v>53</v>
       </c>
       <c r="N7" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O7" s="62"/>
       <c r="P7" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
@@ -3678,19 +3681,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="62" t="s">
         <v>51</v>
@@ -3701,20 +3704,20 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O8" s="62"/>
       <c r="P8" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -3723,19 +3726,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="62" t="s">
         <v>51</v>
@@ -3746,20 +3749,20 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O9" s="62"/>
       <c r="P9" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -3768,19 +3771,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>51</v>
@@ -3791,20 +3794,20 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O10" s="62"/>
       <c r="P10" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
@@ -3813,22 +3816,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I11" s="62" t="b">
         <v>0</v>
@@ -3839,14 +3842,14 @@
         <v>76</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:16">
@@ -3855,22 +3858,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I12" s="62" t="b">
         <v>0</v>
@@ -3878,17 +3881,17 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:16">
@@ -3897,10 +3900,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>48</v>
@@ -3912,31 +3915,31 @@
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="62" t="s">
-        <v>83</v>
-      </c>
       <c r="O13" s="62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P13" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:16">
@@ -3945,66 +3948,66 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>87</v>
-      </c>
       <c r="P14" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4012,40 +4015,40 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="67"/>
       <c r="H16" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I16" s="62" t="b">
         <v>0</v>
@@ -4053,38 +4056,38 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N16" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="62"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4092,19 +4095,19 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="62"/>
     </row>
@@ -4124,7 +4127,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
@@ -4136,7 +4139,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4157,7 +4160,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4185,7 +4188,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4194,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -4203,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4212,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4220,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4228,7 +4231,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4247,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -4287,57 +4290,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4375,19 +4378,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4396,25 +4399,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4423,25 +4426,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4450,25 +4453,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4477,25 +4480,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4504,25 +4507,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4531,25 +4534,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4558,25 +4561,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4585,25 +4588,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4612,25 +4615,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4639,25 +4642,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4666,25 +4669,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4693,25 +4696,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4748,12 +4751,12 @@
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4768,7 +4771,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4781,69 +4784,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4887,7 +4890,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4897,7 +4900,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4906,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4924,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4933,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4951,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4960,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4978,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -4987,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5005,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5014,7 +5017,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5032,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5041,7 +5044,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5059,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5068,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5086,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5095,7 +5098,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5113,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5122,7 +5125,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5140,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5149,7 +5152,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5167,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5176,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5194,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5203,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5221,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5230,7 +5233,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5248,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5257,7 +5260,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5275,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5284,7 +5287,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5302,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5311,7 +5314,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5329,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5338,7 +5341,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5356,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5365,7 +5368,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5383,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5392,7 +5395,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5410,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5419,7 +5422,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5437,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5446,7 +5449,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5464,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5473,7 +5476,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5491,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5500,7 +5503,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5518,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5527,7 +5530,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5545,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5554,7 +5557,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5572,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5581,7 +5584,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5599,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5608,7 +5611,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5632,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5641,7 +5644,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5665,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5674,7 +5677,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5698,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5707,7 +5710,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5731,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5747,7 +5750,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -5767,12 +5770,12 @@
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5794,57 +5797,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5882,21 +5885,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5905,13 +5908,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5923,7 +5926,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5932,13 +5935,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5950,7 +5953,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5959,13 +5962,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -5977,7 +5980,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5986,13 +5989,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6004,7 +6007,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6013,13 +6016,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6031,7 +6034,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6040,13 +6043,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6055,10 +6058,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6067,13 +6070,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6082,10 +6085,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6094,13 +6097,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6109,10 +6112,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6121,13 +6124,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6136,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6148,13 +6151,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6163,10 +6166,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6175,13 +6178,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6190,10 +6193,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6202,13 +6205,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6217,10 +6220,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6229,13 +6232,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6244,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6256,13 +6259,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6271,10 +6274,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6283,13 +6286,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6298,10 +6301,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6310,13 +6313,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6325,10 +6328,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6337,13 +6340,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6352,10 +6355,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6364,13 +6367,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6379,10 +6382,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6391,13 +6394,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6406,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6418,13 +6421,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6433,10 +6436,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6460,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -6475,24 +6478,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6515,59 +6518,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6596,376 +6599,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6989,8 +6992,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7009,7 +7012,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7018,7 +7021,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7041,54 +7044,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7126,420 +7129,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -7559,7 +7562,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -7572,7 +7575,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7584,18 +7587,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7606,7 +7609,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7617,31 +7620,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7660,7 +7663,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -7676,16 +7679,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7700,53 +7703,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7769,25 +7772,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7796,19 +7799,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7817,19 +7820,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="368">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -186,9 +186,6 @@
     <t>拉尔夫</t>
   </si>
   <si>
-    <t>每日单冲</t>
-  </si>
-  <si>
     <t>限时活动背景1</t>
   </si>
   <si>
@@ -255,7 +252,7 @@
     <t>充钱3</t>
   </si>
   <si>
-    <t>超值单冲</t>
+    <t>超值单充</t>
   </si>
   <si>
     <t>为了守护世界的和平</t>
@@ -3408,8 +3405,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3665,14 +3662,14 @@
         <v>53</v>
       </c>
       <c r="N7" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O7" s="62"/>
       <c r="P7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="62" t="s">
         <v>55</v>
-      </c>
-      <c r="Q7" s="62" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
@@ -3681,19 +3678,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="E8" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="F8" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="G8" s="67" t="s">
         <v>60</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>61</v>
       </c>
       <c r="H8" s="62" t="s">
         <v>51</v>
@@ -3704,20 +3701,20 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="62" t="s">
-        <v>63</v>
-      </c>
       <c r="N8" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O8" s="62"/>
       <c r="P8" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -3726,19 +3723,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>66</v>
-      </c>
       <c r="E9" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="G9" s="67" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="62" t="s">
         <v>51</v>
@@ -3749,20 +3746,20 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="62" t="s">
-        <v>68</v>
-      </c>
       <c r="N9" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O9" s="62"/>
       <c r="P9" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -3771,19 +3768,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>71</v>
-      </c>
       <c r="E10" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="G10" s="67" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>51</v>
@@ -3794,20 +3791,20 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="62" t="s">
-        <v>73</v>
-      </c>
       <c r="N10" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O10" s="62"/>
       <c r="P10" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
@@ -3816,19 +3813,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="G11" s="67" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="62" t="s">
         <v>51</v>
@@ -3839,17 +3836,17 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="62" t="s">
         <v>76</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>77</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:16">
@@ -3858,19 +3855,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="67" t="s">
+      <c r="F12" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="G12" s="67" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="62" t="s">
         <v>51</v>
@@ -3881,17 +3878,17 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:16">
@@ -3900,10 +3897,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>48</v>
@@ -3915,31 +3912,31 @@
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="62" t="s">
+      <c r="K13" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="L13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="62" t="s">
+      <c r="M13" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>88</v>
-      </c>
       <c r="P13" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:16">
@@ -3948,66 +3945,66 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62" t="s">
+      <c r="K14" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>91</v>
-      </c>
       <c r="M14" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O14" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>93</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>94</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4015,40 +4012,40 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="62" t="s">
         <v>96</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>97</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="67"/>
       <c r="H16" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I16" s="62" t="b">
         <v>0</v>
@@ -4056,38 +4053,38 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="62"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>100</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4095,19 +4092,19 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P17" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="62"/>
     </row>
@@ -4127,7 +4124,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
@@ -4139,7 +4136,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4160,7 +4157,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4188,7 +4185,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4197,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -4206,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4215,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4223,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4231,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4244,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -4290,57 +4287,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4378,19 +4375,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4399,25 +4396,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4426,25 +4423,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4453,25 +4450,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4480,25 +4477,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4507,25 +4504,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>140</v>
-      </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4534,25 +4531,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4561,25 +4558,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>128</v>
-      </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4588,25 +4585,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4615,25 +4612,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>134</v>
-      </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4642,25 +4639,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4669,25 +4666,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>140</v>
-      </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4696,25 +4693,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>143</v>
-      </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4751,12 +4748,12 @@
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4771,7 +4768,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4784,69 +4781,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="E3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="E4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4890,7 +4887,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4900,7 +4897,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4909,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4927,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4936,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4954,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4963,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4981,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -4990,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5008,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5017,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5035,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5044,7 +5041,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5062,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5071,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5089,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5098,7 +5095,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5116,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5125,7 +5122,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5143,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5152,7 +5149,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5170,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5179,7 +5176,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5197,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5206,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5224,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5233,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5251,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5260,7 +5257,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5287,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5305,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5314,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5332,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5341,7 +5338,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5359,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5368,7 +5365,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5386,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5395,7 +5392,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5413,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5422,7 +5419,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5440,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5449,7 +5446,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5467,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5476,7 +5473,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5494,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5503,7 +5500,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5521,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5530,7 +5527,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5548,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5557,7 +5554,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5575,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5584,7 +5581,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5602,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5611,7 +5608,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5635,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5644,7 +5641,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5668,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5677,7 +5674,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5701,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5710,7 +5707,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5734,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5762,7 +5759,7 @@
     <col min="5" max="5" width="24.3839285714286" customWidth="1"/>
     <col min="6" max="6" width="14.6339285714286" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="36.5803571428571" customWidth="1"/>
     <col min="9" max="9" width="24.1339285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5770,12 +5767,12 @@
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5797,57 +5794,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="G4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5885,21 +5882,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5908,13 +5905,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5926,7 +5923,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5935,13 +5932,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5953,7 +5950,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5962,13 +5959,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -5980,7 +5977,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5989,13 +5986,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6007,7 +6004,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6016,13 +6013,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6034,7 +6031,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6043,25 +6040,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6070,25 +6067,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6097,25 +6094,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6124,13 +6121,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6139,10 +6136,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6151,13 +6148,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6166,10 +6163,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6178,25 +6175,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6205,25 +6202,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6232,25 +6229,25 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6259,13 +6256,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6274,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6286,13 +6283,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6301,10 +6298,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6313,25 +6310,25 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6340,25 +6337,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6367,25 +6364,25 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6394,13 +6391,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6409,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6421,13 +6418,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6436,10 +6433,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6478,24 +6475,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6518,59 +6515,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6599,376 +6596,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="C7" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="D7" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="F7" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="H7" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="I7" s="48" t="s">
         <v>250</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="31" t="s">
+      <c r="H8" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="48" t="s">
         <v>253</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="H9" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>256</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="31" t="s">
+      <c r="H10" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>259</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="31" t="s">
+      <c r="H11" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="H12" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>265</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="H13" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>268</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="31" t="s">
+      <c r="H14" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>271</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>274</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="31" t="s">
+      <c r="H16" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>277</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="31" t="s">
+      <c r="H17" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>280</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="31" t="s">
+      <c r="H18" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I18" s="48" t="s">
         <v>283</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="H19" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="48" t="s">
         <v>286</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6993,7 +6990,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7012,7 +7009,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7021,7 +7018,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7044,54 +7041,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>293</v>
-      </c>
       <c r="H3" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7129,420 +7126,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="I7" s="31" t="s">
         <v>306</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>308</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>313</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>317</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>319</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>321</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" s="31" t="s">
         <v>323</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>325</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>327</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>329</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>331</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>333</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="31" t="s">
         <v>335</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -7575,7 +7572,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7587,18 +7584,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7609,7 +7606,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7620,31 +7617,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7679,16 +7676,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7703,53 +7700,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7772,25 +7769,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7799,19 +7796,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7820,19 +7817,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>366</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>367</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
     <sheet name="活动类型" sheetId="13" r:id="rId2"/>
-    <sheet name="超值单冲" sheetId="14" r:id="rId3"/>
+    <sheet name="超值单充" sheetId="14" r:id="rId3"/>
     <sheet name="充值抽奖" sheetId="15" r:id="rId4"/>
-    <sheet name="每日单冲" sheetId="12" r:id="rId5"/>
+    <sheet name="每日单充" sheetId="12" r:id="rId5"/>
     <sheet name="限时累充" sheetId="19" r:id="rId6"/>
     <sheet name="豪华签到" sheetId="17" r:id="rId7"/>
     <sheet name="重置周期" sheetId="18" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="371">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -198,6 +198,30 @@
     <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取橙色色宝物宝箱。</t>
   </si>
   <si>
+    <t>2022-05-05 08:00:01</t>
+  </si>
+  <si>
+    <t>2022-06-05 08:00:01</t>
+  </si>
+  <si>
+    <t>2022-06-07 08:00:01</t>
+  </si>
+  <si>
+    <t>性感佳人</t>
+  </si>
+  <si>
+    <t>中岛希子</t>
+  </si>
+  <si>
+    <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取红色情人宝箱。</t>
+  </si>
+  <si>
+    <t>每日单充3</t>
+  </si>
+  <si>
+    <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取橙色情人宝箱。</t>
+  </si>
+  <si>
     <t>2021-05-04 17:00:01</t>
   </si>
   <si>
@@ -205,21 +229,6 @@
   </si>
   <si>
     <t>2021-08-25 24:00:00</t>
-  </si>
-  <si>
-    <t>性感佳人</t>
-  </si>
-  <si>
-    <t>中岛希子</t>
-  </si>
-  <si>
-    <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取红色情人宝箱。</t>
-  </si>
-  <si>
-    <t>每日单充3</t>
-  </si>
-  <si>
-    <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取橙色情人宝箱。</t>
   </si>
   <si>
     <t>全副武装</t>
@@ -3405,8 +3414,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3729,13 +3738,13 @@
         <v>65</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H9" s="62" t="s">
         <v>51</v>
@@ -3746,10 +3755,10 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N9" s="62" t="s">
         <v>51</v>
@@ -3759,7 +3768,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -3768,19 +3777,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>51</v>
@@ -3791,10 +3800,10 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>51</v>
@@ -3804,7 +3813,7 @@
         <v>54</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
@@ -3813,19 +3822,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H11" s="62" t="s">
         <v>51</v>
@@ -3836,13 +3845,13 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="62" t="s">
@@ -3855,19 +3864,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H12" s="62" t="s">
         <v>51</v>
@@ -3878,13 +3887,13 @@
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62" t="s">
@@ -3897,10 +3906,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>48</v>
@@ -3912,28 +3921,28 @@
         <v>50</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I13" s="62" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L13" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="62" t="s">
-        <v>83</v>
-      </c>
       <c r="O13" s="62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P13" s="62" t="s">
         <v>54</v>
@@ -3945,43 +3954,43 @@
         <v>8</v>
       </c>
       <c r="C14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>85</v>
-      </c>
       <c r="L14" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="62" t="s">
         <v>90</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>87</v>
       </c>
       <c r="P14" s="62" t="s">
         <v>54</v>
@@ -3989,22 +3998,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="68" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="64" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I15" s="62" t="b">
         <v>0</v>
@@ -4012,34 +4021,34 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
         <v>54</v>
       </c>
       <c r="Q15" s="62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="68" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B16" s="62">
         <v>10</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -4053,10 +4062,10 @@
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N16" s="62" t="s">
         <v>51</v>
@@ -4069,22 +4078,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="68" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="64" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I17" s="62" t="b">
         <v>0</v>
@@ -4092,16 +4101,16 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="62" t="s">
         <v>54</v>
@@ -4124,7 +4133,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
@@ -4136,7 +4145,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4157,7 +4166,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4185,7 +4194,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4203,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4212,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4220,7 +4229,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4228,7 +4237,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4253,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -4287,57 +4296,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4375,19 +4384,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4396,25 +4405,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4423,25 +4432,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4450,25 +4459,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4477,25 +4486,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4504,25 +4513,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4531,25 +4540,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4558,25 +4567,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4585,25 +4594,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4612,25 +4621,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4639,25 +4648,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4666,25 +4675,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4693,25 +4702,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4748,12 +4757,12 @@
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4768,7 +4777,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="56"/>
@@ -4781,69 +4790,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4887,7 +4896,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4897,7 +4906,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4906,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4924,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4933,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4951,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4960,7 +4969,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4978,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -4987,7 +4996,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5005,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5014,7 +5023,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5032,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5041,7 +5050,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5059,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5068,7 +5077,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5086,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5095,7 +5104,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5113,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5122,7 +5131,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5140,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5149,7 +5158,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5167,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5176,7 +5185,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5194,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5203,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5221,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5230,7 +5239,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5248,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5257,7 +5266,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5275,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5284,7 +5293,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5302,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5311,7 +5320,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5329,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5338,7 +5347,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5356,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5365,7 +5374,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5383,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5392,7 +5401,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5410,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5419,7 +5428,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5437,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5446,7 +5455,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5464,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5473,7 +5482,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5491,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5500,7 +5509,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5518,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5527,7 +5536,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5545,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5554,7 +5563,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5572,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5581,7 +5590,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5599,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5608,7 +5617,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5632,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5641,7 +5650,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5665,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5674,7 +5683,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5698,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5707,7 +5716,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5731,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5747,7 +5756,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -5767,12 +5776,12 @@
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5794,57 +5803,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5882,21 +5891,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5905,13 +5914,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5923,7 +5932,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5932,13 +5941,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5950,7 +5959,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5959,13 +5968,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -5977,7 +5986,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5986,13 +5995,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6004,7 +6013,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6013,13 +6022,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6031,7 +6040,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6040,13 +6049,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6058,7 +6067,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6067,13 +6076,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6085,7 +6094,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6094,13 +6103,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6112,7 +6121,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6121,13 +6130,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6139,7 +6148,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6148,13 +6157,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6166,7 +6175,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6175,13 +6184,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6193,7 +6202,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6202,13 +6211,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6220,7 +6229,7 @@
         <v>64</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6229,13 +6238,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6247,7 +6256,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6256,13 +6265,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6274,7 +6283,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6283,13 +6292,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6301,7 +6310,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6310,13 +6319,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6325,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6337,13 +6346,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6352,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6364,13 +6373,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6379,10 +6388,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6391,13 +6400,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6406,10 +6415,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6418,13 +6427,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6433,10 +6442,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6466,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -6465,34 +6474,35 @@
     <col min="1" max="1" width="21.1339285714286" style="32" customWidth="1"/>
     <col min="2" max="2" width="7.63392857142857" style="32" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="32" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="32" customWidth="1"/>
-    <col min="5" max="6" width="14.25" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16" style="32" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.2767857142857" style="32" customWidth="1"/>
+    <col min="5" max="5" width="24.4017857142857" style="32" customWidth="1"/>
+    <col min="6" max="6" width="27.2321428571429" style="32" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="32" customWidth="1"/>
+    <col min="8" max="8" width="26.6428571428571" style="32" customWidth="1"/>
     <col min="9" max="9" width="76.25" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
       <c r="D1" s="41" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6515,59 +6525,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6596,376 +6606,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="43" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="44"/>
       <c r="B8" s="31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G8" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>249</v>
-      </c>
       <c r="I8" s="48" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="44"/>
       <c r="B10" s="31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="45"/>
       <c r="B11" s="31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -7009,7 +7019,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7018,7 +7028,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7041,54 +7051,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7126,420 +7136,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
       <c r="B8" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>304</v>
-      </c>
       <c r="H8" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
       <c r="B9" s="39" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
       <c r="B11" s="39" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="39" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="39" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="39" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="39" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="39" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="39" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="39" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="39" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7572,7 +7582,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7584,18 +7594,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7606,7 +7616,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7617,31 +7627,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7659,8 +7669,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -7676,16 +7686,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7700,53 +7710,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7769,25 +7779,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7796,19 +7806,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7817,19 +7827,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>362</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="372">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -222,6 +222,36 @@
     <t>性感佳人期待与您的邂逅，单笔充值指定金额即可领取橙色情人宝箱。</t>
   </si>
   <si>
+    <t>2022-05-05 08:10:00</t>
+  </si>
+  <si>
+    <t>全副武装</t>
+  </si>
+  <si>
+    <t>凯莉</t>
+  </si>
+  <si>
+    <t>精良装备打造您的最强黑道军团，单笔充值指定金额即可领取红色装备宝箱。</t>
+  </si>
+  <si>
+    <t>每日单充4</t>
+  </si>
+  <si>
+    <t>精锐头目助您征战黑帮世界，单笔充值指定金额即可领取橙色头目宝箱。</t>
+  </si>
+  <si>
+    <t>黑道重宝</t>
+  </si>
+  <si>
+    <t>莉莉</t>
+  </si>
+  <si>
+    <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取红色宝物宝箱。</t>
+  </si>
+  <si>
+    <t>为了防止世界被破坏</t>
+  </si>
+  <si>
     <t>2021-05-04 17:00:01</t>
   </si>
   <si>
@@ -229,33 +259,6 @@
   </si>
   <si>
     <t>2021-08-25 24:00:00</t>
-  </si>
-  <si>
-    <t>全副武装</t>
-  </si>
-  <si>
-    <t>凯莉</t>
-  </si>
-  <si>
-    <t>精良装备打造您的最强黑道军团，单笔充值指定金额即可领取红色装备宝箱。</t>
-  </si>
-  <si>
-    <t>每日单充4</t>
-  </si>
-  <si>
-    <t>精锐头目助您征战黑帮世界，单笔充值指定金额即可领取橙色头目宝箱。</t>
-  </si>
-  <si>
-    <t>黑道重宝</t>
-  </si>
-  <si>
-    <t>莉莉</t>
-  </si>
-  <si>
-    <t>神秘宝物助力您成就黑道巅峰，单笔充值指定金额即可领取红色宝物宝箱。</t>
-  </si>
-  <si>
-    <t>为了防止世界被破坏</t>
   </si>
   <si>
     <t>充钱3</t>
@@ -1379,18 +1382,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>$no_empty$ref(Recharge</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
@@ -1613,7 +1610,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,6 +1655,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1945,7 +1948,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -2452,7 +2455,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2463,30 +2466,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2501,315 +2504,315 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyFill="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="7">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="7">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyFill="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="40" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="40" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2923,6 +2926,9 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2950,7 +2956,7 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2995,12 +3001,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3414,8 +3420,8 @@
   <sheetPr/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3439,21 +3445,21 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="3:10">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="70"/>
+      <c r="J1" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="66" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="9" t="s">
@@ -3504,7 +3510,7 @@
       <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="72" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3637,488 +3643,488 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="67"/>
-      <c r="B7" s="62">
-        <v>1</v>
-      </c>
-      <c r="C7" s="62" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="63">
+        <v>1</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="62" t="b">
+      <c r="I7" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="62" t="s">
+      <c r="Q7" s="63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="67"/>
-      <c r="B8" s="62">
+      <c r="A8" s="68"/>
+      <c r="B8" s="63">
         <v>2</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="62" t="b">
+      <c r="I8" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62" t="s">
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="62" t="s">
+      <c r="M8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62" t="s">
+      <c r="O8" s="63"/>
+      <c r="P8" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="62" t="s">
+      <c r="Q8" s="63" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="67"/>
-      <c r="B9" s="62">
+      <c r="A9" s="68"/>
+      <c r="B9" s="63">
         <v>3</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="M9" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="N9" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="62" t="b">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:17">
+      <c r="A10" s="68"/>
+      <c r="B10" s="63">
+        <v>4</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="62" t="s">
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="67"/>
-      <c r="B10" s="62">
-        <v>4</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="Q10" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:16">
+      <c r="A11" s="68"/>
+      <c r="B11" s="63">
+        <v>5</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:16">
+      <c r="A12" s="68"/>
+      <c r="B12" s="63">
+        <v>6</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:16">
+      <c r="A13" s="68"/>
+      <c r="B13" s="63">
+        <v>7</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:16">
+      <c r="A14" s="68"/>
+      <c r="B14" s="63">
+        <v>8</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:17">
+      <c r="A15" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="63">
+        <v>9</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="62" t="s">
+      <c r="N15" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:17">
+      <c r="A16" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="63">
+        <v>10</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="62" t="b">
+      <c r="I16" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="62" t="s">
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62" t="s">
+      <c r="O16" s="63"/>
+      <c r="P16" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="67"/>
-      <c r="B11" s="62">
-        <v>5</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="62" t="b">
+      <c r="Q16" s="63"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:17">
+      <c r="A17" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="63">
+        <v>11</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62" t="s">
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:16">
-      <c r="A12" s="67"/>
-      <c r="B12" s="62">
-        <v>6</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:16">
-      <c r="A13" s="67"/>
-      <c r="B13" s="62">
-        <v>7</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:16">
-      <c r="A14" s="67"/>
-      <c r="B14" s="62">
-        <v>8</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:17">
-      <c r="A15" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="62">
-        <v>9</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:17">
-      <c r="A16" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="62">
-        <v>10</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" s="62"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="62">
-        <v>11</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="62"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="19" customHeight="1" spans="7:7">
-      <c r="G19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,7 +4139,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
@@ -4144,14 +4150,14 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="58" t="s">
-        <v>104</v>
+      <c r="A1" s="59" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
@@ -4166,7 +4172,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4194,50 +4200,50 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62">
-        <v>1</v>
-      </c>
-      <c r="C7" s="62" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63">
+        <v>1</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63">
         <v>2</v>
       </c>
-      <c r="C8" s="62" t="s">
-        <v>79</v>
+      <c r="C8" s="63" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63">
         <v>3</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>86</v>
+      <c r="C9" s="63" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="63">
+      <c r="B10" s="64">
         <v>4</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>97</v>
+      <c r="C10" s="65" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="64">
+      <c r="B11" s="65">
         <v>5</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>103</v>
+      <c r="C11" s="65" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4259,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -4270,83 +4276,83 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4384,19 +4390,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4405,25 +4411,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4432,25 +4438,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -4459,25 +4465,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -4486,25 +4492,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -4513,25 +4519,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -4540,25 +4546,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -4567,25 +4573,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4594,25 +4600,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4621,25 +4627,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4648,25 +4654,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4675,25 +4681,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4702,25 +4708,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4736,7 +4742,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -4754,105 +4760,105 @@
   </cols>
   <sheetData>
     <row r="1" ht="41.25" customHeight="1" spans="1:11">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="56" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4896,7 +4902,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4906,7 +4912,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4915,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4933,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4942,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4960,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4969,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4987,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -4996,7 +5002,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5014,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5023,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5041,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5050,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5068,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5077,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -5095,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -5104,7 +5110,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5122,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -5131,7 +5137,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5149,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -5158,7 +5164,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -5176,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
@@ -5185,7 +5191,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -5203,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:11">
@@ -5212,7 +5218,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
@@ -5239,7 +5245,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -5257,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
@@ -5266,7 +5272,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -5284,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -5293,7 +5299,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -5311,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -5320,7 +5326,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5338,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -5347,7 +5353,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5365,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -5374,7 +5380,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -5392,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -5401,7 +5407,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -5419,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:11">
@@ -5428,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5446,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -5455,7 +5461,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5473,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
@@ -5482,7 +5488,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5500,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -5509,7 +5515,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5527,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
@@ -5536,7 +5542,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5554,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
@@ -5563,7 +5569,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5581,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:11">
@@ -5590,7 +5596,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5608,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:11">
@@ -5617,7 +5623,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -5641,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:11">
@@ -5650,7 +5656,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -5674,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
@@ -5683,7 +5689,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D35" s="16">
         <v>666</v>
@@ -5707,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
@@ -5716,7 +5722,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D36" s="16">
         <v>888</v>
@@ -5740,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5773,87 +5779,87 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -5891,21 +5897,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5914,13 +5920,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -5932,7 +5938,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5941,13 +5947,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -5959,7 +5965,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5968,13 +5974,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -5986,7 +5992,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5995,13 +6001,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" s="13">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -6013,7 +6019,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -6022,13 +6028,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -6040,7 +6046,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -6049,13 +6055,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -6067,7 +6073,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -6076,13 +6082,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -6094,7 +6100,7 @@
         <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -6103,13 +6109,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -6121,7 +6127,7 @@
         <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -6130,13 +6136,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D15" s="13">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6148,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -6157,13 +6163,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6175,7 +6181,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -6184,13 +6190,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -6202,7 +6208,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -6211,13 +6217,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -6229,7 +6235,7 @@
         <v>64</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
@@ -6238,13 +6244,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -6256,7 +6262,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
@@ -6265,13 +6271,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -6283,7 +6289,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
@@ -6292,13 +6298,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D21" s="13">
         <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -6310,7 +6316,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -6319,13 +6325,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -6334,10 +6340,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -6346,13 +6352,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -6361,10 +6367,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -6373,13 +6379,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -6388,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -6400,13 +6406,13 @@
         <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D25" s="13">
         <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -6415,10 +6421,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -6427,13 +6433,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D26" s="13">
         <v>80</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -6442,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6465,8 +6471,8 @@
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -6485,24 +6491,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="47" t="s">
+        <v>226</v>
+      </c>
       <c r="H1" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -6510,10 +6516,10 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="23"/>
       <c r="I2" s="25"/>
     </row>
@@ -6525,59 +6531,59 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -6606,376 +6612,376 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="43" t="s">
-        <v>245</v>
+      <c r="A7" s="44" t="s">
+        <v>246</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="45"/>
+      <c r="B8" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="F8" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I7" s="48" t="s">
+      <c r="G8" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="44"/>
-      <c r="B8" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="I8" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="45"/>
+      <c r="B9" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="D9" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="44"/>
-      <c r="B9" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="F9" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="45"/>
+      <c r="B10" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="D10" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="44"/>
-      <c r="B10" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="F10" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="46"/>
+      <c r="B11" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="D11" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="E11" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="45"/>
-      <c r="B11" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>249</v>
-      </c>
       <c r="F11" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:9">
       <c r="B12" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>268</v>
+        <v>253</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>271</v>
+        <v>253</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:9">
       <c r="B14" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>274</v>
+        <v>253</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>277</v>
+        <v>253</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
       <c r="B16" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>280</v>
+        <v>253</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>283</v>
+        <v>253</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="B18" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>286</v>
+        <v>253</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>289</v>
+        <v>253</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6999,8 +7005,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -7019,7 +7025,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -7028,7 +7034,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I1" s="22"/>
     </row>
@@ -7051,54 +7057,54 @@
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -7136,420 +7142,420 @@
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>302</v>
+        <v>244</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="40" t="s">
         <v>307</v>
       </c>
+      <c r="G7" s="41" t="s">
+        <v>308</v>
+      </c>
       <c r="H7" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="30"/>
-      <c r="B8" s="39" t="s">
-        <v>310</v>
+      <c r="B8" s="40" t="s">
+        <v>311</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="40" t="s">
         <v>307</v>
       </c>
+      <c r="G8" s="41" t="s">
+        <v>308</v>
+      </c>
       <c r="H8" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="30"/>
-      <c r="B9" s="39" t="s">
-        <v>312</v>
+      <c r="B9" s="40" t="s">
+        <v>313</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" s="40" t="s">
         <v>307</v>
       </c>
+      <c r="G9" s="41" t="s">
+        <v>308</v>
+      </c>
       <c r="H9" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="30"/>
-      <c r="B10" s="39" t="s">
-        <v>314</v>
+      <c r="B10" s="40" t="s">
+        <v>315</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="30"/>
-      <c r="B11" s="39" t="s">
-        <v>317</v>
+      <c r="B11" s="40" t="s">
+        <v>318</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H11" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:9">
+      <c r="B12" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:9">
-      <c r="B12" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G12" s="40" t="s">
+      <c r="H12" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:9">
+      <c r="B13" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="G13" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:9">
-      <c r="B13" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G13" s="40" t="s">
+      <c r="H13" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:9">
+      <c r="B14" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="G14" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:9">
-      <c r="B14" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="H14" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:9">
+      <c r="B16" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:9">
+      <c r="B17" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="G17" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="31" t="s">
+      <c r="H17" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:9">
+      <c r="B18" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:9">
-      <c r="B16" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="H16" s="31" t="s">
+      <c r="H18" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="B19" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>307</v>
-      </c>
       <c r="H19" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="39" t="s">
-        <v>335</v>
+      <c r="B20" s="40" t="s">
+        <v>336</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="39" t="s">
-        <v>337</v>
+      <c r="B21" s="40" t="s">
+        <v>338</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7582,7 +7588,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -7594,18 +7600,18 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -7616,7 +7622,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>37</v>
@@ -7627,31 +7633,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="30"/>
       <c r="B7" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -7686,16 +7692,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -7710,53 +7716,53 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>37</v>
@@ -7779,25 +7785,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -7806,19 +7812,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -7827,19 +7833,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/C-充值活动表.xlsx
+++ b/exceldata/excel/all/C-充值活动表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="369">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -250,15 +250,6 @@
   </si>
   <si>
     <t>为了防止世界被破坏</t>
-  </si>
-  <si>
-    <t>2021-05-04 17:00:01</t>
-  </si>
-  <si>
-    <t>2021-08-24 24:00:00</t>
-  </si>
-  <si>
-    <t>2021-08-25 24:00:00</t>
   </si>
   <si>
     <t>充钱3</t>
@@ -3421,7 +3412,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -3834,13 +3825,13 @@
         <v>75</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>51</v>
@@ -3851,13 +3842,13 @@
       <c r="J11" s="63"/>
       <c r="K11" s="63"/>
       <c r="L11" s="63" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M11" s="63" t="s">
         <v>68</v>
       </c>
       <c r="N11" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O11" s="63"/>
       <c r="P11" s="63" t="s">
@@ -3870,19 +3861,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="68" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>84</v>
       </c>
       <c r="H12" s="63" t="s">
         <v>51</v>
@@ -3893,13 +3884,13 @@
       <c r="J12" s="63"/>
       <c r="K12" s="63"/>
       <c r="L12" s="63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="63" t="s">
         <v>68</v>
       </c>
       <c r="N12" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O12" s="63"/>
       <c r="P12" s="63" t="s">
@@ -3912,10 +3903,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E13" s="68" t="s">
         <v>48</v>
@@ -3927,28 +3918,28 @@
         <v>50</v>
       </c>
       <c r="H13" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="63" t="s">
         <v>87</v>
-      </c>
-      <c r="I13" s="63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="63" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="63" t="s">
         <v>68</v>
       </c>
       <c r="N13" s="63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P13" s="63" t="s">
         <v>54</v>
@@ -3960,10 +3951,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="68" t="s">
         <v>66</v>
@@ -3975,28 +3966,28 @@
         <v>60</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I14" s="63" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K14" s="63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L14" s="63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="63" t="s">
         <v>68</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O14" s="63" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P14" s="63" t="s">
         <v>54</v>
@@ -4004,22 +3995,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="63">
         <v>9</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
       <c r="H15" s="65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I15" s="63" t="b">
         <v>0</v>
@@ -4027,13 +4018,13 @@
       <c r="J15" s="63"/>
       <c r="K15" s="63"/>
       <c r="L15" s="63" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M15" s="63" t="s">
         <v>73</v>
       </c>
       <c r="N15" s="63" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O15" s="63"/>
       <c r="P15" s="63" t="s">
@@ -4045,16 +4036,16 @@
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="63">
         <v>10</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="68"/>
@@ -4068,7 +4059,7 @@
       <c r="J16" s="63"/>
       <c r="K16" s="63"/>
       <c r="L16" s="63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M16" s="63" t="s">
         <v>73</v>
@@ -4084,22 +4075,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="63">
         <v>11</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
       <c r="H17" s="65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I17" s="63" t="b">
         <v>0</v>
@@ -4107,16 +4098,16 @@
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M17" s="63" t="s">
         <v>73</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O17" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="63" t="s">
         <v>54</v>
@@ -4151,7 +4142,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -4172,7 +4163,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -4200,7 +4191,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4218,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -4227,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
@@ -4235,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
@@ -4243,7 +4234,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4302,57 +4293,57 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4390,19 +4381,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4411,19 +4402,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
@@ -4438,19 +4429,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
@@ -4465,19 +4456,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
@@ -4492,19 +4483,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
@@ -4519,19 +4510,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
@@ -4546,19 +4537,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -4573,25 +4564,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
@@ -4600,25 +4591,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
@@ -4627,25 +4618,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
@@ -4654,25 +4645,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
@@ -4681,25 +4672,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -4708,25 +4699,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4763,12 +4754,12 @@
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
       <c r="C1" s="57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
@@ -4783,7 +4774,7 @@
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
       <c r="F2" s="58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G2" s="54"/>
       <c r="H2" s="57"/>
@@ -4796,69 +4787,69 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
@@ -4902,7 +4893,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4912,7 +4903,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -4921,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="13">
         <v>100000</v>
@@ -4939,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -4948,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D8" s="13">
         <v>100000</v>
@@ -4966,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -4975,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4993,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -5002,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -5020,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -5029,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -5047,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -5056,7 +5047,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -5074,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -5083,7 +5074,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D13" s="13">
 